--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7C257-D09F-4B5A-BE20-DA8EBB55AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642E6F5-0806-438A-803E-5D59719F7BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1260" windowWidth="32145" windowHeight="18270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41175" yWindow="6315" windowWidth="30765" windowHeight="10515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
-    <sheet name="!money" sheetId="2" r:id="rId2"/>
+    <sheet name="!goods" sheetId="2" r:id="rId2"/>
     <sheet name="!item" sheetId="5" r:id="rId3"/>
     <sheet name="!item_piece" sheetId="6" r:id="rId4"/>
     <sheet name="!equipment" sheetId="7" r:id="rId5"/>
@@ -45,8 +45,18 @@
     <author>Rown</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{56E60884-D43F-4D95-94EF-5B782F66BE8A}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{C4937612-869C-4E9B-9A94-DD5E62DD34A7}">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">money </t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -56,7 +66,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>값이</t>
+          <t>유형의</t>
         </r>
         <r>
           <rPr>
@@ -66,7 +76,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 0 </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -77,7 +87,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>이면</t>
+          <t>재화는</t>
         </r>
         <r>
           <rPr>
@@ -87,7 +97,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">, </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -98,7 +108,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>소비</t>
+          <t>이</t>
         </r>
         <r>
           <rPr>
@@ -119,7 +129,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>시간</t>
+          <t>칼럼</t>
         </r>
         <r>
           <rPr>
@@ -140,12 +150,22 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>없음</t>
+          <t>미사용</t>
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{FCE33123-1A10-4E42-8154-A822543097F5}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{07A9EEC5-EC8A-429E-8F01-A9DE184DC993}">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>player</t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -155,7 +175,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>값이</t>
+          <t>가</t>
         </r>
         <r>
           <rPr>
@@ -165,7 +185,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 0 </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -176,7 +196,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>이면</t>
+          <t>보유할</t>
         </r>
         <r>
           <rPr>
@@ -186,7 +206,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">, </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -197,7 +217,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>소비</t>
+          <t>수</t>
         </r>
         <r>
           <rPr>
@@ -218,7 +238,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기한</t>
+          <t>있는</t>
         </r>
         <r>
           <rPr>
@@ -239,7 +259,28 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>없음</t>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치</t>
         </r>
       </text>
     </comment>
@@ -253,18 +294,8 @@
     <author>Rown</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{7C50D53B-8D8C-4D26-90FC-6FFDC715D207}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{56E60884-D43F-4D95-94EF-5B782F66BE8A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:</t>
-        </r>
         <r>
           <rPr>
             <b/>
@@ -274,8 +305,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">아이템
-</t>
+          <t>값이</t>
         </r>
         <r>
           <rPr>
@@ -285,7 +315,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2:</t>
+          <t xml:space="preserve"> 0 </t>
         </r>
         <r>
           <rPr>
@@ -296,8 +326,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">캐릭터
-</t>
+          <t>이면</t>
         </r>
         <r>
           <rPr>
@@ -307,7 +336,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3:</t>
+          <t xml:space="preserve">, </t>
         </r>
         <r>
           <rPr>
@@ -318,12 +347,18 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>장비</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{D359808C-3CCD-4C49-B96A-E0AF34A91D76}">
-      <text>
+          <t>소비</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -333,7 +368,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>값이</t>
+          <t>시간</t>
         </r>
         <r>
           <rPr>
@@ -343,7 +378,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 0 </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -354,128 +389,12 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>이면</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>소비</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
           <t>없음</t>
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{B9BC3B02-0D2F-494D-8F9A-A3FA2225E711}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{FCE33123-1A10-4E42-8154-A822543097F5}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>&gt; scheduleTable</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>과</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">연결
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">&gt; </t>
-        </r>
         <r>
           <rPr>
             <b/>
@@ -583,6 +502,336 @@
     <author>Rown</author>
   </authors>
   <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{7C50D53B-8D8C-4D26-90FC-6FFDC715D207}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아이템
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">캐릭터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>장비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{D359808C-3CCD-4C49-B96A-E0AF34A91D76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이면</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소비</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{B9BC3B02-0D2F-494D-8F9A-A3FA2225E711}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt; scheduleTable</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>과</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">연결
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이면</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소비</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rown</author>
+  </authors>
+  <commentList>
     <comment ref="R4" authorId="0" shapeId="0" xr:uid="{EF15DA99-053B-4AB4-8123-1761AE8EA59A}">
       <text>
         <r>
@@ -1061,7 +1310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="209">
   <si>
     <t>type</t>
   </si>
@@ -1085,9 +1334,6 @@
   </si>
   <si>
     <t>아이템 타입</t>
-  </si>
-  <si>
-    <t>최대값 제한</t>
   </si>
   <si>
     <t>item_id</t>
@@ -2771,10 +3017,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Money_Data</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -3101,6 +3343,57 @@
   </si>
   <si>
     <t>6 팔찌</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">base </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대값</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">limit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대값</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스태미나</t>
+  </si>
+  <si>
+    <t>stamina</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_max</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_max</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Data</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3493,7 +3786,8 @@
       <sheetName val="@piece_type"/>
       <sheetName val="@eqipment_type"/>
       <sheetName val="@drop_type"/>
-      <sheetName val="@stage_common"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3866,10 +4160,15 @@
         </row>
       </sheetData>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4092,18 +4391,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="12.75">
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="39.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
@@ -4117,10 +4416,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>0</v>
@@ -4316,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="13.5">
@@ -4336,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="13.5">
@@ -4356,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="13.5">
@@ -4376,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="13.5">
@@ -4396,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15">
@@ -4416,10 +4715,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15">
@@ -4439,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>0</v>
@@ -4468,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="14" t="str">
         <f>'[1]@eqipment_type'!$A4</f>
@@ -4500,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="14" t="str">
         <f>'[1]@eqipment_type'!$A5</f>
@@ -4532,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M20" s="14" t="str">
         <f>'[1]@eqipment_type'!$A6</f>
@@ -4564,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M21" s="14" t="str">
         <f>'[1]@eqipment_type'!$A7</f>
@@ -5612,14 +5911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5628,12 +5927,12 @@
     <col min="3" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5647,13 +5946,16 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>181</v>
+        <v>202</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5661,7 +5963,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -5670,74 +5972,111 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>182</v>
+        <v>207</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C5,'!참조_ENUM'!$C$3:$C$84,0))</f>
         <v>1</v>
       </c>
       <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C6,'!참조_ENUM'!$C$3:$C$84,0))</f>
         <v>2</v>
       </c>
       <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C7,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>999</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5745,7 +6084,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C6</xm:sqref>
+          <xm:sqref>C5:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5778,7 +6117,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5">
@@ -5789,7 +6128,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -5801,22 +6140,22 @@
         <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5827,13 +6166,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -5859,40 +6198,40 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5900,16 +6239,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E5,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -5931,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5939,16 +6278,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F6" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E6,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -5970,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5978,16 +6317,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F7" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E7,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6009,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6017,16 +6356,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F8" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E8,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6048,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6056,16 +6395,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F9" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E9,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6087,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6095,16 +6434,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F10" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E10,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6126,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6134,16 +6473,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F11" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E11,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6165,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6173,16 +6512,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F12" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E12,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6204,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6212,16 +6551,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F13" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E13,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6243,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6251,16 +6590,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F14" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E14,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6282,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6290,16 +6629,16 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>8</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E15,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6321,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6329,16 +6668,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F16" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E16,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6360,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6368,16 +6707,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E17,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6399,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.5">
@@ -6407,16 +6746,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" s="1">
         <v>9</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F18" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E18,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6438,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6446,16 +6785,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D19" s="1">
         <v>11</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F19" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E19,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6477,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6485,16 +6824,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="1">
         <v>11</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F20" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E20,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6516,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6524,16 +6863,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>11</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F21" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E21,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6555,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6601,7 +6940,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5">
@@ -6612,31 +6951,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6647,10 +6986,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -6676,37 +7015,37 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6714,13 +7053,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D5,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -6750,13 +7089,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D6,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -6786,13 +7125,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D7,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -6822,13 +7161,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D8" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D8,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -6858,13 +7197,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D9" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D9,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -6912,7 +7251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -6936,7 +7275,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="26.25">
@@ -6947,58 +7286,58 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="R2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7009,10 +7348,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -7065,64 +7404,64 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="R4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5">
@@ -7130,13 +7469,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D5,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7191,13 +7530,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D6,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7252,13 +7591,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D7,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7313,13 +7652,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D8,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7374,13 +7713,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D9,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7435,13 +7774,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D10,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7496,13 +7835,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D11,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7557,13 +7896,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D12,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7618,13 +7957,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D13,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7679,13 +8018,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D14,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7740,13 +8079,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D15,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7801,13 +8140,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D16,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7862,13 +8201,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D17,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7923,13 +8262,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D18,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7984,13 +8323,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D19,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8045,13 +8384,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D20,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8106,13 +8445,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D21,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8167,13 +8506,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D22,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8228,13 +8567,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D23,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8289,13 +8628,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D24,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8350,13 +8689,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D25,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8411,13 +8750,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D26,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8472,13 +8811,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D27,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8533,13 +8872,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D28,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8594,13 +8933,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E29" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D29,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8655,13 +8994,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E30" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D30,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8716,13 +9055,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D31,'!참조_ENUM'!$O$18:$O$30,0))</f>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642E6F5-0806-438A-803E-5D59719F7BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD475EA-C789-4967-9EF7-17E54D942B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41175" yWindow="6315" windowWidth="30765" windowHeight="10515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="1155" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
-    <sheet name="!goods" sheetId="2" r:id="rId2"/>
-    <sheet name="!item" sheetId="5" r:id="rId3"/>
-    <sheet name="!item_piece" sheetId="6" r:id="rId4"/>
-    <sheet name="!equipment" sheetId="7" r:id="rId5"/>
+    <sheet name="goods" sheetId="2" r:id="rId2"/>
+    <sheet name="item" sheetId="5" r:id="rId3"/>
+    <sheet name="item_piece" sheetId="6" r:id="rId4"/>
+    <sheet name="equipment" sheetId="7" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -294,7 +294,7 @@
     <author>Rown</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{56E60884-D43F-4D95-94EF-5B782F66BE8A}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{56E60884-D43F-4D95-94EF-5B782F66BE8A}">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{FCE33123-1A10-4E42-8154-A822543097F5}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{FCE33123-1A10-4E42-8154-A822543097F5}">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="209">
   <si>
     <t>type</t>
   </si>
@@ -1340,9 +1340,6 @@
   </si>
   <si>
     <t>name_id</t>
-  </si>
-  <si>
-    <t>goods_type</t>
   </si>
   <si>
     <t>max_num</t>
@@ -2813,22 +2810,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>maxHp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>evasion</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>recoverHp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>drainHp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>hit</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2842,10 +2827,6 @@
   </si>
   <si>
     <t>hit_cri</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>healUp</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -3393,6 +3374,26 @@
   </si>
   <si>
     <t>Goods_Data</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_hp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>recover_hp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drain_hp</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3777,7 +3778,6 @@
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
       <sheetName val="@persistence_type"/>
-      <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
@@ -3788,6 +3788,9 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
+      <sheetName val="@effect_count_type"/>
+      <sheetName val="@stage_common"/>
+      <sheetName val="@projectile_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3809,9 +3812,236 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>GOLD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 금화(게임내 사용되는 재화)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 보석(게임내 사용되는 유료 재화)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>STAMINA</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 스태미나</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FAVORITE</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 호감도</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>EXP_PLAYER</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 플레이어 경험치</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>EXP_CHARACTER</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>6 캐릭터 경험치</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>7 캐릭터</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EQUIPMENT</v>
+          </cell>
+          <cell r="B12">
+            <v>8</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>6 장비</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>SEND_ESSENCE</v>
+          </cell>
+          <cell r="B13">
+            <v>9</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>근원 전달 횟수(플레이어 보유)</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>GET_ESSENCE</v>
+          </cell>
+          <cell r="B14">
+            <v>10</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>EXP_POTION</v>
+          </cell>
+          <cell r="B15">
+            <v>101</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>101 경험치 물약</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>STA_POTION</v>
+          </cell>
+          <cell r="B16">
+            <v>102</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>102 스테미나 회복 물약</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>FAVORITE_ITEM</v>
+          </cell>
+          <cell r="B17">
+            <v>103</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>103 호감도 아이템</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>STAGE_SKIP</v>
+          </cell>
+          <cell r="B18">
+            <v>104</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>104 스테이지 스킵 티켓</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>TICKET_DUNGEON</v>
+          </cell>
+          <cell r="B19">
+            <v>105</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>105 던전 입장 티켓</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>EQ_GROWUP</v>
+          </cell>
+          <cell r="B20">
+            <v>106</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>106 정련석(장비 성장)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>TICKET_REWARD_SELECT</v>
+          </cell>
+          <cell r="B21">
+            <v>107</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>107 보상 선택 티켓(1개를 선택 획득)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>TICKET_REWARD_RANDOM</v>
+          </cell>
+          <cell r="B22">
+            <v>108</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>TICKET_REWARD_ALL</v>
+          </cell>
+          <cell r="B23">
+            <v>109</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22">
         <row r="4">
           <cell r="A4" t="str">
@@ -3826,211 +4056,35 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>GOLD</v>
+            <v>ITEM</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 금화(게임내 사용되는 재화)</v>
+            <v>1 아이템</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>DIA</v>
+            <v>CHARACTER</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 보석(게임내 사용되는 유료 재화)</v>
+            <v>2 캐릭터</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>STAMINA</v>
+            <v>EQUIPMENT</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 스태미나</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>FAVORITE</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>4 호감도</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>EXP_PLAYER</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5 플레이어 경험치</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>EXP_CHARACTER</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>6 캐릭터 경험치</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>CHARACTER</v>
-          </cell>
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>7 캐릭터</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>EQUIPMENT</v>
-          </cell>
-          <cell r="B12">
-            <v>8</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>6 장비</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EXP_POTION</v>
-          </cell>
-          <cell r="B13">
-            <v>101</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>101 경험치 물약</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>STA_POTION</v>
-          </cell>
-          <cell r="B14">
-            <v>102</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>102 스테미나 회복 물약</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>FAVORITE_ITEM</v>
-          </cell>
-          <cell r="B15">
-            <v>103</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>103 호감도 아이템</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>STAGE_SKIP</v>
-          </cell>
-          <cell r="B16">
-            <v>104</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>104 스테이지 스킵 티켓</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>TICKET_DUNGEON</v>
-          </cell>
-          <cell r="B17">
-            <v>105</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>105 던전 입장 티켓</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>EQ_GROWUP</v>
-          </cell>
-          <cell r="B18">
-            <v>106</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>106 정련석(장비 성장)</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>TICKET_REWARD_SELECT</v>
-          </cell>
-          <cell r="B19">
-            <v>107</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>107 보상 선택 티켓(1개를 선택 획득)</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
-          </cell>
-          <cell r="B20">
-            <v>108</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>TICKET_REWARD_ALL</v>
-          </cell>
-          <cell r="B21">
-            <v>109</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>109 보상 패키지 티켓(모든 보상 획득)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>PIECE_EQUIPMENT</v>
-          </cell>
-          <cell r="B22">
-            <v>110</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>110 장비 조각</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>PIECE_CHARACTER</v>
-          </cell>
-          <cell r="B23">
-            <v>111</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>111 캐릭터 조각</v>
+            <v>3 장비</v>
           </cell>
         </row>
       </sheetData>
@@ -4048,52 +4102,6 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ITEM</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 아이템</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>CHARACTER</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 캐릭터</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>EQUIPMENT</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 장비</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
             <v>WEAPON</v>
           </cell>
           <cell r="B5">
@@ -4159,16 +4167,15 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4391,18 +4398,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="12.75">
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="39.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
@@ -4416,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>0</v>
@@ -4615,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="13.5">
@@ -4635,110 +4642,110 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="13.5">
       <c r="A13" s="14" t="str">
         <f>'[1]@goods_type'!$A13</f>
-        <v>EXP_POTION</v>
+        <v>SEND_ESSENCE</v>
       </c>
       <c r="B13" s="14">
         <f>'[1]@goods_type'!$B13</f>
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>'[1]@goods_type'!$C13</f>
-        <v>101 경험치 물약</v>
+        <v>근원 전달 횟수(플레이어 보유)</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="13.5">
       <c r="A14" s="14" t="str">
         <f>'[1]@goods_type'!$A14</f>
-        <v>STA_POTION</v>
+        <v>GET_ESSENCE</v>
       </c>
       <c r="B14" s="14">
         <f>'[1]@goods_type'!$B14</f>
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'[1]@goods_type'!$C14</f>
-        <v>102 스테미나 회복 물약</v>
+        <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="13.5">
       <c r="A15" s="14" t="str">
         <f>'[1]@goods_type'!$A15</f>
-        <v>FAVORITE_ITEM</v>
+        <v>EXP_POTION</v>
       </c>
       <c r="B15" s="14">
         <f>'[1]@goods_type'!$B15</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>'[1]@goods_type'!$C15</f>
-        <v>103 호감도 아이템</v>
+        <v>101 경험치 물약</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15">
       <c r="A16" s="14" t="str">
         <f>'[1]@goods_type'!$A16</f>
-        <v>STAGE_SKIP</v>
+        <v>STA_POTION</v>
       </c>
       <c r="B16" s="14">
         <f>'[1]@goods_type'!$B16</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>'[1]@goods_type'!$C16</f>
-        <v>104 스테이지 스킵 티켓</v>
+        <v>102 스테미나 회복 물약</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15">
       <c r="A17" s="14" t="str">
         <f>'[1]@goods_type'!$A17</f>
-        <v>TICKET_DUNGEON</v>
+        <v>FAVORITE_ITEM</v>
       </c>
       <c r="B17" s="14">
         <f>'[1]@goods_type'!$B17</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>'[1]@goods_type'!$C17</f>
-        <v>105 던전 입장 티켓</v>
+        <v>103 호감도 아이템</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>0</v>
@@ -4753,21 +4760,21 @@
     <row r="18" spans="1:15" ht="13.5">
       <c r="A18" s="14" t="str">
         <f>'[1]@goods_type'!$A18</f>
-        <v>EQ_GROWUP</v>
+        <v>STAGE_SKIP</v>
       </c>
       <c r="B18" s="14">
         <f>'[1]@goods_type'!$B18</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="14" t="str">
         <f>'[1]@goods_type'!$C18</f>
-        <v>106 정련석(장비 성장)</v>
+        <v>104 스테이지 스킵 티켓</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="14" t="str">
         <f>'[1]@eqipment_type'!$A4</f>
@@ -4785,21 +4792,21 @@
     <row r="19" spans="1:15" ht="13.5">
       <c r="A19" s="14" t="str">
         <f>'[1]@goods_type'!$A19</f>
-        <v>TICKET_REWARD_SELECT</v>
+        <v>TICKET_DUNGEON</v>
       </c>
       <c r="B19" s="14">
         <f>'[1]@goods_type'!$B19</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>'[1]@goods_type'!$C19</f>
-        <v>107 보상 선택 티켓(1개를 선택 획득)</v>
+        <v>105 던전 입장 티켓</v>
       </c>
       <c r="D19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19" s="14" t="str">
         <f>'[1]@eqipment_type'!$A5</f>
@@ -4817,21 +4824,21 @@
     <row r="20" spans="1:15" ht="13.5">
       <c r="A20" s="14" t="str">
         <f>'[1]@goods_type'!$A20</f>
-        <v>TICKET_REWARD_RANDOM</v>
+        <v>EQ_GROWUP</v>
       </c>
       <c r="B20" s="14">
         <f>'[1]@goods_type'!$B20</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>'[1]@goods_type'!$C20</f>
-        <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
+        <v>106 정련석(장비 성장)</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" s="14" t="str">
         <f>'[1]@eqipment_type'!$A6</f>
@@ -4849,21 +4856,21 @@
     <row r="21" spans="1:15" ht="13.5">
       <c r="A21" s="14" t="str">
         <f>'[1]@goods_type'!$A21</f>
-        <v>TICKET_REWARD_ALL</v>
+        <v>TICKET_REWARD_SELECT</v>
       </c>
       <c r="B21" s="14">
         <f>'[1]@goods_type'!$B21</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="14" t="str">
         <f>'[1]@goods_type'!$C21</f>
-        <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+        <v>107 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
       <c r="D21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M21" s="14" t="str">
         <f>'[1]@eqipment_type'!$A7</f>
@@ -4881,15 +4888,15 @@
     <row r="22" spans="1:15" ht="13.5">
       <c r="A22" s="14" t="str">
         <f>'[1]@goods_type'!$A22</f>
-        <v>PIECE_EQUIPMENT</v>
+        <v>TICKET_REWARD_RANDOM</v>
       </c>
       <c r="B22" s="14">
         <f>'[1]@goods_type'!$B22</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="14" t="str">
         <f>'[1]@goods_type'!$C22</f>
-        <v>110 장비 조각</v>
+        <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
       <c r="M22" s="14" t="str">
         <f>'[1]@eqipment_type'!$A8</f>
@@ -4907,15 +4914,15 @@
     <row r="23" spans="1:15" ht="13.5">
       <c r="A23" s="14" t="str">
         <f>'[1]@goods_type'!$A23</f>
-        <v>PIECE_CHARACTER</v>
+        <v>TICKET_REWARD_ALL</v>
       </c>
       <c r="B23" s="14">
         <f>'[1]@goods_type'!$B23</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="14" t="str">
         <f>'[1]@goods_type'!$C23</f>
-        <v>111 캐릭터 조각</v>
+        <v>109 보상 패키지 티켓(모든 보상 획득)</v>
       </c>
       <c r="M23" s="14" t="str">
         <f>'[1]@eqipment_type'!$A9</f>
@@ -5917,8 +5924,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5929,7 +5936,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -5946,13 +5953,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -5963,10 +5970,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -5986,19 +5993,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -6006,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C5,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6030,10 +6037,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C6,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6054,10 +6061,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C7,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6094,33 +6101,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="13.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6128,7 +6134,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -6137,28 +6143,25 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>192</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6166,13 +6169,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -6187,36 +6190,33 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="G4" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>18</v>
@@ -6225,40 +6225,37 @@
         <v>19</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>74</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>173</v>
+      <c r="D5" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D5,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>101</v>
       </c>
       <c r="F5" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E5,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>9999</v>
       </c>
       <c r="G5" s="1">
-        <v>9999</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -6266,38 +6263,35 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>173</v>
+      <c r="D6" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D6,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>101</v>
       </c>
       <c r="F6" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E6,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>9999</v>
       </c>
       <c r="G6" s="1">
-        <v>9999</v>
+        <v>300</v>
       </c>
       <c r="H6" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -6305,38 +6299,35 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>173</v>
+      <c r="D7" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D7,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>101</v>
       </c>
       <c r="F7" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E7,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>9999</v>
       </c>
       <c r="G7" s="1">
-        <v>9999</v>
+        <v>1500</v>
       </c>
       <c r="H7" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -6344,38 +6335,35 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>173</v>
+      <c r="D8" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D8,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>101</v>
       </c>
       <c r="F8" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E8,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>9999</v>
       </c>
       <c r="G8" s="1">
-        <v>9999</v>
+        <v>7500</v>
       </c>
       <c r="H8" s="1">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -6383,38 +6371,35 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>173</v>
+      <c r="D9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D9,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>101</v>
       </c>
       <c r="F9" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E9,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>9999</v>
       </c>
       <c r="G9" s="1">
-        <v>9999</v>
+        <v>37500</v>
       </c>
       <c r="H9" s="1">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -6422,38 +6407,35 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>174</v>
+      <c r="D10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D10,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>102</v>
       </c>
       <c r="F10" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E10,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>9999</v>
       </c>
       <c r="G10" s="1">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -6461,38 +6443,35 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>174</v>
+      <c r="D11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D11,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>102</v>
       </c>
       <c r="F11" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E11,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>9999</v>
       </c>
       <c r="G11" s="1">
-        <v>9999</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -6500,38 +6479,35 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>174</v>
+      <c r="D12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D12,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>102</v>
       </c>
       <c r="F12" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E12,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>9999</v>
       </c>
       <c r="G12" s="1">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -6539,38 +6515,35 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="K12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>174</v>
+      <c r="D13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D13,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>102</v>
       </c>
       <c r="F13" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E13,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>9999</v>
       </c>
       <c r="G13" s="1">
-        <v>9999</v>
+        <v>200</v>
       </c>
       <c r="H13" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -6578,38 +6551,35 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>174</v>
+      <c r="D14" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D14,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>102</v>
       </c>
       <c r="F14" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E14,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>9999</v>
       </c>
       <c r="G14" s="1">
-        <v>9999</v>
+        <v>400</v>
       </c>
       <c r="H14" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -6617,152 +6587,140 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="K14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>175</v>
+      <c r="D15" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D15,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>103</v>
       </c>
       <c r="F15" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E15,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>103</v>
+        <v>9999</v>
       </c>
       <c r="G15" s="1">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="K15" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>175</v>
+      <c r="D16" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D16,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>103</v>
       </c>
       <c r="F16" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E16,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>103</v>
+        <v>9999</v>
       </c>
       <c r="G16" s="1">
-        <v>9999</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I16" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>175</v>
+      <c r="D17" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D17,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>103</v>
       </c>
       <c r="F17" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E17,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>103</v>
+        <v>9999</v>
       </c>
       <c r="G17" s="1">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="I17" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="13.5">
+      <c r="K17" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.5">
       <c r="A18" s="1">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D18,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>104</v>
       </c>
       <c r="F18" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E18,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>104</v>
+        <v>9999</v>
       </c>
       <c r="G18" s="1">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -6773,128 +6731,116 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="K18" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1">
-        <v>11</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>178</v>
+      <c r="D19" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D19,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>106</v>
       </c>
       <c r="F19" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E19,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>106</v>
+        <v>9999</v>
       </c>
       <c r="G19" s="1">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1">
-        <v>11</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>178</v>
+      <c r="D20" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D20,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>106</v>
       </c>
       <c r="F20" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E20,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>106</v>
+        <v>9999</v>
       </c>
       <c r="G20" s="1">
-        <v>9999</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="I20" s="1">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1">
-        <v>11</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>178</v>
+      <c r="D21" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D21,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>106</v>
       </c>
       <c r="F21" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(E21,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>106</v>
+        <v>9999</v>
       </c>
       <c r="G21" s="1">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="I21" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>163</v>
+      <c r="K21" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6908,7 +6854,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$23</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E21</xm:sqref>
+          <xm:sqref>D5:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6921,7 +6867,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6940,7 +6886,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5">
@@ -6951,31 +6897,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6986,13 +6932,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -7015,37 +6961,37 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7053,13 +6999,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D5,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7089,13 +7035,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D6,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7125,13 +7071,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D7,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7161,13 +7107,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D8,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7197,13 +7143,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D9" s="22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D9,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7251,8 +7197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7275,7 +7221,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="26.25">
@@ -7286,58 +7232,58 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="R2" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7348,13 +7294,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -7396,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>4</v>
@@ -7410,58 +7356,58 @@
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="N4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5">
@@ -7469,13 +7415,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D5,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7530,13 +7476,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D6,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7591,13 +7537,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D7,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7652,13 +7598,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D8,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7713,13 +7659,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D9,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7774,13 +7720,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D10,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7835,13 +7781,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D11,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7896,13 +7842,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D12,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7957,13 +7903,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D13,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8018,13 +7964,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D14,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8079,13 +8025,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D15,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8140,13 +8086,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D16,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8201,13 +8147,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D17,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8262,13 +8208,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D18,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8323,13 +8269,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D19,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8384,13 +8330,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D20,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8445,13 +8391,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D21,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8506,13 +8452,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D22,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8567,13 +8513,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D23,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8628,13 +8574,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D24,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8689,13 +8635,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D25,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8750,13 +8696,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D26,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8811,13 +8757,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D27,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8872,13 +8818,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D28,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8933,13 +8879,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E29" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D29,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8994,13 +8940,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E30" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D30,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -9055,13 +9001,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E31" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D31,'!참조_ENUM'!$O$18:$O$30,0))</f>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD475EA-C789-4967-9EF7-17E54D942B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6E42B-108C-489B-BDFE-BCFC3C499E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1155" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41460" yWindow="2145" windowWidth="34395" windowHeight="18390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="254">
   <si>
     <t>type</t>
   </si>
@@ -1378,111 +1378,60 @@
     <t>타입별 적용내용 설명</t>
   </si>
   <si>
-    <t>title_item_0001</t>
-  </si>
-  <si>
     <t>경험치 물약(소)</t>
   </si>
   <si>
-    <t>title_item_0002</t>
-  </si>
-  <si>
     <t>경험치 물약(중)</t>
   </si>
   <si>
-    <t>title_item_0003</t>
-  </si>
-  <si>
     <t>경험치 물약(대)</t>
   </si>
   <si>
-    <t>title_item_0004</t>
-  </si>
-  <si>
     <t>경험치 물약(특대)</t>
   </si>
   <si>
-    <t>title_item_0005</t>
-  </si>
-  <si>
     <t>경험치 물약(극대)</t>
   </si>
   <si>
-    <t>title_item_0006</t>
-  </si>
-  <si>
     <t>스테미너 물약(소)</t>
   </si>
   <si>
     <t>int_var1: 사용 시 획득 캐릭터 경험치, int_var2: 판매 가격[금화] (값이 0이면 판매 불가)</t>
   </si>
   <si>
-    <t>title_item_0007</t>
-  </si>
-  <si>
     <t>스테미너 물약(중)</t>
   </si>
   <si>
-    <t>title_item_0008</t>
-  </si>
-  <si>
     <t>스테미너 물약(대)</t>
   </si>
   <si>
-    <t>title_item_0009</t>
-  </si>
-  <si>
     <t>스테미너 물약(특대)</t>
   </si>
   <si>
     <t>max_num 칼럼만 사용.</t>
   </si>
   <si>
-    <t>title_item_0010</t>
-  </si>
-  <si>
     <t>스테미너 물약(극대)</t>
   </si>
   <si>
-    <t>title_item_0011</t>
-  </si>
-  <si>
     <t>츄러스</t>
   </si>
   <si>
-    <t>title_item_0012</t>
-  </si>
-  <si>
     <t>와플</t>
   </si>
   <si>
     <t>int_var1: drop_probability 테이블의 아이디 값과 연결</t>
   </si>
   <si>
-    <t>title_item_0013</t>
-  </si>
-  <si>
     <t>베리 케이크</t>
   </si>
   <si>
-    <t>title_item_0014</t>
-  </si>
-  <si>
-    <t>title_item_0017</t>
-  </si>
-  <si>
     <t>하급 정령석</t>
   </si>
   <si>
-    <t>title_item_0018</t>
-  </si>
-  <si>
     <t>중급 정련석</t>
   </si>
   <si>
-    <t>title_item_0019</t>
-  </si>
-  <si>
     <t>상급 정련석</t>
   </si>
   <si>
@@ -1504,31 +1453,16 @@
     <t>expire_schedule_id</t>
   </si>
   <si>
-    <t>title_itemPiece_0001</t>
-  </si>
-  <si>
     <t>하급 정령석 조각</t>
   </si>
   <si>
-    <t>title_itemPiece_0002</t>
-  </si>
-  <si>
     <t>중급 정련석 조각</t>
   </si>
   <si>
-    <t>title_itemPiece_0003</t>
-  </si>
-  <si>
     <t>상급 정련석 조각</t>
   </si>
   <si>
-    <t>title_charPiece_0001</t>
-  </si>
-  <si>
     <t>루시아 조각</t>
-  </si>
-  <si>
-    <t>title_eqPiece_0008</t>
   </si>
   <si>
     <t>나무 단검 조각</t>
@@ -2641,28 +2575,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>title_equipment_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_equipment_0002</t>
-  </si>
-  <si>
-    <t>title_equipment_0003</t>
-  </si>
-  <si>
-    <t>title_equipment_0004</t>
-  </si>
-  <si>
-    <t>title_equipment_0005</t>
-  </si>
-  <si>
-    <t>title_equipment_0006</t>
-  </si>
-  <si>
-    <t>title_equipment_0007</t>
-  </si>
-  <si>
     <t>나무 한손검</t>
   </si>
   <si>
@@ -2679,9 +2591,6 @@
   </si>
   <si>
     <t>나무 지팡이</t>
-  </si>
-  <si>
-    <t>title_equipment_0008</t>
   </si>
   <si>
     <r>
@@ -2728,12 +2637,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>title_equipment_0009</t>
-  </si>
-  <si>
-    <t>title_equipment_0010</t>
-  </si>
-  <si>
     <t>방어력</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2888,51 +2791,6 @@
   <si>
     <t>나무 목걸이</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_equipment_0011</t>
-  </si>
-  <si>
-    <t>title_equipment_0012</t>
-  </si>
-  <si>
-    <t>title_equipment_0013</t>
-  </si>
-  <si>
-    <t>title_equipment_0014</t>
-  </si>
-  <si>
-    <t>title_equipment_0015</t>
-  </si>
-  <si>
-    <t>title_equipment_0016</t>
-  </si>
-  <si>
-    <t>title_equipment_0017</t>
-  </si>
-  <si>
-    <t>title_equipment_0018</t>
-  </si>
-  <si>
-    <t>title_equipment_0019</t>
-  </si>
-  <si>
-    <t>title_equipment_0020</t>
-  </si>
-  <si>
-    <t>title_equipment_0021</t>
-  </si>
-  <si>
-    <t>title_equipment_0022</t>
-  </si>
-  <si>
-    <t>title_equipment_0023</t>
-  </si>
-  <si>
-    <t>title_equipment_0024</t>
-  </si>
-  <si>
-    <t>title_equipment_0025</t>
   </si>
   <si>
     <r>
@@ -2980,12 +2838,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>title_equipment_0026</t>
-  </si>
-  <si>
-    <t>title_equipment_0027</t>
-  </si>
-  <si>
     <t>Item_Data</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3395,6 +3247,291 @@
   <si>
     <t>drain_hp</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0002</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0003</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0004</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0005</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0006</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0007</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0008</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0009</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0010</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0011</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0012</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0013</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0014</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0017</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0015</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0016</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0002</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0003</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0004</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0005</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0006</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0007</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0008</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0009</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0010</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0011</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0012</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0013</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0014</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0015</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0016</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0017</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0018</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0019</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0020</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0021</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0022</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0023</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0024</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0025</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0026</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0027</t>
+  </si>
+  <si>
+    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\UI_UpperIcon_Piece</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_usingitem_0001</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0002</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0003</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0004</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0005</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0006</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0007</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0008</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0009</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0010</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0011</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0012</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0013</t>
+  </si>
+  <si>
+    <t>item_name_ticketitem_0014</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0017</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0018</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0019</t>
+  </si>
+  <si>
+    <t>item_name_itemPiece_0001</t>
+  </si>
+  <si>
+    <t>item_name_itemPiece_0002</t>
+  </si>
+  <si>
+    <t>item_name_itemPiece_0003</t>
+  </si>
+  <si>
+    <t>item_name_charPiece_0001</t>
+  </si>
+  <si>
+    <t>item_name_EqPiece_0001</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0001</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0002</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0003</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0004</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0005</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0006</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0007</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0008</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0009</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0010</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0011</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0012</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0013</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0014</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0015</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0016</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0017</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0018</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0019</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0020</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0021</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0022</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0023</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0024</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0025</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0026</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0027</t>
   </si>
 </sst>
 </file>
@@ -3812,13 +3949,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21">
         <row r="4">
@@ -4383,7 +4514,7 @@
   <dimension ref="A1:O984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="M2" sqref="M2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4403,13 +4534,13 @@
     </row>
     <row r="2" spans="1:15" ht="39.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
@@ -4622,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="13.5">
@@ -4642,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="13.5">
@@ -4662,10 +4793,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13.5">
+    <row r="14" spans="1:15" ht="27">
       <c r="A14" s="14" t="str">
         <f>'[1]@goods_type'!$A14</f>
         <v>GET_ESSENCE</v>
@@ -4682,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="13.5">
@@ -4702,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15">
@@ -4722,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15">
@@ -4745,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>0</v>
@@ -4774,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M18" s="14" t="str">
         <f>'[1]@eqipment_type'!$A4</f>
@@ -4806,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M19" s="14" t="str">
         <f>'[1]@eqipment_type'!$A5</f>
@@ -4838,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="M20" s="14" t="str">
         <f>'[1]@eqipment_type'!$A6</f>
@@ -4870,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="M21" s="14" t="str">
         <f>'[1]@eqipment_type'!$A7</f>
@@ -5925,7 +6056,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5936,7 +6067,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -5953,13 +6084,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -5970,10 +6101,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -5993,19 +6124,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -6016,7 +6147,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C5,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6040,7 +6171,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C6,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6061,10 +6192,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C7,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6103,13 +6234,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
@@ -6118,12 +6249,12 @@
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5">
@@ -6134,7 +6265,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -6152,13 +6283,13 @@
         <v>15</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6169,13 +6300,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -6190,7 +6321,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>4</v>
@@ -6201,16 +6332,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
@@ -6225,10 +6356,10 @@
         <v>19</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6236,13 +6367,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D5,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6264,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6272,13 +6403,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D6,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6300,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6308,13 +6439,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D7,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6336,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6344,13 +6475,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D8,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6372,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6380,13 +6511,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D9,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6408,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6416,13 +6547,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D10,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6444,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6452,13 +6583,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D11,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6480,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6488,13 +6619,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D12,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6516,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6524,13 +6655,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D13,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6552,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6560,13 +6691,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D14,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6588,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6596,13 +6727,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D15,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6624,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6632,13 +6763,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D16,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6660,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6668,13 +6799,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D17,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6696,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5">
@@ -6704,13 +6835,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D18,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6732,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6740,13 +6871,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D19,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6768,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -6776,13 +6907,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D20,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6804,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -6812,13 +6943,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D21,'!참조_ENUM'!$C$3:$C$84,0))</f>
@@ -6840,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6866,13 +6997,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E993661-8E4D-4B88-A543-F5F1CEA214EE}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -6881,12 +7012,12 @@
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5">
@@ -6897,31 +7028,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6932,13 +7063,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -6961,37 +7092,37 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6999,13 +7130,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D5,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7026,8 +7157,8 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
+      <c r="K5" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7035,13 +7166,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D6,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7062,8 +7193,8 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
+      <c r="K6" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7071,13 +7202,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D7,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7098,8 +7229,8 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
+      <c r="K7" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7107,13 +7238,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D8,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7134,8 +7265,8 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
+      <c r="K8" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7143,13 +7274,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D9,'!참조_ENUM'!$O$3:$O$84,0))</f>
@@ -7170,8 +7301,8 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
+      <c r="K9" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7197,13 +7328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -7216,12 +7347,12 @@
     <col min="13" max="14" width="6.7109375" customWidth="1"/>
     <col min="15" max="17" width="8" customWidth="1"/>
     <col min="18" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="20" max="20" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="26.25">
@@ -7232,58 +7363,58 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7294,13 +7425,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -7342,7 +7473,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>4</v>
@@ -7356,58 +7487,58 @@
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5">
@@ -7415,13 +7546,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D5,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7469,20 +7600,22 @@
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D6,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7530,20 +7663,22 @@
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D7,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7591,20 +7726,22 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D8,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7652,20 +7789,22 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="1"/>
+      <c r="T8" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D9,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7713,20 +7852,22 @@
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D10,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7774,20 +7915,22 @@
       <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="1"/>
+      <c r="T10" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D11,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7835,20 +7978,22 @@
       <c r="S11" s="1">
         <v>0</v>
       </c>
-      <c r="T11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D12,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7896,20 +8041,22 @@
       <c r="S12" s="1">
         <v>0</v>
       </c>
-      <c r="T12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="13.5">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D13,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -7957,20 +8104,22 @@
       <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D14,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8018,20 +8167,22 @@
       <c r="S14" s="1">
         <v>0</v>
       </c>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D15,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8079,20 +8230,22 @@
       <c r="S15" s="1">
         <v>0</v>
       </c>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D16,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8140,20 +8293,22 @@
       <c r="S16" s="1">
         <v>0</v>
       </c>
-      <c r="T16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D17,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8201,20 +8356,22 @@
       <c r="S17" s="1">
         <v>0</v>
       </c>
-      <c r="T17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D18,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8262,20 +8419,22 @@
       <c r="S18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="1"/>
+      <c r="T18" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D19,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8323,20 +8482,22 @@
       <c r="S19" s="1">
         <v>0</v>
       </c>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D20,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8384,20 +8545,22 @@
       <c r="S20" s="1">
         <v>0</v>
       </c>
-      <c r="T20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D21,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8445,20 +8608,22 @@
       <c r="S21" s="1">
         <v>0</v>
       </c>
-      <c r="T21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D22,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8506,20 +8671,22 @@
       <c r="S22" s="1">
         <v>0</v>
       </c>
-      <c r="T22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D23,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8567,20 +8734,22 @@
       <c r="S23" s="1">
         <v>0</v>
       </c>
-      <c r="T23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D24,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8628,20 +8797,22 @@
       <c r="S24" s="1">
         <v>0</v>
       </c>
-      <c r="T24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D25,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8689,20 +8860,22 @@
       <c r="S25" s="1">
         <v>0</v>
       </c>
-      <c r="T25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D26,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8750,20 +8923,22 @@
       <c r="S26" s="1">
         <v>0</v>
       </c>
-      <c r="T26" s="1"/>
+      <c r="T26" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D27,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8811,20 +8986,22 @@
       <c r="S27" s="1">
         <v>0</v>
       </c>
-      <c r="T27" s="1"/>
+      <c r="T27" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D28,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8872,20 +9049,22 @@
       <c r="S28" s="1">
         <v>0</v>
       </c>
-      <c r="T28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D29,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8933,20 +9112,22 @@
       <c r="S29" s="1">
         <v>0</v>
       </c>
-      <c r="T29" s="1"/>
+      <c r="T29" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="E30" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D30,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -8994,20 +9175,22 @@
       <c r="S30" s="1">
         <v>0</v>
       </c>
-      <c r="T30" s="1"/>
+      <c r="T30" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="E31" s="1">
         <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D31,'!참조_ENUM'!$O$18:$O$30,0))</f>
@@ -9055,7 +9238,9 @@
       <c r="S31" s="1">
         <v>0</v>
       </c>
-      <c r="T31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,22 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6E42B-108C-489B-BDFE-BCFC3C499E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A133B33E-F501-411F-8DDC-C321B8D652B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41460" yWindow="2145" windowWidth="34395" windowHeight="18390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
-    <sheet name="goods" sheetId="2" r:id="rId2"/>
-    <sheet name="item" sheetId="5" r:id="rId3"/>
-    <sheet name="item_piece" sheetId="6" r:id="rId4"/>
-    <sheet name="equipment" sheetId="7" r:id="rId5"/>
+    <sheet name="item" sheetId="5" r:id="rId2"/>
+    <sheet name="item_piece" sheetId="6" r:id="rId3"/>
+    <sheet name="equipment" sheetId="7" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,255 +39,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Rown</author>
-  </authors>
-  <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{C4937612-869C-4E9B-9A94-DD5E62DD34A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">money </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유형의</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>재화는</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>칼럼</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미사용</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{07A9EEC5-EC8A-429E-8F01-A9DE184DC993}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>player</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>보유할</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있는</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>최대</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수치</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rown</author>
@@ -496,7 +246,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rown</author>
@@ -826,7 +576,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rown</author>
@@ -1310,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="292">
   <si>
     <t>type</t>
   </si>
@@ -1345,12 +1095,6 @@
     <t>max_num</t>
   </si>
   <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>diamond</t>
-  </si>
-  <si>
     <t>공통 적용 내용</t>
   </si>
   <si>
@@ -1378,21 +1122,6 @@
     <t>타입별 적용내용 설명</t>
   </si>
   <si>
-    <t>경험치 물약(소)</t>
-  </si>
-  <si>
-    <t>경험치 물약(중)</t>
-  </si>
-  <si>
-    <t>경험치 물약(대)</t>
-  </si>
-  <si>
-    <t>경험치 물약(특대)</t>
-  </si>
-  <si>
-    <t>경험치 물약(극대)</t>
-  </si>
-  <si>
     <t>스테미너 물약(소)</t>
   </si>
   <si>
@@ -1460,12 +1189,6 @@
   </si>
   <si>
     <t>상급 정련석 조각</t>
-  </si>
-  <si>
-    <t>루시아 조각</t>
-  </si>
-  <si>
-    <t>나무 단검 조각</t>
   </si>
   <si>
     <t>schedule_id</t>
@@ -2826,18 +2549,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>구리 팔찌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>엉성한 팔찌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 팔찌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Data</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2850,9 +2561,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ENUM:GOODS_TYPE:NONE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2865,12 +2573,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1 금화(게임내 사용되는 재화)</t>
-  </si>
-  <si>
-    <t>2 보석(게임내 사용되는 유료 재화)</t>
-  </si>
-  <si>
     <t>아이템 명</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2885,18 +2587,6 @@
   <si>
     <t>#name_id</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 경험치 물약</t>
-  </si>
-  <si>
-    <t>102 스테미나 회복 물약</t>
-  </si>
-  <si>
-    <t>103 호감도 아이템</t>
-  </si>
-  <si>
-    <t>104 스테이지 스킵 티켓</t>
   </si>
   <si>
     <r>
@@ -2952,9 +2642,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>106 정련석(장비 성장)</t>
-  </si>
-  <si>
     <t>아이콘</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3078,12 +2765,6 @@
     <t>1 아이템</t>
   </si>
   <si>
-    <t>2 캐릭터</t>
-  </si>
-  <si>
-    <t>3 장비</t>
-  </si>
-  <si>
     <t>소비기한</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3175,60 +2856,6 @@
     <t>5 목걸이</t>
   </si>
   <si>
-    <t>6 팔찌</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">base </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최대값</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">limit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최대값</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 스태미나</t>
-  </si>
-  <si>
-    <t>stamina</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_Data</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>max_hp</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3374,15 +3001,6 @@
     <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0024</t>
   </si>
   <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0025</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0026</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0027</t>
-  </si>
-  <si>
     <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\UI_UpperIcon_Piece</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3426,18 +3044,6 @@
     <t>item_name_usingitem_0013</t>
   </si>
   <si>
-    <t>item_name_ticketitem_0014</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0017</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0018</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0019</t>
-  </si>
-  <si>
     <t>item_name_itemPiece_0001</t>
   </si>
   <si>
@@ -3447,12 +3053,6 @@
     <t>item_name_itemPiece_0003</t>
   </si>
   <si>
-    <t>item_name_charPiece_0001</t>
-  </si>
-  <si>
-    <t>item_name_EqPiece_0001</t>
-  </si>
-  <si>
     <t>item_name_equipment_0001</t>
   </si>
   <si>
@@ -3525,20 +3125,358 @@
     <t>item_name_equipment_0024</t>
   </si>
   <si>
-    <t>item_name_equipment_0025</t>
-  </si>
-  <si>
-    <t>item_name_equipment_0026</t>
-  </si>
-  <si>
-    <t>item_name_equipment_0027</t>
+    <t>1 플레이어 경험치 물약</t>
+  </si>
+  <si>
+    <t>REWARD_TYPE</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 및 아이템 종류</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>1 금화(게임내 사용되는 재화)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>2 보석(게임내 사용되는 유료 재화)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAMINA</t>
+  </si>
+  <si>
+    <t>3 스태미나</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAVORITE</t>
+  </si>
+  <si>
+    <t>4 호감도</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_PLAYER</t>
+  </si>
+  <si>
+    <t>5 플레이어 경험치</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_CHARACTER</t>
+  </si>
+  <si>
+    <t>6 캐릭터 경험치</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>7 캐릭터</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>6 장비</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_ESSENCE</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 전달 횟수(플레이어 보유)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET_ESSENCE</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_P</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 플레이어 경험치 물약</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_C</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>102 캐릭터 경험치 물약</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA_POTION</t>
+  </si>
+  <si>
+    <t>103 스테미나 회복 물약</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAVORITE_ITEM</t>
+  </si>
+  <si>
+    <t>104 호감도 아이템</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_SKIP</t>
+  </si>
+  <si>
+    <t>105 스테이지 스킵 티켓</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_DUNGEON</t>
+  </si>
+  <si>
+    <t>106 던전 입장 티켓</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ_GROWUP</t>
+  </si>
+  <si>
+    <t>107 정련석(장비 성장)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_REWARD_SELECT</t>
+  </si>
+  <si>
+    <t>109 보상 선택 티켓(1개를 선택 획득)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_REWARD_RANDOM</t>
+  </si>
+  <si>
+    <t>100 보상 랜덤 티켓(1개를 확률 획득)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_REWARD_ALL</t>
+  </si>
+  <si>
+    <t>110 보상 패키지 티켓(모든 보상 획득)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>111 장비 조각</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_CHARACTER</t>
+  </si>
+  <si>
+    <t>112 캐릭터 조각</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_SKILL</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>113 스킬 경험치 아이템</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 물약_P(중)</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(특대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(극대)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>_P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 물약_C(소)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(중)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(특대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(극대)</t>
+  </si>
+  <si>
+    <t>2 캐릭터 경험치 물약</t>
+  </si>
+  <si>
+    <t>3 스테미나 회복 물약</t>
+  </si>
+  <si>
+    <t>4 호감도 아이템</t>
+  </si>
+  <si>
+    <t>6 스테이지 스킵 티켓</t>
+  </si>
+  <si>
+    <t>8 정련석(장비 성장)</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0014</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0015</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0016</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0017</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0018</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0019</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0020</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_etcitem_0021</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_etcitem_0022</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 보고서(소)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 보고서(중)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 보고서(대)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 보고서(특대)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 보고서(극대)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 스킬 경험치 아이템</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3714,8 +3652,36 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3764,8 +3730,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3816,6 +3788,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3824,7 +3820,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3872,6 +3868,32 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3915,6 +3937,7 @@
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
       <sheetName val="@persistence_type"/>
+      <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
@@ -3925,9 +3948,8 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
-      <sheetName val="@stage_common"/>
-      <sheetName val="@projectile_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3950,8 +3972,20 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GOODS_TYPE</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -3965,215 +3999,149 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>GOLD</v>
+            <v>EXP_POTION_P</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 금화(게임내 사용되는 재화)</v>
+            <v>1 플레이어 경험치 물약</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>DIA</v>
+            <v>EXP_POTION_C</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 보석(게임내 사용되는 유료 재화)</v>
+            <v>2 캐릭터 경험치 물약</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>STAMINA</v>
+            <v>STA_POTION</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 스태미나</v>
+            <v>3 스테미나 회복 물약</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>FAVORITE</v>
+            <v>FAVORITE_ITEM</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>4 호감도</v>
+            <v>4 호감도 아이템</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>EXP_PLAYER</v>
+            <v>EXP_SKILL</v>
           </cell>
           <cell r="B9">
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>5 플레이어 경험치</v>
+            <v>5 스킬 경험치 아이템</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>EXP_CHARACTER</v>
+            <v>STAGE_SKIP</v>
           </cell>
           <cell r="B10">
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>6 캐릭터 경험치</v>
+            <v>6 스테이지 스킵 티켓</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>CHARACTER</v>
+            <v>TICKET_DUNGEON</v>
           </cell>
           <cell r="B11">
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7 캐릭터</v>
+            <v>7 던전 입장 티켓</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>EQUIPMENT</v>
+            <v>EQ_GROWUP</v>
           </cell>
           <cell r="B12">
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>6 장비</v>
+            <v>8 정련석(장비 성장)</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>SEND_ESSENCE</v>
+            <v>TICKET_REWARD_SELECT</v>
           </cell>
           <cell r="B13">
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>근원 전달 횟수(플레이어 보유)</v>
+            <v>9 보상 선택 티켓(1개를 선택 획득)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>GET_ESSENCE</v>
+            <v>TICKET_REWARD_RANDOM</v>
           </cell>
           <cell r="B14">
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+            <v>10 보상 랜덤 티켓(1개를 확률 획득)</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>EXP_POTION</v>
+            <v>TICKET_REWARD_ALL</v>
           </cell>
           <cell r="B15">
-            <v>101</v>
+            <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>101 경험치 물약</v>
+            <v>11 보상 패키지 티켓(모든 보상 획득)</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>STA_POTION</v>
+            <v>EQUIPMENT</v>
           </cell>
           <cell r="B16">
-            <v>102</v>
+            <v>100</v>
           </cell>
           <cell r="C16" t="str">
-            <v>102 스테미나 회복 물약</v>
+            <v>100 장비</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>FAVORITE_ITEM</v>
+            <v>PIECE_EQUIPMENT</v>
           </cell>
           <cell r="B17">
-            <v>103</v>
+            <v>1000</v>
           </cell>
           <cell r="C17" t="str">
-            <v>103 호감도 아이템</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>STAGE_SKIP</v>
-          </cell>
-          <cell r="B18">
-            <v>104</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>104 스테이지 스킵 티켓</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>TICKET_DUNGEON</v>
-          </cell>
-          <cell r="B19">
-            <v>105</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>105 던전 입장 티켓</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>EQ_GROWUP</v>
-          </cell>
-          <cell r="B20">
-            <v>106</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>106 정련석(장비 성장)</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>TICKET_REWARD_SELECT</v>
-          </cell>
-          <cell r="B21">
-            <v>107</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>107 보상 선택 티켓(1개를 선택 획득)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
-          </cell>
-          <cell r="B22">
-            <v>108</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>TICKET_REWARD_ALL</v>
-          </cell>
-          <cell r="B23">
-            <v>109</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+            <v>1000 장비 조각</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22">
+      <sheetData sheetId="23">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -4198,28 +4166,28 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>CHARACTER</v>
+            <v>EQUIPMENT</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 캐릭터</v>
+            <v>2 장비</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>EQUIPMENT</v>
+            <v>CHARACTER</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 장비</v>
+            <v>3  캐릭터</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23">
+      <sheetData sheetId="24">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -4286,24 +4254,12 @@
             <v>5 목걸이</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>BRACELET</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>6 팔찌</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4513,8 +4469,8 @@
   </sheetPr>
   <dimension ref="A1:O984"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4529,18 +4485,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="12.75">
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="39.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
@@ -4554,10 +4510,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>0</v>
@@ -4598,7 +4554,7 @@
     <row r="5" spans="1:15" ht="13.5">
       <c r="A5" s="14" t="str">
         <f>'[1]@goods_type'!$A5</f>
-        <v>GOLD</v>
+        <v>EXP_POTION_P</v>
       </c>
       <c r="B5" s="14">
         <f>'[1]@goods_type'!$B5</f>
@@ -4606,7 +4562,7 @@
       </c>
       <c r="C5" s="14" t="str">
         <f>'[1]@goods_type'!$C5</f>
-        <v>1 금화(게임내 사용되는 재화)</v>
+        <v>1 플레이어 경험치 물약</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -4627,7 +4583,7 @@
     <row r="6" spans="1:15" ht="13.5">
       <c r="A6" s="14" t="str">
         <f>'[1]@goods_type'!$A6</f>
-        <v>DIA</v>
+        <v>EXP_POTION_C</v>
       </c>
       <c r="B6" s="14">
         <f>'[1]@goods_type'!$B6</f>
@@ -4635,14 +4591,14 @@
       </c>
       <c r="C6" s="14" t="str">
         <f>'[1]@goods_type'!$C6</f>
-        <v>2 보석(게임내 사용되는 유료 재화)</v>
+        <v>2 캐릭터 경험치 물약</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="M6" s="14" t="str">
         <f>'[1]@piece_type'!$A6</f>
-        <v>CHARACTER</v>
+        <v>EQUIPMENT</v>
       </c>
       <c r="N6" s="14">
         <f>'[1]@piece_type'!$B6</f>
@@ -4650,13 +4606,13 @@
       </c>
       <c r="O6" s="14" t="str">
         <f>'[1]@piece_type'!$C6</f>
-        <v>2 캐릭터</v>
+        <v>2 장비</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="13.5">
       <c r="A7" s="14" t="str">
         <f>'[1]@goods_type'!$A7</f>
-        <v>STAMINA</v>
+        <v>STA_POTION</v>
       </c>
       <c r="B7" s="14">
         <f>'[1]@goods_type'!$B7</f>
@@ -4664,14 +4620,14 @@
       </c>
       <c r="C7" s="14" t="str">
         <f>'[1]@goods_type'!$C7</f>
-        <v>3 스태미나</v>
+        <v>3 스테미나 회복 물약</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="14" t="str">
         <f>'[1]@piece_type'!$A7</f>
-        <v>EQUIPMENT</v>
+        <v>CHARACTER</v>
       </c>
       <c r="N7" s="14">
         <f>'[1]@piece_type'!$B7</f>
@@ -4679,13 +4635,13 @@
       </c>
       <c r="O7" s="14" t="str">
         <f>'[1]@piece_type'!$C7</f>
-        <v>3 장비</v>
+        <v>3  캐릭터</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="13.5">
       <c r="A8" s="14" t="str">
         <f>'[1]@goods_type'!$A8</f>
-        <v>FAVORITE</v>
+        <v>FAVORITE_ITEM</v>
       </c>
       <c r="B8" s="14">
         <f>'[1]@goods_type'!$B8</f>
@@ -4693,7 +4649,7 @@
       </c>
       <c r="C8" s="14" t="str">
         <f>'[1]@goods_type'!$C8</f>
-        <v>4 호감도</v>
+        <v>4 호감도 아이템</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
@@ -4703,7 +4659,7 @@
     <row r="9" spans="1:15" ht="13.5">
       <c r="A9" s="14" t="str">
         <f>'[1]@goods_type'!$A9</f>
-        <v>EXP_PLAYER</v>
+        <v>EXP_SKILL</v>
       </c>
       <c r="B9" s="14">
         <f>'[1]@goods_type'!$B9</f>
@@ -4711,7 +4667,7 @@
       </c>
       <c r="C9" s="14" t="str">
         <f>'[1]@goods_type'!$C9</f>
-        <v>5 플레이어 경험치</v>
+        <v>5 스킬 경험치 아이템</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
@@ -4721,7 +4677,7 @@
     <row r="10" spans="1:15" ht="13.5">
       <c r="A10" s="14" t="str">
         <f>'[1]@goods_type'!$A10</f>
-        <v>EXP_CHARACTER</v>
+        <v>STAGE_SKIP</v>
       </c>
       <c r="B10" s="14">
         <f>'[1]@goods_type'!$B10</f>
@@ -4729,17 +4685,17 @@
       </c>
       <c r="C10" s="14" t="str">
         <f>'[1]@goods_type'!$C10</f>
-        <v>6 캐릭터 경험치</v>
+        <v>6 스테이지 스킵 티켓</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="13.5">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="14" t="str">
         <f>'[1]@goods_type'!$A11</f>
-        <v>CHARACTER</v>
+        <v>TICKET_DUNGEON</v>
       </c>
       <c r="B11" s="14">
         <f>'[1]@goods_type'!$B11</f>
@@ -4747,19 +4703,22 @@
       </c>
       <c r="C11" s="14" t="str">
         <f>'[1]@goods_type'!$C11</f>
-        <v>7 캐릭터</v>
+        <v>7 던전 입장 티켓</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="13.5">
+        <v>21</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="14" t="str">
         <f>'[1]@goods_type'!$A12</f>
-        <v>EQUIPMENT</v>
+        <v>EQ_GROWUP</v>
       </c>
       <c r="B12" s="14">
         <f>'[1]@goods_type'!$B12</f>
@@ -4767,19 +4726,28 @@
       </c>
       <c r="C12" s="14" t="str">
         <f>'[1]@goods_type'!$C12</f>
-        <v>6 장비</v>
+        <v>8 정련석(장비 성장)</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="13.5">
       <c r="A13" s="14" t="str">
         <f>'[1]@goods_type'!$A13</f>
-        <v>SEND_ESSENCE</v>
+        <v>TICKET_REWARD_SELECT</v>
       </c>
       <c r="B13" s="14">
         <f>'[1]@goods_type'!$B13</f>
@@ -4787,19 +4755,31 @@
       </c>
       <c r="C13" s="14" t="str">
         <f>'[1]@goods_type'!$C13</f>
-        <v>근원 전달 횟수(플레이어 보유)</v>
+        <v>9 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27">
+        <v>46</v>
+      </c>
+      <c r="M13" s="14" t="str">
+        <f>'[1]@eqipment_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="N13" s="14">
+        <f>'[1]@eqipment_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="14" t="str">
+        <f>'[1]@eqipment_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="13.5">
       <c r="A14" s="14" t="str">
         <f>'[1]@goods_type'!$A14</f>
-        <v>GET_ESSENCE</v>
+        <v>TICKET_REWARD_RANDOM</v>
       </c>
       <c r="B14" s="14">
         <f>'[1]@goods_type'!$B14</f>
@@ -4807,305 +4787,456 @@
       </c>
       <c r="C14" s="14" t="str">
         <f>'[1]@goods_type'!$C14</f>
-        <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+        <v>10 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="M14" s="14" t="str">
+        <f>'[1]@eqipment_type'!$A5</f>
+        <v>WEAPON</v>
+      </c>
+      <c r="N14" s="14">
+        <f>'[1]@eqipment_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="14" t="str">
+        <f>'[1]@eqipment_type'!$C5</f>
+        <v>1 무기</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="13.5">
       <c r="A15" s="14" t="str">
         <f>'[1]@goods_type'!$A15</f>
-        <v>EXP_POTION</v>
+        <v>TICKET_REWARD_ALL</v>
       </c>
       <c r="B15" s="14">
         <f>'[1]@goods_type'!$B15</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>'[1]@goods_type'!$C15</f>
-        <v>101 경험치 물약</v>
+        <v>11 보상 패키지 티켓(모든 보상 획득)</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15">
+        <v>25</v>
+      </c>
+      <c r="M15" s="14" t="str">
+        <f>'[1]@eqipment_type'!$A6</f>
+        <v>ARMOR</v>
+      </c>
+      <c r="N15" s="14">
+        <f>'[1]@eqipment_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="O15" s="14" t="str">
+        <f>'[1]@eqipment_type'!$C6</f>
+        <v>2 방어구</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="13.5">
       <c r="A16" s="14" t="str">
         <f>'[1]@goods_type'!$A16</f>
-        <v>STA_POTION</v>
+        <v>EQUIPMENT</v>
       </c>
       <c r="B16" s="14">
         <f>'[1]@goods_type'!$B16</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>'[1]@goods_type'!$C16</f>
-        <v>102 스테미나 회복 물약</v>
+        <v>100 장비</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15">
+        <v>48</v>
+      </c>
+      <c r="M16" s="14" t="str">
+        <f>'[1]@eqipment_type'!$A7</f>
+        <v>SHOES</v>
+      </c>
+      <c r="N16" s="14">
+        <f>'[1]@eqipment_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="14" t="str">
+        <f>'[1]@eqipment_type'!$C7</f>
+        <v>3 신발</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="13.5">
       <c r="A17" s="14" t="str">
         <f>'[1]@goods_type'!$A17</f>
-        <v>FAVORITE_ITEM</v>
+        <v>PIECE_EQUIPMENT</v>
       </c>
       <c r="B17" s="14">
         <f>'[1]@goods_type'!$B17</f>
-        <v>103</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>'[1]@goods_type'!$C17</f>
-        <v>103 호감도 아이템</v>
+        <v>1000 장비 조각</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="M17" s="14" t="str">
+        <f>'[1]@eqipment_type'!$A8</f>
+        <v>RING</v>
+      </c>
+      <c r="N17" s="14">
+        <f>'[1]@eqipment_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="O17" s="14" t="str">
+        <f>'[1]@eqipment_type'!$C8</f>
+        <v>4 반지</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5">
-      <c r="A18" s="14" t="str">
-        <f>'[1]@goods_type'!$A18</f>
-        <v>STAGE_SKIP</v>
-      </c>
-      <c r="B18" s="14">
-        <f>'[1]@goods_type'!$B18</f>
-        <v>104</v>
-      </c>
-      <c r="C18" s="14" t="str">
-        <f>'[1]@goods_type'!$C18</f>
-        <v>104 스테이지 스킵 티켓</v>
-      </c>
       <c r="D18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M18" s="14" t="str">
-        <f>'[1]@eqipment_type'!$A4</f>
-        <v>NONE</v>
+        <f>'[1]@eqipment_type'!$A9</f>
+        <v>NECKLACE</v>
       </c>
       <c r="N18" s="14">
-        <f>'[1]@eqipment_type'!$B4</f>
-        <v>0</v>
+        <f>'[1]@eqipment_type'!$B9</f>
+        <v>5</v>
       </c>
       <c r="O18" s="14" t="str">
-        <f>'[1]@eqipment_type'!$C4</f>
-        <v>NONE</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="13.5">
-      <c r="A19" s="14" t="str">
-        <f>'[1]@goods_type'!$A19</f>
-        <v>TICKET_DUNGEON</v>
-      </c>
-      <c r="B19" s="14">
-        <f>'[1]@goods_type'!$B19</f>
-        <v>105</v>
-      </c>
-      <c r="C19" s="14" t="str">
-        <f>'[1]@goods_type'!$C19</f>
-        <v>105 던전 입장 티켓</v>
-      </c>
+        <f>'[1]@eqipment_type'!$C9</f>
+        <v>5 목걸이</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="12.75">
       <c r="D19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="14" t="str">
-        <f>'[1]@eqipment_type'!$A5</f>
-        <v>WEAPON</v>
-      </c>
-      <c r="N19" s="14">
-        <f>'[1]@eqipment_type'!$B5</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="14" t="str">
-        <f>'[1]@eqipment_type'!$C5</f>
-        <v>1 무기</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="13.5">
-      <c r="A20" s="14" t="str">
-        <f>'[1]@goods_type'!$A20</f>
-        <v>EQ_GROWUP</v>
-      </c>
-      <c r="B20" s="14">
-        <f>'[1]@goods_type'!$B20</f>
-        <v>106</v>
-      </c>
-      <c r="C20" s="14" t="str">
-        <f>'[1]@goods_type'!$C20</f>
-        <v>106 정련석(장비 성장)</v>
-      </c>
       <c r="D20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="14" t="str">
-        <f>'[1]@eqipment_type'!$A6</f>
-        <v>ARMOR</v>
-      </c>
-      <c r="N20" s="14">
-        <f>'[1]@eqipment_type'!$B6</f>
-        <v>2</v>
-      </c>
-      <c r="O20" s="14" t="str">
-        <f>'[1]@eqipment_type'!$C6</f>
-        <v>2 방어구</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.5">
-      <c r="A21" s="14" t="str">
-        <f>'[1]@goods_type'!$A21</f>
-        <v>TICKET_REWARD_SELECT</v>
-      </c>
-      <c r="B21" s="14">
-        <f>'[1]@goods_type'!$B21</f>
-        <v>107</v>
-      </c>
-      <c r="C21" s="14" t="str">
-        <f>'[1]@goods_type'!$C21</f>
-        <v>107 보상 선택 티켓(1개를 선택 획득)</v>
-      </c>
       <c r="D21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="14" t="str">
-        <f>'[1]@eqipment_type'!$A7</f>
-        <v>SHOES</v>
-      </c>
-      <c r="N21" s="14">
-        <f>'[1]@eqipment_type'!$B7</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.25">
+      <c r="M22" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="1:15" ht="12.75">
+      <c r="M23" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:15" ht="15">
+      <c r="M24" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="13.5">
+      <c r="M25" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="N25" s="31">
+        <v>0</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="13.5">
+      <c r="M26" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="N26" s="31">
+        <v>1</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="13.5">
+      <c r="M27" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="N27" s="31">
+        <v>2</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="13.5">
+      <c r="M28" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="N28" s="31">
         <v>3</v>
       </c>
-      <c r="O21" s="14" t="str">
-        <f>'[1]@eqipment_type'!$C7</f>
-        <v>3 신발</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="13.5">
-      <c r="A22" s="14" t="str">
-        <f>'[1]@goods_type'!$A22</f>
-        <v>TICKET_REWARD_RANDOM</v>
-      </c>
-      <c r="B22" s="14">
-        <f>'[1]@goods_type'!$B22</f>
+      <c r="O28" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="13.5">
+      <c r="M29" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="N29" s="31">
+        <v>4</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="13.5">
+      <c r="M30" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="N30" s="31">
+        <v>5</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="13.5">
+      <c r="M31" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="N31" s="31">
+        <v>6</v>
+      </c>
+      <c r="O31" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="13.5">
+      <c r="M32" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="N32" s="33">
+        <v>7</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" ht="13.5">
+      <c r="M33" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="N33" s="33">
+        <v>8</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15" ht="13.5">
+      <c r="M34" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="N34" s="35">
+        <v>9</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15" ht="13.5">
+      <c r="M35" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="N35" s="35">
+        <v>10</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="13:15" ht="13.5">
+      <c r="M36" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="N36" s="31">
+        <v>101</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="13:15" ht="13.5">
+      <c r="M37" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="N37" s="31">
+        <v>102</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" ht="13.5">
+      <c r="M38" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="N38" s="31">
+        <v>103</v>
+      </c>
+      <c r="O38" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15" ht="13.5">
+      <c r="M39" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="N39" s="31">
+        <v>104</v>
+      </c>
+      <c r="O39" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="13:15" ht="13.5">
+      <c r="M40" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="N40" s="31">
+        <v>105</v>
+      </c>
+      <c r="O40" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="13:15" ht="13.5">
+      <c r="M41" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="N41" s="31">
+        <v>106</v>
+      </c>
+      <c r="O41" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="13:15" ht="13.5">
+      <c r="M42" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="N42" s="31">
+        <v>107</v>
+      </c>
+      <c r="O42" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="13:15" ht="13.5">
+      <c r="M43" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N43" s="31">
         <v>108</v>
       </c>
-      <c r="C22" s="14" t="str">
-        <f>'[1]@goods_type'!$C22</f>
-        <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
-      </c>
-      <c r="M22" s="14" t="str">
-        <f>'[1]@eqipment_type'!$A8</f>
-        <v>RING</v>
-      </c>
-      <c r="N22" s="14">
-        <f>'[1]@eqipment_type'!$B8</f>
-        <v>4</v>
-      </c>
-      <c r="O22" s="14" t="str">
-        <f>'[1]@eqipment_type'!$C8</f>
-        <v>4 반지</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="13.5">
-      <c r="A23" s="14" t="str">
-        <f>'[1]@goods_type'!$A23</f>
-        <v>TICKET_REWARD_ALL</v>
-      </c>
-      <c r="B23" s="14">
-        <f>'[1]@goods_type'!$B23</f>
+      <c r="O43" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="13:15" ht="13.5">
+      <c r="M44" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="N44" s="31">
         <v>109</v>
       </c>
-      <c r="C23" s="14" t="str">
-        <f>'[1]@goods_type'!$C23</f>
-        <v>109 보상 패키지 티켓(모든 보상 획득)</v>
-      </c>
-      <c r="M23" s="14" t="str">
-        <f>'[1]@eqipment_type'!$A9</f>
-        <v>NECKLACE</v>
-      </c>
-      <c r="N23" s="14">
-        <f>'[1]@eqipment_type'!$B9</f>
-        <v>5</v>
-      </c>
-      <c r="O23" s="14" t="str">
-        <f>'[1]@eqipment_type'!$C9</f>
-        <v>5 목걸이</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="13.5">
-      <c r="M24" s="14" t="str">
-        <f>'[1]@eqipment_type'!$A10</f>
-        <v>BRACELET</v>
-      </c>
-      <c r="N24" s="14">
-        <f>'[1]@eqipment_type'!$B10</f>
-        <v>6</v>
-      </c>
-      <c r="O24" s="14" t="str">
-        <f>'[1]@eqipment_type'!$C10</f>
-        <v>6 팔찌</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="12.75"/>
-    <row r="26" spans="1:15" ht="12.75"/>
-    <row r="27" spans="1:15" ht="12.75"/>
-    <row r="28" spans="1:15" ht="12.75"/>
-    <row r="29" spans="1:15" ht="12.75"/>
-    <row r="30" spans="1:15" ht="12.75"/>
-    <row r="31" spans="1:15" ht="12.75"/>
-    <row r="32" spans="1:15" ht="12.75"/>
-    <row r="33" ht="12.75"/>
-    <row r="34" ht="12.75"/>
-    <row r="35" ht="12.75"/>
-    <row r="36" ht="12.75"/>
-    <row r="37" ht="12.75"/>
-    <row r="38" ht="12.75"/>
-    <row r="39" ht="12.75"/>
-    <row r="40" ht="12.75"/>
-    <row r="41" ht="12.75"/>
-    <row r="42" ht="12.75"/>
-    <row r="43" ht="12.75"/>
-    <row r="44" ht="12.75"/>
-    <row r="45" ht="12.75"/>
-    <row r="46" ht="12.75"/>
-    <row r="47" ht="12.75"/>
-    <row r="48" ht="12.75"/>
+      <c r="O44" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="13:15" ht="13.5">
+      <c r="M45" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="N45" s="31">
+        <v>110</v>
+      </c>
+      <c r="O45" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="13:15" ht="13.5">
+      <c r="M46" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="N46" s="31">
+        <v>111</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="13:15" ht="13.5">
+      <c r="M47" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="N47" s="31">
+        <v>112</v>
+      </c>
+      <c r="O47" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="13:15" ht="13.5">
+      <c r="M48" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="N48" s="31">
+        <v>113</v>
+      </c>
+      <c r="O48" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
     <row r="49" ht="12.75"/>
     <row r="50" ht="12.75"/>
     <row r="51" ht="12.75"/>
@@ -6049,193 +6180,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
-      <c r="A1" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C5,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C6,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(C7,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1">
-        <v>999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B26C3AC-628E-4541-AD8E-F9FFBF3B4EA9}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$4:$C$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5:C7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A29" sqref="A29:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6254,7 +6203,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5">
@@ -6265,7 +6214,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -6274,22 +6223,22 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6300,13 +6249,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -6321,7 +6270,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>4</v>
@@ -6332,52 +6281,52 @@
         <v>8</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" s="23" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D5,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>9999</v>
@@ -6395,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6403,17 +6352,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D6,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>9999</v>
@@ -6431,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6439,17 +6388,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D7,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>9999</v>
@@ -6467,25 +6416,25 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D8,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>9999</v>
@@ -6503,25 +6452,25 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D9,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>9999</v>
@@ -6539,31 +6488,31 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D10,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>9999</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -6575,31 +6524,31 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D11,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <v>9999</v>
       </c>
       <c r="G11" s="1">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -6611,31 +6560,31 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D12,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>9999</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -6647,31 +6596,31 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D13,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>9999</v>
       </c>
       <c r="G13" s="1">
-        <v>200</v>
+        <v>7500</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -6683,31 +6632,31 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D14,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <v>9999</v>
       </c>
       <c r="G14" s="1">
-        <v>400</v>
+        <v>37500</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -6719,25 +6668,25 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D15,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
         <v>9999</v>
@@ -6746,7 +6695,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -6755,34 +6704,34 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D16,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
         <v>9999</v>
       </c>
       <c r="G16" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -6791,34 +6740,34 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D17,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
         <v>9999</v>
       </c>
       <c r="G17" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -6827,31 +6776,31 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>123</v>
+        <v>180</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D18,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
         <v>9999</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -6863,34 +6812,34 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D19,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
         <v>9999</v>
       </c>
       <c r="G19" s="1">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="H19" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -6899,34 +6848,34 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>39</v>
+        <v>182</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D20,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
         <v>9999</v>
       </c>
       <c r="G20" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -6935,43 +6884,403 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>40</v>
+        <v>183</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D21,'!참조_ENUM'!$C$3:$C$84,0))</f>
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1">
         <v>9999</v>
       </c>
       <c r="G21" s="1">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D22,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G22" s="1">
         <v>100</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D23,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>200</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E24" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D24,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>400</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D25,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>100</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D26,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1">
+        <v>200</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D27,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1">
+        <v>300</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.5">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D28,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D29,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D30,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>50</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="1">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D31,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
         <v>5000</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>174</v>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6985,7 +7294,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$23</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D21</xm:sqref>
+          <xm:sqref>D5:D31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6993,12 +7302,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E993661-8E4D-4B88-A543-F5F1CEA214EE}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7017,7 +7326,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5">
@@ -7028,31 +7337,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7063,13 +7372,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -7092,37 +7401,37 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7130,20 +7439,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D5,'!참조_ENUM'!$O$3:$O$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$3:$N$85,MATCH(D5,'!참조_ENUM'!$O$3:$O$85,0))</f>
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1">
         <v>9999</v>
@@ -7158,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7166,20 +7475,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D6,'!참조_ENUM'!$O$3:$O$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$3:$N$85,MATCH(D6,'!참조_ENUM'!$O$3:$O$85,0))</f>
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1">
         <v>9999</v>
@@ -7194,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7202,20 +7511,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D7,'!참조_ENUM'!$O$3:$O$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$3:$N$85,MATCH(D7,'!참조_ENUM'!$O$3:$O$85,0))</f>
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
         <v>9999</v>
@@ -7230,79 +7539,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="1">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D8,'!참조_ENUM'!$O$3:$O$84,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>100</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="1">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$84,MATCH(D9,'!참조_ENUM'!$O$3:$O$84,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7314,9 +7551,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB67B789-1EDE-4239-B919-2FC5683197DC}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$O$4:$O$7</xm:f>
+            <xm:f>'!참조_ENUM'!$O$4:$O$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D9</xm:sqref>
+          <xm:sqref>D5:D7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7324,12 +7561,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7352,7 +7589,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="26.25">
@@ -7363,58 +7600,58 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="M2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="R2" s="11" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7425,13 +7662,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -7473,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>4</v>
@@ -7487,58 +7724,58 @@
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5">
@@ -7546,16 +7783,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D5,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D5,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F5" s="1">
@@ -7601,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7609,16 +7846,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D6,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D6,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F6" s="1">
@@ -7664,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -7672,16 +7909,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D7,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D7,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F7" s="1">
@@ -7727,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -7735,16 +7972,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D8,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D8,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F8" s="1">
@@ -7790,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -7798,16 +8035,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D9,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D9,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F9" s="1">
@@ -7853,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -7861,16 +8098,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D10,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D10,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F10" s="1">
@@ -7916,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -7924,16 +8161,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D11,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D11,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F11" s="1">
@@ -7979,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -7987,16 +8224,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D12,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D12,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F12" s="1">
@@ -8042,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5">
@@ -8050,16 +8287,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D13,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D13,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F13" s="1">
@@ -8105,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -8113,16 +8350,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D14,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D14,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
       <c r="F14" s="1">
@@ -8168,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -8176,16 +8413,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D15,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D15,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>2</v>
       </c>
       <c r="F15" s="1">
@@ -8231,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -8239,16 +8476,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D16,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D16,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>2</v>
       </c>
       <c r="F16" s="1">
@@ -8294,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -8302,16 +8539,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E17" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D17,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D17,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>2</v>
       </c>
       <c r="F17" s="1">
@@ -8357,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -8365,16 +8602,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D18,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D18,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>2</v>
       </c>
       <c r="F18" s="1">
@@ -8420,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -8428,16 +8665,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D19,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D19,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>3</v>
       </c>
       <c r="F19" s="1">
@@ -8483,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -8491,16 +8728,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D20,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D20,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>3</v>
       </c>
       <c r="F20" s="1">
@@ -8546,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -8554,16 +8791,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E21" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D21,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D21,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>3</v>
       </c>
       <c r="F21" s="1">
@@ -8609,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -8617,16 +8854,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E22" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D22,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D22,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>3</v>
       </c>
       <c r="F22" s="1">
@@ -8672,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -8680,16 +8917,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E23" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D23,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D23,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>4</v>
       </c>
       <c r="F23" s="1">
@@ -8735,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -8743,16 +8980,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D24,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D24,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>4</v>
       </c>
       <c r="F24" s="1">
@@ -8798,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -8806,16 +9043,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D25,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D25,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>4</v>
       </c>
       <c r="F25" s="1">
@@ -8861,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -8869,16 +9106,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E26" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D26,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D26,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>5</v>
       </c>
       <c r="F26" s="1">
@@ -8924,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -8932,16 +9169,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E27" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D27,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D27,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>5</v>
       </c>
       <c r="F27" s="1">
@@ -8987,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -8995,16 +9232,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D28,'!참조_ENUM'!$O$18:$O$30,0))</f>
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D28,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>5</v>
       </c>
       <c r="F28" s="1">
@@ -9050,196 +9287,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D29,'!참조_ENUM'!$O$18:$O$30,0))</f>
-        <v>6</v>
-      </c>
-      <c r="F29" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D30,'!참조_ENUM'!$O$18:$O$30,0))</f>
-        <v>6</v>
-      </c>
-      <c r="F30" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="1">
-        <f>INDEX('!참조_ENUM'!$N$18:$N$84,MATCH(D31,'!참조_ENUM'!$O$18:$O$30,0))</f>
-        <v>6</v>
-      </c>
-      <c r="F31" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -9251,9 +9299,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DA29F8A-3C00-40F7-AA18-AE5B8CEBBF7F}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$O$18:$O$24</xm:f>
+            <xm:f>'!참조_ENUM'!$O$13:$O$19</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D31</xm:sqref>
+          <xm:sqref>D5:D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A133B33E-F501-411F-8DDC-C321B8D652B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE1CE3-38F3-4E42-8353-B209D5F24102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39195" yWindow="1515" windowWidth="29295" windowHeight="16530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -3952,40 +3952,29 @@
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
       <sheetData sheetId="22">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -4255,11 +4244,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4469,8 +4458,8 @@
   </sheetPr>
   <dimension ref="A1:O984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6183,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6192,7 +6181,7 @@
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE1CE3-38F3-4E42-8353-B209D5F24102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C999B-A8AE-446B-8FAB-D17E80C967B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39195" yWindow="1515" windowWidth="29295" windowHeight="16530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42180" yWindow="2325" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
-    <sheet name="item" sheetId="5" r:id="rId2"/>
-    <sheet name="item_piece" sheetId="6" r:id="rId3"/>
-    <sheet name="equipment" sheetId="7" r:id="rId4"/>
+    <sheet name="goods" sheetId="8" r:id="rId2"/>
+    <sheet name="item" sheetId="5" r:id="rId3"/>
+    <sheet name="item_piece" sheetId="6" r:id="rId4"/>
+    <sheet name="equipment" sheetId="7" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -252,76 +253,7 @@
     <author>Rown</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{7C50D53B-8D8C-4D26-90FC-6FFDC715D207}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아이템
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">캐릭터
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>장비</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{D359808C-3CCD-4C49-B96A-E0AF34A91D76}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{D359808C-3CCD-4C49-B96A-E0AF34A91D76}">
       <text>
         <r>
           <rPr>
@@ -420,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{B9BC3B02-0D2F-494D-8F9A-A3FA2225E711}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{B9BC3B02-0D2F-494D-8F9A-A3FA2225E711}">
       <text>
         <r>
           <rPr>
@@ -1060,7 +992,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="302">
   <si>
     <t>type</t>
   </si>
@@ -1168,9 +1100,6 @@
   </si>
   <si>
     <t>1개 제작을 하기 위한 수량</t>
-  </si>
-  <si>
-    <t>itempiece_id</t>
   </si>
   <si>
     <t>target_id</t>
@@ -2294,10 +2223,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>GOODS_TYPE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 한손검</t>
   </si>
   <si>
@@ -2714,55 +2639,8 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타입</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:PIECE_TYPE:NONE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>piece_type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>#piece_type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>PIECE_TYPE</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 아이템</t>
   </si>
   <si>
     <t>소비기한</t>
@@ -3470,13 +3348,107 @@
   </si>
   <si>
     <t>5 스킬 경험치 아이템</t>
+  </si>
+  <si>
+    <t>아이템 타입</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(기획)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ITEM_TYPE_V2:NONE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#item_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Data</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타입</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 타입(기획)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>금화</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_bound</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 골드 (게임내 재화)</t>
+  </si>
+  <si>
+    <t>2 다이아 (게임내 유료 재화)</t>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_piece_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3680,6 +3652,42 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3820,7 +3828,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3894,6 +3902,54 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3942,6 +3998,7 @@
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
       <sheetName val="@piece_type"/>
       <sheetName val="@eqipment_type"/>
@@ -3952,29 +4009,34 @@
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE_V2</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -4120,17 +4182,90 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B17">
+            <v>101</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>101 캐릭터</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
             <v>PIECE_EQUIPMENT</v>
           </cell>
-          <cell r="B17">
+          <cell r="B18">
             <v>1000</v>
           </cell>
-          <cell r="C17" t="str">
+          <cell r="C18" t="str">
             <v>1000 장비 조각</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>PIECE_CHARACTER</v>
+          </cell>
+          <cell r="B19">
+            <v>1001</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>1001 캐릭터 조각</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>PIECE_ITEM</v>
+          </cell>
+          <cell r="B20">
+            <v>1002</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>1002 아이템 조각</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="23">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GOODS_TYPE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>GOLD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 골드 (게임내 재화)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 다이아 (게임내 유료 재화)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -4176,7 +4311,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="24">
+      <sheetData sheetId="25">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -4244,11 +4379,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4456,10 +4591,10 @@
     <tabColor theme="1" tint="0.34998626667073579"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O984"/>
+  <dimension ref="A1:S984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4470,25 +4605,32 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.42578125" customWidth="1"/>
     <col min="15" max="15" width="29.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75">
+    <row r="1" spans="1:19" ht="12.75">
       <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
+    <row r="2" spans="1:19" ht="39.75" customHeight="1">
+      <c r="A2" s="8" t="str">
+        <f>'[1]@item_type_v2'!$A$1</f>
+        <v>ITEM_TYPE_V2</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="46" t="str">
+        <f>'[1]@goods_type'!$A$1</f>
+        <v>GOODS_TYPE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -4513,18 +4655,27 @@
       <c r="O3" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="13.5">
+      <c r="Q3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13.5">
       <c r="A4" s="14" t="str">
-        <f>'[1]@goods_type'!$A4</f>
+        <f>'[1]@item_type_v2'!$A4</f>
         <v>NONE</v>
       </c>
       <c r="B4" s="14">
-        <f>'[1]@goods_type'!$B4</f>
+        <f>'[1]@item_type_v2'!$B4</f>
         <v>0</v>
       </c>
       <c r="C4" s="14" t="str">
-        <f>'[1]@goods_type'!$C4</f>
+        <f>'[1]@item_type_v2'!$C4</f>
         <v>NONE</v>
       </c>
       <c r="M4" s="14" t="str">
@@ -4539,18 +4690,30 @@
         <f>'[1]@piece_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="13.5">
+      <c r="Q4" s="45" t="str">
+        <f>'[1]@goods_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="R4" s="45">
+        <f>'[1]@goods_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="45" t="str">
+        <f>'[1]@goods_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13.5">
       <c r="A5" s="14" t="str">
-        <f>'[1]@goods_type'!$A5</f>
+        <f>'[1]@item_type_v2'!$A5</f>
         <v>EXP_POTION_P</v>
       </c>
       <c r="B5" s="14">
-        <f>'[1]@goods_type'!$B5</f>
+        <f>'[1]@item_type_v2'!$B5</f>
         <v>1</v>
       </c>
       <c r="C5" s="14" t="str">
-        <f>'[1]@goods_type'!$C5</f>
+        <f>'[1]@item_type_v2'!$C5</f>
         <v>1 플레이어 경험치 물약</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -4568,18 +4731,30 @@
         <f>'[1]@piece_type'!$C5</f>
         <v>1 아이템</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.5">
+      <c r="Q5" s="45" t="str">
+        <f>'[1]@goods_type'!$A5</f>
+        <v>GOLD</v>
+      </c>
+      <c r="R5" s="45">
+        <f>'[1]@goods_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="45" t="str">
+        <f>'[1]@goods_type'!$C5</f>
+        <v>1 골드 (게임내 재화)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5">
       <c r="A6" s="14" t="str">
-        <f>'[1]@goods_type'!$A6</f>
+        <f>'[1]@item_type_v2'!$A6</f>
         <v>EXP_POTION_C</v>
       </c>
       <c r="B6" s="14">
-        <f>'[1]@goods_type'!$B6</f>
+        <f>'[1]@item_type_v2'!$B6</f>
         <v>2</v>
       </c>
       <c r="C6" s="14" t="str">
-        <f>'[1]@goods_type'!$C6</f>
+        <f>'[1]@item_type_v2'!$C6</f>
         <v>2 캐릭터 경험치 물약</v>
       </c>
       <c r="D6" s="2" t="b">
@@ -4597,18 +4772,30 @@
         <f>'[1]@piece_type'!$C6</f>
         <v>2 장비</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="13.5">
+      <c r="Q6" s="45" t="str">
+        <f>'[1]@goods_type'!$A6</f>
+        <v>DIA</v>
+      </c>
+      <c r="R6" s="45">
+        <f>'[1]@goods_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="45" t="str">
+        <f>'[1]@goods_type'!$C6</f>
+        <v>2 다이아 (게임내 유료 재화)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.5">
       <c r="A7" s="14" t="str">
-        <f>'[1]@goods_type'!$A7</f>
+        <f>'[1]@item_type_v2'!$A7</f>
         <v>STA_POTION</v>
       </c>
       <c r="B7" s="14">
-        <f>'[1]@goods_type'!$B7</f>
+        <f>'[1]@item_type_v2'!$B7</f>
         <v>3</v>
       </c>
       <c r="C7" s="14" t="str">
-        <f>'[1]@goods_type'!$C7</f>
+        <f>'[1]@item_type_v2'!$C7</f>
         <v>3 스테미나 회복 물약</v>
       </c>
       <c r="D7" s="2" t="b">
@@ -4627,17 +4814,17 @@
         <v>3  캐릭터</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.5">
+    <row r="8" spans="1:19" ht="13.5">
       <c r="A8" s="14" t="str">
-        <f>'[1]@goods_type'!$A8</f>
+        <f>'[1]@item_type_v2'!$A8</f>
         <v>FAVORITE_ITEM</v>
       </c>
       <c r="B8" s="14">
-        <f>'[1]@goods_type'!$B8</f>
+        <f>'[1]@item_type_v2'!$B8</f>
         <v>4</v>
       </c>
       <c r="C8" s="14" t="str">
-        <f>'[1]@goods_type'!$C8</f>
+        <f>'[1]@item_type_v2'!$C8</f>
         <v>4 호감도 아이템</v>
       </c>
       <c r="D8" s="2" t="b">
@@ -4645,17 +4832,17 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="13.5">
+    <row r="9" spans="1:19" ht="13.5">
       <c r="A9" s="14" t="str">
-        <f>'[1]@goods_type'!$A9</f>
+        <f>'[1]@item_type_v2'!$A9</f>
         <v>EXP_SKILL</v>
       </c>
       <c r="B9" s="14">
-        <f>'[1]@goods_type'!$B9</f>
+        <f>'[1]@item_type_v2'!$B9</f>
         <v>5</v>
       </c>
       <c r="C9" s="14" t="str">
-        <f>'[1]@goods_type'!$C9</f>
+        <f>'[1]@item_type_v2'!$C9</f>
         <v>5 스킬 경험치 아이템</v>
       </c>
       <c r="D9" s="2" t="b">
@@ -4663,17 +4850,17 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="13.5">
+    <row r="10" spans="1:19" ht="13.5">
       <c r="A10" s="14" t="str">
-        <f>'[1]@goods_type'!$A10</f>
+        <f>'[1]@item_type_v2'!$A10</f>
         <v>STAGE_SKIP</v>
       </c>
       <c r="B10" s="14">
-        <f>'[1]@goods_type'!$B10</f>
+        <f>'[1]@item_type_v2'!$B10</f>
         <v>6</v>
       </c>
       <c r="C10" s="14" t="str">
-        <f>'[1]@goods_type'!$C10</f>
+        <f>'[1]@item_type_v2'!$C10</f>
         <v>6 스테이지 스킵 티켓</v>
       </c>
       <c r="D10" s="2" t="b">
@@ -4681,17 +4868,17 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="14" t="str">
-        <f>'[1]@goods_type'!$A11</f>
+        <f>'[1]@item_type_v2'!$A11</f>
         <v>TICKET_DUNGEON</v>
       </c>
       <c r="B11" s="14">
-        <f>'[1]@goods_type'!$B11</f>
+        <f>'[1]@item_type_v2'!$B11</f>
         <v>7</v>
       </c>
       <c r="C11" s="14" t="str">
-        <f>'[1]@goods_type'!$C11</f>
+        <f>'[1]@item_type_v2'!$C11</f>
         <v>7 던전 입장 티켓</v>
       </c>
       <c r="D11" s="2" t="b">
@@ -4701,27 +4888,27 @@
         <v>21</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15">
       <c r="A12" s="14" t="str">
-        <f>'[1]@goods_type'!$A12</f>
+        <f>'[1]@item_type_v2'!$A12</f>
         <v>EQ_GROWUP</v>
       </c>
       <c r="B12" s="14">
-        <f>'[1]@goods_type'!$B12</f>
+        <f>'[1]@item_type_v2'!$B12</f>
         <v>8</v>
       </c>
       <c r="C12" s="14" t="str">
-        <f>'[1]@goods_type'!$C12</f>
+        <f>'[1]@item_type_v2'!$C12</f>
         <v>8 정련석(장비 성장)</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>0</v>
@@ -4733,24 +4920,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.5">
+    <row r="13" spans="1:19" ht="13.5">
       <c r="A13" s="14" t="str">
-        <f>'[1]@goods_type'!$A13</f>
+        <f>'[1]@item_type_v2'!$A13</f>
         <v>TICKET_REWARD_SELECT</v>
       </c>
       <c r="B13" s="14">
-        <f>'[1]@goods_type'!$B13</f>
+        <f>'[1]@item_type_v2'!$B13</f>
         <v>9</v>
       </c>
       <c r="C13" s="14" t="str">
-        <f>'[1]@goods_type'!$C13</f>
+        <f>'[1]@item_type_v2'!$C13</f>
         <v>9 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M13" s="14" t="str">
         <f>'[1]@eqipment_type'!$A4</f>
@@ -4765,17 +4952,17 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13.5">
+    <row r="14" spans="1:19" ht="13.5">
       <c r="A14" s="14" t="str">
-        <f>'[1]@goods_type'!$A14</f>
+        <f>'[1]@item_type_v2'!$A14</f>
         <v>TICKET_REWARD_RANDOM</v>
       </c>
       <c r="B14" s="14">
-        <f>'[1]@goods_type'!$B14</f>
+        <f>'[1]@item_type_v2'!$B14</f>
         <v>10</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>'[1]@goods_type'!$C14</f>
+        <f>'[1]@item_type_v2'!$C14</f>
         <v>10 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
       <c r="D14" s="2" t="b">
@@ -4797,17 +4984,17 @@
         <v>1 무기</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.5">
+    <row r="15" spans="1:19" ht="13.5">
       <c r="A15" s="14" t="str">
-        <f>'[1]@goods_type'!$A15</f>
+        <f>'[1]@item_type_v2'!$A15</f>
         <v>TICKET_REWARD_ALL</v>
       </c>
       <c r="B15" s="14">
-        <f>'[1]@goods_type'!$B15</f>
+        <f>'[1]@item_type_v2'!$B15</f>
         <v>11</v>
       </c>
       <c r="C15" s="14" t="str">
-        <f>'[1]@goods_type'!$C15</f>
+        <f>'[1]@item_type_v2'!$C15</f>
         <v>11 보상 패키지 티켓(모든 보상 획득)</v>
       </c>
       <c r="D15" s="2" t="b">
@@ -4829,24 +5016,24 @@
         <v>2 방어구</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13.5">
+    <row r="16" spans="1:19" ht="13.5">
       <c r="A16" s="14" t="str">
-        <f>'[1]@goods_type'!$A16</f>
+        <f>'[1]@item_type_v2'!$A16</f>
         <v>EQUIPMENT</v>
       </c>
       <c r="B16" s="14">
-        <f>'[1]@goods_type'!$B16</f>
+        <f>'[1]@item_type_v2'!$B16</f>
         <v>100</v>
       </c>
       <c r="C16" s="14" t="str">
-        <f>'[1]@goods_type'!$C16</f>
+        <f>'[1]@item_type_v2'!$C16</f>
         <v>100 장비</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="14" t="str">
         <f>'[1]@eqipment_type'!$A7</f>
@@ -4863,16 +5050,16 @@
     </row>
     <row r="17" spans="1:15" ht="13.5">
       <c r="A17" s="14" t="str">
-        <f>'[1]@goods_type'!$A17</f>
-        <v>PIECE_EQUIPMENT</v>
+        <f>'[1]@item_type_v2'!$A17</f>
+        <v>CHARACTER</v>
       </c>
       <c r="B17" s="14">
-        <f>'[1]@goods_type'!$B17</f>
-        <v>1000</v>
+        <f>'[1]@item_type_v2'!$B17</f>
+        <v>101</v>
       </c>
       <c r="C17" s="14" t="str">
-        <f>'[1]@goods_type'!$C17</f>
-        <v>1000 장비 조각</v>
+        <f>'[1]@item_type_v2'!$C17</f>
+        <v>101 캐릭터</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>1</v>
@@ -4894,6 +5081,18 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5">
+      <c r="A18" s="14" t="str">
+        <f>'[1]@item_type_v2'!$A18</f>
+        <v>PIECE_EQUIPMENT</v>
+      </c>
+      <c r="B18" s="14">
+        <f>'[1]@item_type_v2'!$B18</f>
+        <v>1000</v>
+      </c>
+      <c r="C18" s="14" t="str">
+        <f>'[1]@item_type_v2'!$C18</f>
+        <v>1000 장비 조각</v>
+      </c>
       <c r="D18" s="2" t="b">
         <v>1</v>
       </c>
@@ -4913,7 +5112,19 @@
         <v>5 목걸이</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.75">
+    <row r="19" spans="1:15" ht="13.5">
+      <c r="A19" s="14" t="str">
+        <f>'[1]@item_type_v2'!$A19</f>
+        <v>PIECE_CHARACTER</v>
+      </c>
+      <c r="B19" s="14">
+        <f>'[1]@item_type_v2'!$B19</f>
+        <v>1001</v>
+      </c>
+      <c r="C19" s="14" t="str">
+        <f>'[1]@item_type_v2'!$C19</f>
+        <v>1001 캐릭터 조각</v>
+      </c>
       <c r="D19" s="2" t="b">
         <v>1</v>
       </c>
@@ -4922,11 +5133,23 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="13.5">
+      <c r="A20" s="14" t="str">
+        <f>'[1]@item_type_v2'!$A20</f>
+        <v>PIECE_ITEM</v>
+      </c>
+      <c r="B20" s="14">
+        <f>'[1]@item_type_v2'!$B20</f>
+        <v>1002</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>'[1]@item_type_v2'!$C20</f>
+        <v>1002 아이템 조각</v>
+      </c>
       <c r="D20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.5">
@@ -4934,19 +5157,19 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="M22" s="25" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="12.75">
       <c r="M23" s="27" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -4964,266 +5187,266 @@
     </row>
     <row r="25" spans="1:15" ht="13.5">
       <c r="M25" s="30" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N25" s="31">
         <v>0</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.5">
       <c r="M26" s="30" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N26" s="31">
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.5">
       <c r="M27" s="30" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N27" s="31">
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="13.5">
       <c r="M28" s="30" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N28" s="31">
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5">
       <c r="M29" s="30" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N29" s="31">
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5">
       <c r="M30" s="30" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N30" s="31">
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5">
       <c r="M31" s="30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="N31" s="31">
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="13.5">
       <c r="M32" s="32" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="N32" s="33">
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="13.5">
       <c r="M33" s="32" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N33" s="33">
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="13.5">
       <c r="M34" s="30" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="13.5">
       <c r="M35" s="30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="13.5">
       <c r="M36" s="30" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="N36" s="31">
         <v>101</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="13.5">
       <c r="M37" s="30" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N37" s="31">
         <v>102</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="13.5">
       <c r="M38" s="30" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="N38" s="31">
         <v>103</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="13.5">
       <c r="M39" s="30" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="N39" s="31">
         <v>104</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="13.5">
       <c r="M40" s="30" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N40" s="31">
         <v>105</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="13.5">
       <c r="M41" s="30" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N41" s="31">
         <v>106</v>
       </c>
       <c r="O41" s="30" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="13:15" ht="13.5">
       <c r="M42" s="30" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N42" s="31">
         <v>107</v>
       </c>
       <c r="O42" s="30" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="13:15" ht="13.5">
       <c r="M43" s="30" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N43" s="31">
         <v>108</v>
       </c>
       <c r="O43" s="30" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="13:15" ht="13.5">
       <c r="M44" s="30" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="N44" s="31">
         <v>109</v>
       </c>
       <c r="O44" s="30" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="13:15" ht="13.5">
       <c r="M45" s="30" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N45" s="31">
         <v>110</v>
       </c>
       <c r="O45" s="30" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="13:15" ht="13.5">
       <c r="M46" s="30" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N46" s="31">
         <v>111</v>
       </c>
       <c r="O46" s="30" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="13:15" ht="13.5">
       <c r="M47" s="30" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N47" s="31">
         <v>112</v>
       </c>
       <c r="O47" s="30" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="13:15" ht="13.5">
       <c r="M48" s="30" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N48" s="31">
         <v>113</v>
       </c>
       <c r="O48" s="30" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" ht="12.75"/>
@@ -6169,19 +6392,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787604D-A7F1-41E4-82F7-4CC79E1BE613}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5">
+      <c r="A2" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="45">
+        <f>INDEX('!참조_ENUM'!$R$4:$R$6,MATCH(B5,'!참조_ENUM'!$S$4:$S$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="54">
+        <v>9999999999</v>
+      </c>
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="45">
+        <f>INDEX('!참조_ENUM'!$R$4:$R$6,MATCH(B6,'!참조_ENUM'!$S$4:$S$6,0))</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="54">
+        <v>999999</v>
+      </c>
+      <c r="E6" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5C59CF53-7109-4FB0-9EF3-F63D7768C841}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$S$4:$S$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
@@ -6192,94 +6538,94 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.5">
-      <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="41" customFormat="1" ht="13.5">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="41" customFormat="1">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" s="41" customFormat="1">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
@@ -6294,10 +6640,10 @@
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>106</v>
+        <v>42</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5">
@@ -6305,16 +6651,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>212</v>
+        <v>259</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E5" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D5,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D5,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
       <c r="F5" s="1">
@@ -6333,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6341,16 +6687,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>212</v>
+        <v>255</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E6" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D6,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D6,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
       <c r="F6" s="1">
@@ -6369,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6377,16 +6723,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>212</v>
+        <v>256</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E7" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D7,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D7,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
       <c r="F7" s="1">
@@ -6405,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6413,16 +6759,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>212</v>
+        <v>257</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E8" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D8,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D8,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
       <c r="F8" s="1">
@@ -6441,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6449,16 +6795,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>212</v>
+        <v>258</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E9" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D9,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D9,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
       <c r="F9" s="1">
@@ -6477,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6485,16 +6831,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>272</v>
+        <v>260</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="E10" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D10,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D10,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
       <c r="F10" s="1">
@@ -6513,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6521,16 +6867,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>272</v>
+        <v>261</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="E11" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D11,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D11,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
       <c r="F11" s="1">
@@ -6549,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6557,16 +6903,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>272</v>
+        <v>262</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="E12" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D12,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D12,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
       <c r="F12" s="1">
@@ -6585,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6593,16 +6939,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>272</v>
+        <v>263</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="E13" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D13,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D13,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
       <c r="F13" s="1">
@@ -6621,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6629,16 +6975,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>272</v>
+        <v>264</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="E14" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D14,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D14,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
       <c r="F14" s="1">
@@ -6657,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6665,16 +7011,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>273</v>
+      <c r="D15" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E15" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D15,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D15,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
       <c r="F15" s="1">
@@ -6693,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6701,16 +7047,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>273</v>
+      <c r="D16" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E16" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D16,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D16,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
       <c r="F16" s="1">
@@ -6729,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6737,16 +7083,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>273</v>
+      <c r="D17" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E17" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D17,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D17,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
       <c r="F17" s="1">
@@ -6765,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6773,16 +7119,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>273</v>
+      <c r="D18" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E18" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D18,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D18,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
       <c r="F18" s="1">
@@ -6801,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6809,16 +7155,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>273</v>
+      <c r="D19" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E19" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D19,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D19,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
       <c r="F19" s="1">
@@ -6837,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -6845,16 +7191,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>291</v>
+        <v>279</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E20" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D20,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D20,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
       <c r="F20" s="1">
@@ -6873,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -6881,16 +7227,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>291</v>
+        <v>280</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E21" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D21,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D21,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
       <c r="F21" s="1">
@@ -6909,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -6917,16 +7263,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>291</v>
+        <v>281</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E22" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D22,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D22,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
       <c r="F22" s="1">
@@ -6945,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6953,16 +7299,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>291</v>
+        <v>282</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E23" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D23,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D23,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
       <c r="F23" s="1">
@@ -6981,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6989,16 +7335,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>291</v>
+        <v>283</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E24" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D24,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D24,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
       <c r="F24" s="1">
@@ -7017,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -7025,16 +7371,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>274</v>
+      <c r="D25" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="E25" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D25,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D25,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>4</v>
       </c>
       <c r="F25" s="1">
@@ -7053,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -7061,16 +7407,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>274</v>
+      <c r="D26" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="E26" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D26,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D26,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>4</v>
       </c>
       <c r="F26" s="1">
@@ -7089,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -7097,16 +7443,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>274</v>
+      <c r="D27" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="E27" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D27,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D27,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>4</v>
       </c>
       <c r="F27" s="1">
@@ -7125,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5">
@@ -7133,16 +7479,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>275</v>
+        <v>102</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="E28" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D28,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D28,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>6</v>
       </c>
       <c r="F28" s="1">
@@ -7161,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -7169,16 +7515,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>276</v>
+      <c r="D29" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="E29" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D29,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D29,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>8</v>
       </c>
       <c r="F29" s="1">
@@ -7197,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -7205,16 +7551,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>276</v>
+      <c r="D30" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="E30" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D30,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D30,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>8</v>
       </c>
       <c r="F30" s="1">
@@ -7233,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7241,16 +7587,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>276</v>
+      <c r="D31" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="E31" s="1">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$84,MATCH(D31,'!참조_ENUM'!$C$3:$C$84,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D31,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>8</v>
       </c>
       <c r="F31" s="1">
@@ -7269,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7278,10 +7624,10 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C72E02-CCF1-4DB3-8076-2FCA614D75AC}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCA9A478-2411-4818-9ECA-A68C95D21994}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$4:$C$23</xm:f>
+            <xm:f>'!참조_ENUM'!$C$4:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>D5:D31</xm:sqref>
         </x14:dataValidation>
@@ -7291,34 +7637,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E993661-8E4D-4B88-A543-F5F1CEA214EE}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="63.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -7326,34 +7671,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -7361,13 +7700,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -7379,183 +7718,138 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>114</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
       </c>
       <c r="E5" s="1">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$85,MATCH(D5,'!참조_ENUM'!$O$3:$O$85,0))</f>
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>114</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26</v>
       </c>
       <c r="E6" s="1">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$85,MATCH(D6,'!참조_ENUM'!$O$3:$O$85,0))</f>
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="F6" s="1">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27</v>
       </c>
       <c r="E7" s="1">
-        <f>INDEX('!참조_ENUM'!$N$3:$N$85,MATCH(D7,'!참조_ENUM'!$O$3:$O$85,0))</f>
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="F7" s="1">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>171</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB67B789-1EDE-4239-B919-2FC5683197DC}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$O$4:$O$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7578,7 +7872,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="26.25">
@@ -7589,58 +7883,58 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="J2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="K2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="R2" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7651,13 +7945,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -7699,7 +7993,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>4</v>
@@ -7713,58 +8007,58 @@
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5">
@@ -7772,13 +8066,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D5,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -7827,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7835,13 +8129,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D6,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -7890,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -7898,13 +8192,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D7,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -7953,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -7961,13 +8255,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D8,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8016,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -8024,13 +8318,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D9,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8079,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -8087,13 +8381,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D10,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8142,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8150,13 +8444,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D11,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8205,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8213,13 +8507,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D12,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8268,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5">
@@ -8276,13 +8570,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D13,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8331,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -8339,13 +8633,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D14,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8394,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -8402,13 +8696,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D15,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8457,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -8465,13 +8759,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D16,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8520,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -8528,13 +8822,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D17,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8583,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -8591,13 +8885,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D18,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8646,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -8654,13 +8948,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D19,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8709,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -8717,13 +9011,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D20,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8772,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -8780,13 +9074,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D21,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8835,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -8843,13 +9137,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D22,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8898,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -8906,13 +9200,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D23,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8961,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -8969,13 +9263,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D24,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9024,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -9032,13 +9326,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D25,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9087,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -9095,13 +9389,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D26,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9150,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -9158,13 +9452,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D27,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9213,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -9221,13 +9515,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D28,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9276,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C999B-A8AE-446B-8FAB-D17E80C967B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B59F29-AE0E-4761-8A47-9B379AEAE643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42180" yWindow="2325" windowWidth="35370" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38310" yWindow="2220" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -2754,135 +2754,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0002</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0003</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0004</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0005</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0006</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0007</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0008</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0009</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0010</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0011</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0012</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0013</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0014</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0017</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0015</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Etc\UI_Icon_EtcItem_0016</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0002</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0003</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0004</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0005</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0006</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0007</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0008</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0009</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0010</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0011</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0012</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0013</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0014</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0015</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0016</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0017</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0018</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0019</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0020</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0021</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0022</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0023</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\Equip\UI_Icon_equipment_0024</t>
-  </si>
-  <si>
-    <t>Assets\AssetResources\Textures\Card\Item_Icon\Item\UI_UpperIcon_Piece</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>item_name_usingitem_0001</t>
   </si>
   <si>
@@ -3442,6 +3313,134 @@
   <si>
     <t>item_piece_id</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0005</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0006</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0007</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0008</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0009</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0010</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0011</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0012</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0013</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0014</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0015</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0016</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0017</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0018</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0019</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0020</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0021</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0022</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0023</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0024</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/UI_UpperIcon_Piece</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0005</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0006</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0007</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0008</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0009</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0010</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0011</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0012</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0013</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0014</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0015</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0016</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0017</t>
   </si>
 </sst>
 </file>
@@ -5162,14 +5161,14 @@
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="M22" s="25" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="12.75">
       <c r="M23" s="27" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -5187,266 +5186,266 @@
     </row>
     <row r="25" spans="1:15" ht="13.5">
       <c r="M25" s="30" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="N25" s="31">
         <v>0</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.5">
       <c r="M26" s="30" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="N26" s="31">
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.5">
       <c r="M27" s="30" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="N27" s="31">
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="13.5">
       <c r="M28" s="30" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="N28" s="31">
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5">
       <c r="M29" s="30" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="N29" s="31">
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5">
       <c r="M30" s="30" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="N30" s="31">
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5">
       <c r="M31" s="30" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="N31" s="31">
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="13.5">
       <c r="M32" s="32" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="N32" s="33">
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="13.5">
       <c r="M33" s="32" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="N33" s="33">
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="13.5">
       <c r="M34" s="30" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="13.5">
       <c r="M35" s="30" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="13.5">
       <c r="M36" s="30" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="N36" s="31">
         <v>101</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="13.5">
       <c r="M37" s="30" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="N37" s="31">
         <v>102</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="13.5">
       <c r="M38" s="30" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="N38" s="31">
         <v>103</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="13.5">
       <c r="M39" s="30" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="N39" s="31">
         <v>104</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="13.5">
       <c r="M40" s="30" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="N40" s="31">
         <v>105</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="13.5">
       <c r="M41" s="30" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="N41" s="31">
         <v>106</v>
       </c>
       <c r="O41" s="30" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="13:15" ht="13.5">
       <c r="M42" s="30" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="N42" s="31">
         <v>107</v>
       </c>
       <c r="O42" s="30" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="13:15" ht="13.5">
       <c r="M43" s="30" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="N43" s="31">
         <v>108</v>
       </c>
       <c r="O43" s="30" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="13:15" ht="13.5">
       <c r="M44" s="30" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="N44" s="31">
         <v>109</v>
       </c>
       <c r="O44" s="30" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="13:15" ht="13.5">
       <c r="M45" s="30" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="N45" s="31">
         <v>110</v>
       </c>
       <c r="O45" s="30" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="13:15" ht="13.5">
       <c r="M46" s="30" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="N46" s="31">
         <v>111</v>
       </c>
       <c r="O46" s="30" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="13:15" ht="13.5">
       <c r="M47" s="30" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="N47" s="31">
         <v>112</v>
       </c>
       <c r="O47" s="30" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="13:15" ht="13.5">
       <c r="M48" s="30" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="N48" s="31">
         <v>113</v>
       </c>
       <c r="O48" s="30" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" ht="12.75"/>
@@ -6395,8 +6394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787604D-A7F1-41E4-82F7-4CC79E1BE613}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6409,22 +6408,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="13.5">
       <c r="A2" s="47" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>103</v>
@@ -6441,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>4</v>
@@ -6458,7 +6457,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>104</v>
@@ -6470,10 +6469,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="D5" s="54">
         <v>9999999999</v>
@@ -6486,10 +6485,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="D6" s="54">
         <v>999999</v>
@@ -6519,7 +6518,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6552,10 +6551,10 @@
         <v>98</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>12</v>
@@ -6587,10 +6586,10 @@
         <v>99</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>3</v>
@@ -6622,10 +6621,10 @@
         <v>101</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
@@ -6651,13 +6650,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D5,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6679,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6687,13 +6686,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D6,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6715,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6723,13 +6722,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D7,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6751,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6759,13 +6758,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D8,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6787,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6795,13 +6794,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D9,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6823,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6831,13 +6830,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D10,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6859,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6867,13 +6866,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D11,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6895,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6903,13 +6902,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D12,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6931,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6939,13 +6938,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D13,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6967,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6975,13 +6974,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D14,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7003,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7011,13 +7010,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D15,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7039,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7047,13 +7046,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D16,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7075,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7083,13 +7082,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D17,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7111,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7119,13 +7118,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D18,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7147,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7155,13 +7154,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D19,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7183,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -7191,13 +7190,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D20,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7219,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -7227,13 +7226,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D21,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7255,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -7263,13 +7262,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D22,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7291,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7299,13 +7298,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D23,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7327,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7335,13 +7334,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D24,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7363,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -7371,13 +7370,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D25,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7399,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -7407,13 +7406,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D26,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7435,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>134</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -7443,13 +7442,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D27,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7471,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5">
@@ -7479,13 +7478,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D28,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7507,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>136</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -7515,13 +7514,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E29" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D29,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7543,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -7551,13 +7550,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E30" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D30,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7579,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7587,13 +7586,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E31" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D31,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7615,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7642,7 +7641,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7723,7 +7722,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -7755,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
@@ -7776,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7784,7 +7783,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
@@ -7805,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7813,7 +7812,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>41</v>
@@ -7834,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -7848,8 +7847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8066,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>91</v>
@@ -8121,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8129,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
@@ -8184,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -8192,7 +8191,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
@@ -8247,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -8255,7 +8254,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>50</v>
@@ -8310,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -8318,7 +8317,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>55</v>
@@ -8373,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -8381,7 +8380,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>51</v>
@@ -8436,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8444,7 +8443,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>52</v>
@@ -8499,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8507,7 +8506,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>53</v>
@@ -8562,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5">
@@ -8570,7 +8569,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>56</v>
@@ -8625,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -8633,7 +8632,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>57</v>
@@ -8688,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -8696,7 +8695,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>77</v>
@@ -8751,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -8759,7 +8758,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>78</v>
@@ -8814,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -8822,7 +8821,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>79</v>
@@ -8877,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>152</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -8885,7 +8884,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>80</v>
@@ -8940,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -8948,7 +8947,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>81</v>
@@ -9003,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -9011,7 +9010,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>82</v>
@@ -9066,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -9074,7 +9073,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>83</v>
@@ -9129,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -9137,7 +9136,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>84</v>
@@ -9192,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -9200,7 +9199,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>87</v>
@@ -9255,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -9263,7 +9262,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>86</v>
@@ -9318,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -9326,7 +9325,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>88</v>
@@ -9381,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -9389,7 +9388,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>85</v>
@@ -9444,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -9452,7 +9451,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>89</v>
@@ -9507,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -9515,7 +9514,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>90</v>
@@ -9570,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B59F29-AE0E-4761-8A47-9B379AEAE643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9342B124-FF67-4788-A022-2AD172FD8D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="2220" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="304">
   <si>
     <t>type</t>
   </si>
@@ -3441,6 +3441,12 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0017</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gold</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gem_free</t>
   </si>
 </sst>
 </file>
@@ -6395,7 +6401,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6403,7 +6409,7 @@
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6477,7 +6483,9 @@
       <c r="D5" s="54">
         <v>9999999999</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="45" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="45">
@@ -6493,7 +6501,9 @@
       <c r="D6" s="54">
         <v>999999</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="45" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9342B124-FF67-4788-A022-2AD172FD8D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692329BE-C99A-4212-AB0D-1BE5670DD429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44460" yWindow="1845" windowWidth="17595" windowHeight="18900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -45,6 +45,231 @@
     <author>Rown</author>
   </authors>
   <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{B33431FC-C6D3-4E35-8E69-42CCDB4D8E9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경험치</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>물약일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>물약</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하는데</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I4" authorId="0" shapeId="0" xr:uid="{56E60884-D43F-4D95-94EF-5B782F66BE8A}">
       <text>
         <r>
@@ -6400,8 +6625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787604D-A7F1-41E4-82F7-4CC79E1BE613}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6527,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6679,7 +6904,8 @@
         <v>60</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <f>G5*10</f>
+        <v>600</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -6715,7 +6941,8 @@
         <v>300</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <f t="shared" ref="H6:H14" si="0">G6*10</f>
+        <v>3000</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -6751,7 +6978,8 @@
         <v>1500</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -6787,7 +7015,8 @@
         <v>7500</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>75000</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -6823,7 +7052,8 @@
         <v>37500</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>375000</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -6859,7 +7089,8 @@
         <v>60</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -6895,7 +7126,8 @@
         <v>300</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -6931,7 +7163,8 @@
         <v>1500</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -6967,7 +7200,8 @@
         <v>7500</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>75000</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -7003,7 +7237,8 @@
         <v>37500</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>375000</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -7219,7 +7454,8 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <f t="shared" ref="H20:H24" si="1">G20*10</f>
+        <v>100</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -7255,7 +7491,8 @@
         <v>50</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -7291,7 +7528,8 @@
         <v>100</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -7327,7 +7565,8 @@
         <v>200</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -7363,7 +7602,8 @@
         <v>400</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692329BE-C99A-4212-AB0D-1BE5670DD429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A58980-1BED-460A-9CBB-A185CEC1FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44460" yWindow="1845" windowWidth="17595" windowHeight="18900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="930" windowWidth="27975" windowHeight="19770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="305">
   <si>
     <t>type</t>
   </si>
@@ -2711,10 +2711,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM:GOODS_TYPE:NONE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>goods_type</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3672,6 +3668,14 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/UI/Goods/Icon_gem_free</t>
+  </si>
+  <si>
+    <t>key_1:ENUM:GOODS_TYPE:NONE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4226,7 +4230,6 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
-      <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
@@ -4237,6 +4240,7 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4260,8 +4264,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22">
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE_V2</v>
@@ -4455,7 +4458,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23">
+      <sheetData sheetId="22">
         <row r="1">
           <cell r="A1" t="str">
             <v>GOODS_TYPE</v>
@@ -4495,7 +4498,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="24">
+      <sheetData sheetId="23">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -4541,7 +4544,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="25">
+      <sheetData sheetId="24">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -4609,6 +4612,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
@@ -4853,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="46" t="str">
         <f>'[1]@goods_type'!$A$1</f>
@@ -5118,7 +5122,7 @@
         <v>21</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15">
@@ -5392,14 +5396,14 @@
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="M22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="12.75">
       <c r="M23" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -5417,266 +5421,266 @@
     </row>
     <row r="25" spans="1:15" ht="13.5">
       <c r="M25" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N25" s="31">
         <v>0</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.5">
       <c r="M26" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N26" s="31">
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.5">
       <c r="M27" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N27" s="31">
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="13.5">
       <c r="M28" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N28" s="31">
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5">
       <c r="M29" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N29" s="31">
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5">
       <c r="M30" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N30" s="31">
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5">
       <c r="M31" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N31" s="31">
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="13.5">
       <c r="M32" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N32" s="33">
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="13.5">
       <c r="M33" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N33" s="33">
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="13.5">
       <c r="M34" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="13.5">
       <c r="M35" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="13.5">
       <c r="M36" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N36" s="31">
         <v>101</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="13.5">
       <c r="M37" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N37" s="31">
         <v>102</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="13.5">
       <c r="M38" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N38" s="31">
         <v>103</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="13.5">
       <c r="M39" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N39" s="31">
         <v>104</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="13.5">
       <c r="M40" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N40" s="31">
         <v>105</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="13.5">
       <c r="M41" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N41" s="31">
         <v>106</v>
       </c>
       <c r="O41" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="13:15" ht="13.5">
       <c r="M42" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N42" s="31">
         <v>107</v>
       </c>
       <c r="O42" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="13:15" ht="13.5">
       <c r="M43" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N43" s="31">
         <v>108</v>
       </c>
       <c r="O43" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="13:15" ht="13.5">
       <c r="M44" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N44" s="31">
         <v>109</v>
       </c>
       <c r="O44" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="13:15" ht="13.5">
       <c r="M45" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N45" s="31">
         <v>110</v>
       </c>
       <c r="O45" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="13:15" ht="13.5">
       <c r="M46" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N46" s="31">
         <v>111</v>
       </c>
       <c r="O46" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="13:15" ht="13.5">
       <c r="M47" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N47" s="31">
         <v>112</v>
       </c>
       <c r="O47" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="13:15" ht="13.5">
       <c r="M48" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N48" s="31">
         <v>113</v>
       </c>
       <c r="O48" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" ht="12.75"/>
@@ -6626,7 +6630,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6639,39 +6643,39 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="13.5">
       <c r="A2" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>251</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="52" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>4</v>
@@ -6679,19 +6683,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>97</v>
-      </c>
       <c r="C4" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6700,16 +6704,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" s="54">
         <v>9999999999</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6718,16 +6722,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>257</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>258</v>
       </c>
       <c r="D6" s="54">
         <v>999999</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6752,8 +6756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6783,13 +6787,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>12</v>
@@ -6801,30 +6805,30 @@
         <v>13</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1">
       <c r="A3" s="42" t="s">
-        <v>3</v>
+        <v>304</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>245</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>246</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>3</v>
@@ -6839,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>4</v>
@@ -6850,16 +6854,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="D4" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>248</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
@@ -6877,7 +6881,7 @@
         <v>42</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5">
@@ -6885,13 +6889,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D5,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6914,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6922,13 +6926,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D6,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6951,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6959,13 +6963,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D7,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6988,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6996,13 +7000,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D8,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7025,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7033,13 +7037,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D9,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7062,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7070,13 +7074,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D10,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7099,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7107,13 +7111,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D11,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7136,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7144,13 +7148,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D12,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7173,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7181,13 +7185,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D13,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7210,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7218,13 +7222,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D14,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7247,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7255,13 +7259,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D15,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7283,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7291,13 +7295,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D16,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7319,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7327,13 +7331,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D17,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7355,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7363,13 +7367,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D18,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7391,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7399,13 +7403,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D19,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7427,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -7435,13 +7439,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D20,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7464,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -7472,13 +7476,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D21,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7501,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -7509,13 +7513,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D22,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7538,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7546,13 +7550,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D23,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7575,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7583,13 +7587,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D24,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7612,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -7620,13 +7624,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D25,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7648,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -7656,13 +7660,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D26,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7684,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -7692,13 +7696,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D27,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7720,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5">
@@ -7728,13 +7732,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D28,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7756,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -7764,13 +7768,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D29,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7792,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -7800,13 +7804,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D30,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7828,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7836,13 +7840,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D31,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7864,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7891,7 +7895,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7920,7 +7924,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>34</v>
@@ -7932,24 +7936,24 @@
         <v>35</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+      <c r="A3" s="42" t="s">
+        <v>304</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -7972,13 +7976,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>36</v>
@@ -7996,7 +8000,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8004,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
@@ -8025,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8033,7 +8037,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
@@ -8054,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8062,7 +8066,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>41</v>
@@ -8083,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -8097,8 +8101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:T28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8132,7 +8136,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -8177,30 +8181,30 @@
         <v>68</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+      <c r="A3" s="42" t="s">
+        <v>304</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -8242,7 +8246,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>4</v>
@@ -8256,10 +8260,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>76</v>
@@ -8271,16 +8275,16 @@
         <v>70</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>71</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>72</v>
@@ -8298,7 +8302,7 @@
         <v>75</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>17</v>
@@ -8307,7 +8311,7 @@
         <v>42</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5">
@@ -8315,13 +8319,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D5,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8370,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8378,13 +8382,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D6,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8433,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -8441,13 +8445,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D7,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8496,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -8504,13 +8508,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D8,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8559,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -8567,13 +8571,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D9,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8622,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -8630,13 +8634,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D10,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8685,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8693,13 +8697,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D11,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8748,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8756,13 +8760,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D12,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8811,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5">
@@ -8819,13 +8823,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D13,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8874,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -8882,13 +8886,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D14,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -8937,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -8945,13 +8949,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D15,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9000,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -9008,13 +9012,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D16,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9063,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -9071,13 +9075,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D17,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9126,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -9134,13 +9138,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D18,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9189,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -9197,13 +9201,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D19,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9252,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -9260,13 +9264,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D20,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9315,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -9323,13 +9327,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D21,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9378,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -9386,13 +9390,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D22,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9441,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -9449,13 +9453,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D23,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9504,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -9512,13 +9516,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D24,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9567,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -9575,13 +9579,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D25,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9630,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -9638,13 +9642,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D26,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9693,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -9701,13 +9705,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D27,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9756,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -9764,13 +9768,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D28,'!참조_ENUM'!$O$13:$O$23,0))</f>
@@ -9819,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A58980-1BED-460A-9CBB-A185CEC1FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD341E87-7960-40E0-9FC6-EBB26CBE0694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="930" windowWidth="27975" windowHeight="19770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="310">
   <si>
     <t>type</t>
   </si>
@@ -2975,45 +2975,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>item_name_usingitem_0001</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0002</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0003</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0004</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0005</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0006</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0007</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0008</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0009</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0010</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0011</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0012</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0013</t>
-  </si>
-  <si>
     <t>item_name_itemPiece_0001</t>
   </si>
   <si>
@@ -3389,24 +3350,6 @@
     <t>8 정련석(장비 성장)</t>
   </si>
   <si>
-    <t>item_name_usingitem_0014</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0015</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0016</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0017</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0018</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0019</t>
-  </si>
-  <si>
     <t>item_name_etcitem_0020</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3675,6 +3618,90 @@
   </si>
   <si>
     <t>key_1:int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_love_item_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0004</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5396,14 +5423,14 @@
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="M22" s="25" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="12.75">
       <c r="M23" s="27" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -5421,266 +5448,266 @@
     </row>
     <row r="25" spans="1:15" ht="13.5">
       <c r="M25" s="30" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="N25" s="31">
         <v>0</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.5">
       <c r="M26" s="30" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="N26" s="31">
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.5">
       <c r="M27" s="30" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="N27" s="31">
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="13.5">
       <c r="M28" s="30" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="N28" s="31">
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5">
       <c r="M29" s="30" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="N29" s="31">
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5">
       <c r="M30" s="30" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="N30" s="31">
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5">
       <c r="M31" s="30" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="N31" s="31">
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="13.5">
       <c r="M32" s="32" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="N32" s="33">
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="13.5">
       <c r="M33" s="32" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="N33" s="33">
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="13.5">
       <c r="M34" s="30" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="13.5">
       <c r="M35" s="30" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="13.5">
       <c r="M36" s="30" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="N36" s="31">
         <v>101</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="13.5">
       <c r="M37" s="30" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N37" s="31">
         <v>102</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="13.5">
       <c r="M38" s="30" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N38" s="31">
         <v>103</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="13.5">
       <c r="M39" s="30" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="N39" s="31">
         <v>104</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="13.5">
       <c r="M40" s="30" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="N40" s="31">
         <v>105</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="13.5">
       <c r="M41" s="30" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N41" s="31">
         <v>106</v>
       </c>
       <c r="O41" s="30" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="13:15" ht="13.5">
       <c r="M42" s="30" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N42" s="31">
         <v>107</v>
       </c>
       <c r="O42" s="30" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="13:15" ht="13.5">
       <c r="M43" s="30" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="N43" s="31">
         <v>108</v>
       </c>
       <c r="O43" s="30" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="13:15" ht="13.5">
       <c r="M44" s="30" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="N44" s="31">
         <v>109</v>
       </c>
       <c r="O44" s="30" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="13:15" ht="13.5">
       <c r="M45" s="30" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="N45" s="31">
         <v>110</v>
       </c>
       <c r="O45" s="30" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="13:15" ht="13.5">
       <c r="M46" s="30" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N46" s="31">
         <v>111</v>
       </c>
       <c r="O46" s="30" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="13:15" ht="13.5">
       <c r="M47" s="30" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="N47" s="31">
         <v>112</v>
       </c>
       <c r="O47" s="30" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="13:15" ht="13.5">
       <c r="M48" s="30" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N48" s="31">
         <v>113</v>
       </c>
       <c r="O48" s="30" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" ht="12.75"/>
@@ -6643,22 +6670,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="13.5">
       <c r="A2" s="47" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>102</v>
@@ -6666,7 +6693,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="52" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>98</v>
@@ -6675,7 +6702,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>4</v>
@@ -6692,7 +6719,7 @@
         <v>99</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>103</v>
@@ -6704,16 +6731,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D5" s="54">
         <v>9999999999</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6722,16 +6749,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D6" s="54">
         <v>999999</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6756,13 +6783,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
@@ -6790,10 +6817,10 @@
         <v>97</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>12</v>
@@ -6816,7 +6843,7 @@
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1">
       <c r="A3" s="42" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>4</v>
@@ -6825,10 +6852,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>3</v>
@@ -6860,10 +6887,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
@@ -6889,13 +6916,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D5,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6918,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6926,13 +6953,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D6,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6955,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6963,13 +6990,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D7,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -6992,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7000,13 +7027,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D8,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7029,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7037,13 +7064,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E9" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D9,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7066,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7074,13 +7101,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D10,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7103,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7111,13 +7138,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D11,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7140,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7148,13 +7175,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D12,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7177,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7185,13 +7212,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D13,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7214,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7222,13 +7249,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D14,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7251,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7259,13 +7286,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D15,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7287,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7295,13 +7322,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D16,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7323,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7331,13 +7358,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D17,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7359,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7367,13 +7394,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D18,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7395,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7403,13 +7430,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D19,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7431,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -7439,13 +7466,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D20,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7468,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -7476,13 +7503,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D21,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7505,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -7513,13 +7540,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D22,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7542,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7550,13 +7577,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D23,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7579,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7587,13 +7614,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D24,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7616,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -7624,13 +7651,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D25,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7652,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -7660,13 +7687,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D26,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7688,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -7696,13 +7723,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D27,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7724,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5">
@@ -7732,13 +7759,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D28,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7760,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -7768,13 +7795,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E29" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D29,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7796,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -7804,13 +7831,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E30" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D30,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7832,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7840,13 +7867,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E31" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D31,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7868,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7947,7 +7974,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="42" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -7976,7 +8003,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -8008,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
@@ -8029,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8037,7 +8064,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
@@ -8058,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8066,7 +8093,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>41</v>
@@ -8087,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -8101,7 +8128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -8192,7 +8219,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="42" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -8319,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>91</v>
@@ -8374,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8382,7 +8409,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
@@ -8437,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -8445,7 +8472,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
@@ -8500,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -8508,7 +8535,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>50</v>
@@ -8563,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -8571,7 +8598,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>55</v>
@@ -8626,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -8634,7 +8661,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>51</v>
@@ -8689,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8697,7 +8724,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>52</v>
@@ -8752,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8760,7 +8787,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>53</v>
@@ -8815,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5">
@@ -8823,7 +8850,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>56</v>
@@ -8878,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -8886,7 +8913,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>57</v>
@@ -8941,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -8949,7 +8976,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>77</v>
@@ -9004,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -9012,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>78</v>
@@ -9067,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -9075,7 +9102,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>79</v>
@@ -9130,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -9138,7 +9165,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>80</v>
@@ -9193,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -9201,7 +9228,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>81</v>
@@ -9256,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -9264,7 +9291,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>82</v>
@@ -9319,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -9327,7 +9354,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>83</v>
@@ -9382,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -9390,7 +9417,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>84</v>
@@ -9445,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -9453,7 +9480,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>87</v>
@@ -9508,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -9516,7 +9543,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>86</v>
@@ -9571,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -9579,7 +9606,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>88</v>
@@ -9634,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -9642,7 +9669,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>85</v>
@@ -9697,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -9705,7 +9732,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>89</v>
@@ -9760,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -9768,7 +9795,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>90</v>
@@ -9823,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD341E87-7960-40E0-9FC6-EBB26CBE0694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B662C8B-CD55-42D7-9AC7-91FA7C9F28A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="316">
   <si>
     <t>type</t>
   </si>
@@ -3703,6 +3703,29 @@
   <si>
     <t>item_name_love_item_0004</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_03</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_04</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_05</t>
   </si>
 </sst>
 </file>
@@ -4253,6 +4276,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -4268,6 +4292,11 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4275,23 +4304,78 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE_V2</v>
@@ -4485,7 +4569,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22">
+      <sheetData sheetId="23">
         <row r="1">
           <cell r="A1" t="str">
             <v>GOODS_TYPE</v>
@@ -4522,52 +4606,6 @@
           </cell>
           <cell r="C6" t="str">
             <v>2 다이아 (게임내 유료 재화)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>ITEM</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 아이템</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>EQUIPMENT</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 장비</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>CHARACTER</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3  캐릭터</v>
           </cell>
         </row>
       </sheetData>
@@ -4585,6 +4623,52 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>ITEM</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 아이템</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>EQUIPMENT</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 장비</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3  캐릭터</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
             <v>WEAPON</v>
           </cell>
           <cell r="B5">
@@ -4639,12 +4723,29 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6784,7 +6885,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6945,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7495,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -7532,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -7569,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7606,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7643,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -7904,7 +8005,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCA9A478-2411-4818-9ECA-A68C95D21994}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$20</xm:f>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B662C8B-CD55-42D7-9AC7-91FA7C9F28A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61A652-0857-4C50-9AC3-C6FE98199E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44175" yWindow="1635" windowWidth="34695" windowHeight="18915" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -4304,76 +4304,22 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22">
         <row r="1">
@@ -4727,21 +4673,9 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -6885,7 +6819,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7033,11 +6967,11 @@
         <v>9999</v>
       </c>
       <c r="G5" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
         <f>G5*10</f>
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -7070,11 +7004,11 @@
         <v>9999</v>
       </c>
       <c r="G6" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6:H14" si="0">G6*10</f>
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -7107,11 +7041,11 @@
         <v>9999</v>
       </c>
       <c r="G7" s="1">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -7144,11 +7078,11 @@
         <v>9999</v>
       </c>
       <c r="G8" s="1">
-        <v>7500</v>
+        <v>150</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>1500</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -7181,11 +7115,11 @@
         <v>9999</v>
       </c>
       <c r="G9" s="1">
-        <v>37500</v>
+        <v>300</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>375000</v>
+        <v>3000</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -7218,11 +7152,11 @@
         <v>9999</v>
       </c>
       <c r="G10" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -7255,11 +7189,11 @@
         <v>9999</v>
       </c>
       <c r="G11" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -7292,11 +7226,11 @@
         <v>9999</v>
       </c>
       <c r="G12" s="1">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -7329,11 +7263,11 @@
         <v>9999</v>
       </c>
       <c r="G13" s="1">
-        <v>7500</v>
+        <v>150</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>1500</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -7366,11 +7300,11 @@
         <v>9999</v>
       </c>
       <c r="G14" s="1">
-        <v>37500</v>
+        <v>300</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>375000</v>
+        <v>3000</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -7620,11 +7554,11 @@
         <v>9999</v>
       </c>
       <c r="G21" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -7657,11 +7591,11 @@
         <v>9999</v>
       </c>
       <c r="G22" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -7694,11 +7628,11 @@
         <v>9999</v>
       </c>
       <c r="G23" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -7731,11 +7665,11 @@
         <v>9999</v>
       </c>
       <c r="G24" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61A652-0857-4C50-9AC3-C6FE98199E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B8D28F-7A0A-4109-9F42-5445E21D14E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44175" yWindow="1635" windowWidth="34695" windowHeight="18915" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="675" windowWidth="35055" windowHeight="18915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="300">
   <si>
     <t>type</t>
   </si>
@@ -3073,167 +3073,31 @@
     <t>GOLD</t>
   </si>
   <si>
-    <t>1 금화(게임내 사용되는 재화)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>DIA</t>
   </si>
   <si>
-    <t>2 보석(게임내 사용되는 유료 재화)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>STAMINA</t>
   </si>
   <si>
-    <t>3 스태미나</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>FAVORITE</t>
   </si>
   <si>
-    <t>4 호감도</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>EXP_PLAYER</t>
   </si>
   <si>
-    <t>5 플레이어 경험치</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>EXP_CHARACTER</t>
   </si>
   <si>
-    <t>6 캐릭터 경험치</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>CHARACTER</t>
   </si>
   <si>
-    <t>7 캐릭터</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>EQUIPMENT</t>
   </si>
   <si>
-    <t>6 장비</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEND_ESSENCE</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>근원 전달 횟수(플레이어 보유)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET_ESSENCE</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_P</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 플레이어 경험치 물약</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_C</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>102 캐릭터 경험치 물약</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA_POTION</t>
-  </si>
-  <si>
-    <t>103 스테미나 회복 물약</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAVORITE_ITEM</t>
-  </si>
-  <si>
-    <t>104 호감도 아이템</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_SKIP</t>
-  </si>
-  <si>
-    <t>105 스테이지 스킵 티켓</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>TICKET_DUNGEON</t>
-  </si>
-  <si>
-    <t>106 던전 입장 티켓</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ_GROWUP</t>
-  </si>
-  <si>
-    <t>107 정련석(장비 성장)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>TICKET_REWARD_SELECT</t>
-  </si>
-  <si>
-    <t>109 보상 선택 티켓(1개를 선택 획득)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>TICKET_REWARD_RANDOM</t>
-  </si>
-  <si>
-    <t>100 보상 랜덤 티켓(1개를 확률 획득)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>TICKET_REWARD_ALL</t>
-  </si>
-  <si>
-    <t>110 보상 패키지 티켓(모든 보상 획득)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>PIECE_EQUIPMENT</t>
   </si>
   <si>
-    <t>111 장비 조각</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>PIECE_CHARACTER</t>
-  </si>
-  <si>
-    <t>112 캐릭터 조각</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_SKILL</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>113 스킬 경험치 아이템</t>
-    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>경험치 물약_P(중)</t>
@@ -3726,6 +3590,66 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_05</t>
+  </si>
+  <si>
+    <t>1 금화(게임내 사용되는 재화)</t>
+  </si>
+  <si>
+    <t>2 보석(게임내 사용되는 유료 재화)</t>
+  </si>
+  <si>
+    <t>3 스태미나</t>
+  </si>
+  <si>
+    <t>4 호감도</t>
+  </si>
+  <si>
+    <t>5 플레이어 경험치</t>
+  </si>
+  <si>
+    <t>6 캐릭터 경험치</t>
+  </si>
+  <si>
+    <t>7 캐릭터</t>
+  </si>
+  <si>
+    <t>8 장비</t>
+  </si>
+  <si>
+    <t>SEND_ESSENCE</t>
+  </si>
+  <si>
+    <t>9 근원 전달 횟수(플레이어 보유)</t>
+  </si>
+  <si>
+    <t>GET_ESSENCE</t>
+  </si>
+  <si>
+    <t>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
+  </si>
+  <si>
+    <t>BOSS_DUNGEON_TICKET</t>
+  </si>
+  <si>
+    <t>106 보스전 입장 횟수</t>
+  </si>
+  <si>
+    <t>111 장비 조각</t>
+  </si>
+  <si>
+    <t>112 캐릭터 조각</t>
+  </si>
+  <si>
+    <t>PIECE_ITEM</t>
+  </si>
+  <si>
+    <t>113 아이템 조각</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>1000 아이템</t>
   </si>
 </sst>
 </file>
@@ -4299,28 +4223,112 @@
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22">
         <row r="1">
           <cell r="A1" t="str">
@@ -4669,13 +4677,37 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="26">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DROP_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -4889,8 +4921,8 @@
   </sheetPr>
   <dimension ref="A1:S984"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5500,250 +5532,202 @@
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>154</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.5">
       <c r="M27" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N27" s="31">
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="13.5">
       <c r="M28" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N28" s="31">
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.5">
       <c r="M29" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N29" s="31">
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5">
       <c r="M30" s="30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N30" s="31">
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5">
       <c r="M31" s="30" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N31" s="31">
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="13.5">
       <c r="M32" s="32" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N32" s="33">
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="13.5">
       <c r="M33" s="32" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N33" s="33">
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="13.5">
       <c r="M34" s="30" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="13.5">
       <c r="M35" s="30" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="13.5">
       <c r="M36" s="30" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="N36" s="31">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="13.5">
       <c r="M37" s="30" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N37" s="31">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="13.5">
       <c r="M38" s="30" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="N38" s="31">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="13.5">
       <c r="M39" s="30" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="N39" s="31">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="13.5">
       <c r="M40" s="30" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="N40" s="31">
-        <v>105</v>
+        <v>1000</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="13.5">
-      <c r="M41" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="N41" s="31">
-        <v>106</v>
-      </c>
-      <c r="O41" s="30" t="s">
-        <v>184</v>
-      </c>
+      <c r="M41" s="30"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="13:15" ht="13.5">
-      <c r="M42" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="N42" s="31">
-        <v>107</v>
-      </c>
-      <c r="O42" s="30" t="s">
-        <v>186</v>
-      </c>
+      <c r="M42" s="30"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="30"/>
     </row>
     <row r="43" spans="13:15" ht="13.5">
-      <c r="M43" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="N43" s="31">
-        <v>108</v>
-      </c>
-      <c r="O43" s="30" t="s">
-        <v>188</v>
-      </c>
+      <c r="M43" s="30"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="30"/>
     </row>
     <row r="44" spans="13:15" ht="13.5">
-      <c r="M44" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="N44" s="31">
-        <v>109</v>
-      </c>
-      <c r="O44" s="30" t="s">
-        <v>190</v>
-      </c>
+      <c r="M44" s="30"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="30"/>
     </row>
     <row r="45" spans="13:15" ht="13.5">
-      <c r="M45" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="N45" s="31">
-        <v>110</v>
-      </c>
-      <c r="O45" s="30" t="s">
-        <v>192</v>
-      </c>
+      <c r="M45" s="30"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="30"/>
     </row>
     <row r="46" spans="13:15" ht="13.5">
-      <c r="M46" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="N46" s="31">
-        <v>111</v>
-      </c>
-      <c r="O46" s="30" t="s">
-        <v>194</v>
-      </c>
+      <c r="M46" s="30"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="30"/>
     </row>
     <row r="47" spans="13:15" ht="13.5">
-      <c r="M47" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="N47" s="31">
-        <v>112</v>
-      </c>
-      <c r="O47" s="30" t="s">
-        <v>196</v>
-      </c>
+      <c r="M47" s="30"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="30"/>
     </row>
     <row r="48" spans="13:15" ht="13.5">
-      <c r="M48" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="N48" s="31">
-        <v>113</v>
-      </c>
-      <c r="O48" s="30" t="s">
-        <v>198</v>
-      </c>
+      <c r="M48" s="30"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="30"/>
     </row>
     <row r="49" ht="12.75"/>
     <row r="50" ht="12.75"/>
@@ -6705,22 +6689,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="13.5">
       <c r="A2" s="47" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>102</v>
@@ -6728,7 +6712,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="52" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>98</v>
@@ -6737,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>4</v>
@@ -6754,7 +6738,7 @@
         <v>99</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>103</v>
@@ -6766,16 +6750,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="D5" s="54">
         <v>9999999999</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6784,16 +6768,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D6" s="54">
         <v>999999</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6818,7 +6802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -6852,10 +6836,10 @@
         <v>97</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>12</v>
@@ -6878,7 +6862,7 @@
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1">
       <c r="A3" s="42" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>4</v>
@@ -6887,10 +6871,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>3</v>
@@ -6922,10 +6906,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
@@ -6951,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>149</v>
@@ -6980,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6988,10 +6972,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>149</v>
@@ -7017,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7025,10 +7009,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>149</v>
@@ -7054,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7062,10 +7046,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>149</v>
@@ -7091,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7099,10 +7083,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>149</v>
@@ -7128,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7136,13 +7120,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E10" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D10,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7165,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7173,13 +7157,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D11,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7202,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7210,13 +7194,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D12,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7239,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7247,13 +7231,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D13,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7276,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7284,13 +7268,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D14,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7313,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7321,13 +7305,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E15" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D15,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7349,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7357,13 +7341,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E16" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D16,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7385,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7393,13 +7377,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E17" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D17,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7421,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7429,13 +7413,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D18,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7457,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7465,13 +7449,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E19" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D19,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7493,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -7501,13 +7485,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E20" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D20,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7530,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -7538,13 +7522,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E21" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D21,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7567,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -7575,13 +7559,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E22" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D22,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7604,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7612,13 +7596,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E23" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D23,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7641,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7649,13 +7633,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E24" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D24,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7678,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -7686,13 +7670,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E25" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D25,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7714,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -7722,13 +7706,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E26" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D26,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7750,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -7758,13 +7742,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E27" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D27,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7786,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5">
@@ -7794,13 +7778,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="E28" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D28,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7822,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -7830,13 +7814,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="E29" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D29,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7858,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -7866,13 +7850,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="E30" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D30,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7894,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7902,13 +7886,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="E31" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D31,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7930,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -8009,7 +7993,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="42" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -8038,7 +8022,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -8091,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8120,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8149,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8254,7 +8238,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="42" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -8436,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8499,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -8562,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -8625,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -8688,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -8751,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8814,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8877,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5">
@@ -8940,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -9003,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -9066,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -9129,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -9192,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -9255,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -9318,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -9381,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -9444,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -9507,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -9570,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -9633,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -9696,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -9759,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -9822,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -9885,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B8D28F-7A0A-4109-9F42-5445E21D14E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3252FA06-7B50-4AFA-83DE-607585C86BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="675" windowWidth="35055" windowHeight="18915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25788" yWindow="612" windowWidth="24828" windowHeight="16368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{56E60884-D43F-4D95-94EF-5B782F66BE8A}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{56E60884-D43F-4D95-94EF-5B782F66BE8A}">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{FCE33123-1A10-4E42-8154-A822543097F5}">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{FCE33123-1A10-4E42-8154-A822543097F5}">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="358">
   <si>
     <t>type</t>
   </si>
@@ -3313,10 +3313,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>금화</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>최대값</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3335,10 +3331,6 @@
     <t>2 다이아 (게임내 유료 재화)</t>
   </si>
   <si>
-    <t>다이아</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>item_piece_id</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3650,6 +3642,208 @@
   </si>
   <si>
     <t>1000 아이템</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> string ID</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#desc_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_goods_gold</t>
+  </si>
+  <si>
+    <t>system_goods_gem</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0001</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0002</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0003</t>
+  </si>
+  <si>
+    <t>item_desc_stage_skip_ticket_0001</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0001</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0002</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0003</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(소)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(중)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(특대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(극대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(소)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(중)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(특대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(극대)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(소)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(중)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(대)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(특대)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(극대)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(소)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(중)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(대)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(특대)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(극대)이다.</t>
+  </si>
+  <si>
+    <t>츄러스이다.</t>
+  </si>
+  <si>
+    <t>와플이다.</t>
+  </si>
+  <si>
+    <t>베리 케이크이다.</t>
+  </si>
+  <si>
+    <t>시나리오 스킵 티켓이다.</t>
+  </si>
+  <si>
+    <t>하급 정령석이다.</t>
+  </si>
+  <si>
+    <t>중급 정련석이다.</t>
+  </si>
+  <si>
+    <t>상급 정련석이다.</t>
   </si>
 </sst>
 </file>
@@ -3897,7 +4091,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3949,6 +4143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4036,7 +4236,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4158,6 +4358,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4221,6 +4428,7 @@
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
+      <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -4282,8 +4490,20 @@
         </row>
       </sheetData>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
@@ -4700,7 +4920,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
@@ -4712,6 +4938,7 @@
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4921,23 +5148,23 @@
   </sheetPr>
   <dimension ref="A1:S984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75">
+    <row r="1" spans="1:19" ht="13.2">
       <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4958,7 +5185,7 @@
         <v>GOODS_TYPE</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15">
+    <row r="3" spans="1:19" ht="13.8">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -4993,7 +5220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.5">
+    <row r="4" spans="1:19" ht="15.6">
       <c r="A4" s="14" t="str">
         <f>'[1]@item_type_v2'!$A4</f>
         <v>NONE</v>
@@ -5031,7 +5258,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.5">
+    <row r="5" spans="1:19" ht="15.6">
       <c r="A5" s="14" t="str">
         <f>'[1]@item_type_v2'!$A5</f>
         <v>EXP_POTION_P</v>
@@ -5072,7 +5299,7 @@
         <v>1 골드 (게임내 재화)</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.5">
+    <row r="6" spans="1:19" ht="15.6">
       <c r="A6" s="14" t="str">
         <f>'[1]@item_type_v2'!$A6</f>
         <v>EXP_POTION_C</v>
@@ -5113,7 +5340,7 @@
         <v>2 다이아 (게임내 유료 재화)</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.5">
+    <row r="7" spans="1:19" ht="15.6">
       <c r="A7" s="14" t="str">
         <f>'[1]@item_type_v2'!$A7</f>
         <v>STA_POTION</v>
@@ -5142,7 +5369,7 @@
         <v>3  캐릭터</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.5">
+    <row r="8" spans="1:19" ht="15.6">
       <c r="A8" s="14" t="str">
         <f>'[1]@item_type_v2'!$A8</f>
         <v>FAVORITE_ITEM</v>
@@ -5160,7 +5387,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="13.5">
+    <row r="9" spans="1:19" ht="15.6">
       <c r="A9" s="14" t="str">
         <f>'[1]@item_type_v2'!$A9</f>
         <v>EXP_SKILL</v>
@@ -5178,7 +5405,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="13.5">
+    <row r="10" spans="1:19" ht="15.6">
       <c r="A10" s="14" t="str">
         <f>'[1]@item_type_v2'!$A10</f>
         <v>STAGE_SKIP</v>
@@ -5196,7 +5423,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" ht="15.6">
       <c r="A11" s="14" t="str">
         <f>'[1]@item_type_v2'!$A11</f>
         <v>TICKET_DUNGEON</v>
@@ -5219,7 +5446,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" ht="15.6">
       <c r="A12" s="14" t="str">
         <f>'[1]@item_type_v2'!$A12</f>
         <v>EQ_GROWUP</v>
@@ -5248,7 +5475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.5">
+    <row r="13" spans="1:19" ht="15.6">
       <c r="A13" s="14" t="str">
         <f>'[1]@item_type_v2'!$A13</f>
         <v>TICKET_REWARD_SELECT</v>
@@ -5280,7 +5507,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.5">
+    <row r="14" spans="1:19" ht="15.6">
       <c r="A14" s="14" t="str">
         <f>'[1]@item_type_v2'!$A14</f>
         <v>TICKET_REWARD_RANDOM</v>
@@ -5312,7 +5539,7 @@
         <v>1 무기</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.5">
+    <row r="15" spans="1:19" ht="15.6">
       <c r="A15" s="14" t="str">
         <f>'[1]@item_type_v2'!$A15</f>
         <v>TICKET_REWARD_ALL</v>
@@ -5344,7 +5571,7 @@
         <v>2 방어구</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.5">
+    <row r="16" spans="1:19" ht="15.6">
       <c r="A16" s="14" t="str">
         <f>'[1]@item_type_v2'!$A16</f>
         <v>EQUIPMENT</v>
@@ -5376,7 +5603,7 @@
         <v>3 신발</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.5">
+    <row r="17" spans="1:15" ht="15.6">
       <c r="A17" s="14" t="str">
         <f>'[1]@item_type_v2'!$A17</f>
         <v>CHARACTER</v>
@@ -5408,7 +5635,7 @@
         <v>4 반지</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13.5">
+    <row r="18" spans="1:15" ht="15.6">
       <c r="A18" s="14" t="str">
         <f>'[1]@item_type_v2'!$A18</f>
         <v>PIECE_EQUIPMENT</v>
@@ -5440,7 +5667,7 @@
         <v>5 목걸이</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.5">
+    <row r="19" spans="1:15" ht="15.6">
       <c r="A19" s="14" t="str">
         <f>'[1]@item_type_v2'!$A19</f>
         <v>PIECE_CHARACTER</v>
@@ -5460,7 +5687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.5">
+    <row r="20" spans="1:15" ht="15.6">
       <c r="A20" s="14" t="str">
         <f>'[1]@item_type_v2'!$A20</f>
         <v>PIECE_ITEM</v>
@@ -5480,7 +5707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.5">
+    <row r="21" spans="1:15" ht="15.6">
       <c r="D21" s="2" t="b">
         <v>1</v>
       </c>
@@ -5488,21 +5715,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.25">
+    <row r="22" spans="1:15" ht="13.8">
       <c r="M22" s="25" t="s">
         <v>150</v>
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="23" spans="1:15" ht="12.75">
+    <row r="23" spans="1:15" ht="13.2">
       <c r="M23" s="27" t="s">
         <v>151</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="1:15" ht="15">
+    <row r="24" spans="1:15" ht="13.8">
       <c r="M24" s="28" t="s">
         <v>0</v>
       </c>
@@ -5513,7 +5740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.5">
+    <row r="25" spans="1:15" ht="15.6">
       <c r="M25" s="30" t="s">
         <v>152</v>
       </c>
@@ -5524,7 +5751,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.5">
+    <row r="26" spans="1:15" ht="15.6">
       <c r="M26" s="30" t="s">
         <v>153</v>
       </c>
@@ -5532,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="13.5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.6">
       <c r="M27" s="30" t="s">
         <v>154</v>
       </c>
@@ -5543,10 +5770,10 @@
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="13.5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.6">
       <c r="M28" s="30" t="s">
         <v>155</v>
       </c>
@@ -5554,10 +5781,10 @@
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="13.5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.6">
       <c r="M29" s="30" t="s">
         <v>156</v>
       </c>
@@ -5565,10 +5792,10 @@
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="13.5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.6">
       <c r="M30" s="30" t="s">
         <v>157</v>
       </c>
@@ -5576,10 +5803,10 @@
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="13.5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.6">
       <c r="M31" s="30" t="s">
         <v>158</v>
       </c>
@@ -5587,10 +5814,10 @@
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="13.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.6">
       <c r="M32" s="32" t="s">
         <v>159</v>
       </c>
@@ -5598,10 +5825,10 @@
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="13:15" ht="13.5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" ht="15.6">
       <c r="M33" s="32" t="s">
         <v>160</v>
       </c>
@@ -5609,43 +5836,43 @@
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="34" spans="13:15" ht="13.5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15" ht="15.6">
       <c r="M34" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="13:15" ht="13.5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15" ht="15.6">
       <c r="M35" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="13:15" ht="13.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="13:15" ht="15.6">
       <c r="M36" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N36" s="31">
         <v>106</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="13:15" ht="13.5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="13:15" ht="15.6">
       <c r="M37" s="30" t="s">
         <v>161</v>
       </c>
@@ -5653,10 +5880,10 @@
         <v>111</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="13:15" ht="13.5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" ht="15.6">
       <c r="M38" s="30" t="s">
         <v>162</v>
       </c>
@@ -5664,1007 +5891,1007 @@
         <v>112</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="13:15" ht="13.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15" ht="15.6">
       <c r="M39" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N39" s="31">
         <v>113</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="13:15" ht="13.5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="13:15" ht="15.6">
       <c r="M40" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N40" s="31">
         <v>1000</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="13:15" ht="13.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="13:15" ht="15.6">
       <c r="M41" s="30"/>
       <c r="N41" s="31"/>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="13:15" ht="13.5">
+    <row r="42" spans="13:15" ht="15.6">
       <c r="M42" s="30"/>
       <c r="N42" s="31"/>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="13:15" ht="13.5">
+    <row r="43" spans="13:15" ht="15.6">
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="13:15" ht="13.5">
+    <row r="44" spans="13:15" ht="15.6">
       <c r="M44" s="30"/>
       <c r="N44" s="31"/>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="13:15" ht="13.5">
+    <row r="45" spans="13:15" ht="15.6">
       <c r="M45" s="30"/>
       <c r="N45" s="31"/>
       <c r="O45" s="30"/>
     </row>
-    <row r="46" spans="13:15" ht="13.5">
+    <row r="46" spans="13:15" ht="15.6">
       <c r="M46" s="30"/>
       <c r="N46" s="31"/>
       <c r="O46" s="30"/>
     </row>
-    <row r="47" spans="13:15" ht="13.5">
+    <row r="47" spans="13:15" ht="15.6">
       <c r="M47" s="30"/>
       <c r="N47" s="31"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="13:15" ht="13.5">
+    <row r="48" spans="13:15" ht="15.6">
       <c r="M48" s="30"/>
       <c r="N48" s="31"/>
       <c r="O48" s="30"/>
     </row>
-    <row r="49" ht="12.75"/>
-    <row r="50" ht="12.75"/>
-    <row r="51" ht="12.75"/>
-    <row r="52" ht="12.75"/>
-    <row r="53" ht="12.75"/>
-    <row r="54" ht="12.75"/>
-    <row r="55" ht="12.75"/>
-    <row r="56" ht="12.75"/>
-    <row r="57" ht="12.75"/>
-    <row r="58" ht="12.75"/>
-    <row r="59" ht="12.75"/>
-    <row r="60" ht="12.75"/>
-    <row r="61" ht="12.75"/>
-    <row r="62" ht="12.75"/>
-    <row r="63" ht="12.75"/>
-    <row r="64" ht="12.75"/>
-    <row r="65" ht="12.75"/>
-    <row r="66" ht="12.75"/>
-    <row r="67" ht="12.75"/>
-    <row r="68" ht="12.75"/>
-    <row r="69" ht="12.75"/>
-    <row r="70" ht="12.75"/>
-    <row r="71" ht="12.75"/>
-    <row r="72" ht="12.75"/>
-    <row r="73" ht="12.75"/>
-    <row r="74" ht="12.75"/>
-    <row r="75" ht="12.75"/>
-    <row r="76" ht="12.75"/>
-    <row r="77" ht="12.75"/>
-    <row r="78" ht="12.75"/>
-    <row r="79" ht="12.75"/>
-    <row r="80" ht="12.75"/>
-    <row r="81" ht="12.75"/>
-    <row r="82" ht="12.75"/>
-    <row r="83" ht="12.75"/>
-    <row r="84" ht="12.75"/>
-    <row r="85" ht="12.75"/>
-    <row r="86" ht="12.75"/>
-    <row r="87" ht="12.75"/>
-    <row r="88" ht="12.75"/>
-    <row r="89" ht="12.75"/>
-    <row r="90" ht="12.75"/>
-    <row r="91" ht="12.75"/>
-    <row r="92" ht="12.75"/>
-    <row r="93" ht="12.75"/>
-    <row r="94" ht="12.75"/>
-    <row r="95" ht="12.75"/>
-    <row r="96" ht="12.75"/>
-    <row r="97" ht="12.75"/>
-    <row r="98" ht="12.75"/>
-    <row r="99" ht="12.75"/>
-    <row r="100" ht="12.75"/>
-    <row r="101" ht="12.75"/>
-    <row r="102" ht="12.75"/>
-    <row r="103" ht="12.75"/>
-    <row r="104" ht="12.75"/>
-    <row r="105" ht="12.75"/>
-    <row r="106" ht="12.75"/>
-    <row r="107" ht="12.75"/>
-    <row r="108" ht="12.75"/>
-    <row r="109" ht="12.75"/>
-    <row r="110" ht="12.75"/>
-    <row r="111" ht="12.75"/>
-    <row r="112" ht="12.75"/>
-    <row r="113" ht="12.75"/>
-    <row r="114" ht="12.75"/>
-    <row r="115" ht="12.75"/>
-    <row r="116" ht="12.75"/>
-    <row r="117" ht="12.75"/>
-    <row r="118" ht="12.75"/>
-    <row r="119" ht="12.75"/>
-    <row r="120" ht="12.75"/>
-    <row r="121" ht="12.75"/>
-    <row r="122" ht="12.75"/>
-    <row r="123" ht="12.75"/>
-    <row r="124" ht="12.75"/>
-    <row r="125" ht="12.75"/>
-    <row r="126" ht="12.75"/>
-    <row r="127" ht="12.75"/>
-    <row r="128" ht="12.75"/>
-    <row r="129" ht="12.75"/>
-    <row r="130" ht="12.75"/>
-    <row r="131" ht="12.75"/>
-    <row r="132" ht="12.75"/>
-    <row r="133" ht="12.75"/>
-    <row r="134" ht="12.75"/>
-    <row r="135" ht="12.75"/>
-    <row r="136" ht="12.75"/>
-    <row r="137" ht="12.75"/>
-    <row r="138" ht="12.75"/>
-    <row r="139" ht="12.75"/>
-    <row r="140" ht="12.75"/>
-    <row r="141" ht="12.75"/>
-    <row r="142" ht="12.75"/>
-    <row r="143" ht="12.75"/>
-    <row r="144" ht="12.75"/>
-    <row r="145" ht="12.75"/>
-    <row r="146" ht="12.75"/>
-    <row r="147" ht="12.75"/>
-    <row r="148" ht="12.75"/>
-    <row r="149" ht="12.75"/>
-    <row r="150" ht="12.75"/>
-    <row r="151" ht="12.75"/>
-    <row r="152" ht="12.75"/>
-    <row r="153" ht="12.75"/>
-    <row r="154" ht="12.75"/>
-    <row r="155" ht="12.75"/>
-    <row r="156" ht="12.75"/>
-    <row r="157" ht="12.75"/>
-    <row r="158" ht="12.75"/>
-    <row r="159" ht="12.75"/>
-    <row r="160" ht="12.75"/>
-    <row r="161" ht="12.75"/>
-    <row r="162" ht="12.75"/>
-    <row r="163" ht="12.75"/>
-    <row r="164" ht="12.75"/>
-    <row r="165" ht="12.75"/>
-    <row r="166" ht="12.75"/>
-    <row r="167" ht="12.75"/>
-    <row r="168" ht="12.75"/>
-    <row r="169" ht="12.75"/>
-    <row r="170" ht="12.75"/>
-    <row r="171" ht="12.75"/>
-    <row r="172" ht="12.75"/>
-    <row r="173" ht="12.75"/>
-    <row r="174" ht="12.75"/>
-    <row r="175" ht="12.75"/>
-    <row r="176" ht="12.75"/>
-    <row r="177" ht="12.75"/>
-    <row r="178" ht="12.75"/>
-    <row r="179" ht="12.75"/>
-    <row r="180" ht="12.75"/>
-    <row r="181" ht="12.75"/>
-    <row r="182" ht="12.75"/>
-    <row r="183" ht="12.75"/>
-    <row r="184" ht="12.75"/>
-    <row r="185" ht="12.75"/>
-    <row r="186" ht="12.75"/>
-    <row r="187" ht="12.75"/>
-    <row r="188" ht="12.75"/>
-    <row r="189" ht="12.75"/>
-    <row r="190" ht="12.75"/>
-    <row r="191" ht="12.75"/>
-    <row r="192" ht="12.75"/>
-    <row r="193" ht="12.75"/>
-    <row r="194" ht="12.75"/>
-    <row r="195" ht="12.75"/>
-    <row r="196" ht="12.75"/>
-    <row r="197" ht="12.75"/>
-    <row r="198" ht="12.75"/>
-    <row r="199" ht="12.75"/>
-    <row r="200" ht="12.75"/>
-    <row r="201" ht="12.75"/>
-    <row r="202" ht="12.75"/>
-    <row r="203" ht="12.75"/>
-    <row r="204" ht="12.75"/>
-    <row r="205" ht="12.75"/>
-    <row r="206" ht="12.75"/>
-    <row r="207" ht="12.75"/>
-    <row r="208" ht="12.75"/>
-    <row r="209" ht="12.75"/>
-    <row r="210" ht="12.75"/>
-    <row r="211" ht="12.75"/>
-    <row r="212" ht="12.75"/>
-    <row r="213" ht="12.75"/>
-    <row r="214" ht="12.75"/>
-    <row r="215" ht="12.75"/>
-    <row r="216" ht="12.75"/>
-    <row r="217" ht="12.75"/>
-    <row r="218" ht="12.75"/>
-    <row r="219" ht="12.75"/>
-    <row r="220" ht="12.75"/>
-    <row r="221" ht="12.75"/>
-    <row r="222" ht="12.75"/>
-    <row r="223" ht="12.75"/>
-    <row r="224" ht="12.75"/>
-    <row r="225" ht="12.75"/>
-    <row r="226" ht="12.75"/>
-    <row r="227" ht="12.75"/>
-    <row r="228" ht="12.75"/>
-    <row r="229" ht="12.75"/>
-    <row r="230" ht="12.75"/>
-    <row r="231" ht="12.75"/>
-    <row r="232" ht="12.75"/>
-    <row r="233" ht="12.75"/>
-    <row r="234" ht="12.75"/>
-    <row r="235" ht="12.75"/>
-    <row r="236" ht="12.75"/>
-    <row r="237" ht="12.75"/>
-    <row r="238" ht="12.75"/>
-    <row r="239" ht="12.75"/>
-    <row r="240" ht="12.75"/>
-    <row r="241" ht="12.75"/>
-    <row r="242" ht="12.75"/>
-    <row r="243" ht="12.75"/>
-    <row r="244" ht="12.75"/>
-    <row r="245" ht="12.75"/>
-    <row r="246" ht="12.75"/>
-    <row r="247" ht="12.75"/>
-    <row r="248" ht="12.75"/>
-    <row r="249" ht="12.75"/>
-    <row r="250" ht="12.75"/>
-    <row r="251" ht="12.75"/>
-    <row r="252" ht="12.75"/>
-    <row r="253" ht="12.75"/>
-    <row r="254" ht="12.75"/>
-    <row r="255" ht="12.75"/>
-    <row r="256" ht="12.75"/>
-    <row r="257" ht="12.75"/>
-    <row r="258" ht="12.75"/>
-    <row r="259" ht="12.75"/>
-    <row r="260" ht="12.75"/>
-    <row r="261" ht="12.75"/>
-    <row r="262" ht="12.75"/>
-    <row r="263" ht="12.75"/>
-    <row r="264" ht="12.75"/>
-    <row r="265" ht="12.75"/>
-    <row r="266" ht="12.75"/>
-    <row r="267" ht="12.75"/>
-    <row r="268" ht="12.75"/>
-    <row r="269" ht="12.75"/>
-    <row r="270" ht="12.75"/>
-    <row r="271" ht="12.75"/>
-    <row r="272" ht="12.75"/>
-    <row r="273" ht="12.75"/>
-    <row r="274" ht="12.75"/>
-    <row r="275" ht="12.75"/>
-    <row r="276" ht="12.75"/>
-    <row r="277" ht="12.75"/>
-    <row r="278" ht="12.75"/>
-    <row r="279" ht="12.75"/>
-    <row r="280" ht="12.75"/>
-    <row r="281" ht="12.75"/>
-    <row r="282" ht="12.75"/>
-    <row r="283" ht="12.75"/>
-    <row r="284" ht="12.75"/>
-    <row r="285" ht="12.75"/>
-    <row r="286" ht="12.75"/>
-    <row r="287" ht="12.75"/>
-    <row r="288" ht="12.75"/>
-    <row r="289" ht="12.75"/>
-    <row r="290" ht="12.75"/>
-    <row r="291" ht="12.75"/>
-    <row r="292" ht="12.75"/>
-    <row r="293" ht="12.75"/>
-    <row r="294" ht="12.75"/>
-    <row r="295" ht="12.75"/>
-    <row r="296" ht="12.75"/>
-    <row r="297" ht="12.75"/>
-    <row r="298" ht="12.75"/>
-    <row r="299" ht="12.75"/>
-    <row r="300" ht="12.75"/>
-    <row r="301" ht="12.75"/>
-    <row r="302" ht="12.75"/>
-    <row r="303" ht="12.75"/>
-    <row r="304" ht="12.75"/>
-    <row r="305" ht="12.75"/>
-    <row r="306" ht="12.75"/>
-    <row r="307" ht="12.75"/>
-    <row r="308" ht="12.75"/>
-    <row r="309" ht="12.75"/>
-    <row r="310" ht="12.75"/>
-    <row r="311" ht="12.75"/>
-    <row r="312" ht="12.75"/>
-    <row r="313" ht="12.75"/>
-    <row r="314" ht="12.75"/>
-    <row r="315" ht="12.75"/>
-    <row r="316" ht="12.75"/>
-    <row r="317" ht="12.75"/>
-    <row r="318" ht="12.75"/>
-    <row r="319" ht="12.75"/>
-    <row r="320" ht="12.75"/>
-    <row r="321" ht="12.75"/>
-    <row r="322" ht="12.75"/>
-    <row r="323" ht="12.75"/>
-    <row r="324" ht="12.75"/>
-    <row r="325" ht="12.75"/>
-    <row r="326" ht="12.75"/>
-    <row r="327" ht="12.75"/>
-    <row r="328" ht="12.75"/>
-    <row r="329" ht="12.75"/>
-    <row r="330" ht="12.75"/>
-    <row r="331" ht="12.75"/>
-    <row r="332" ht="12.75"/>
-    <row r="333" ht="12.75"/>
-    <row r="334" ht="12.75"/>
-    <row r="335" ht="12.75"/>
-    <row r="336" ht="12.75"/>
-    <row r="337" ht="12.75"/>
-    <row r="338" ht="12.75"/>
-    <row r="339" ht="12.75"/>
-    <row r="340" ht="12.75"/>
-    <row r="341" ht="12.75"/>
-    <row r="342" ht="12.75"/>
-    <row r="343" ht="12.75"/>
-    <row r="344" ht="12.75"/>
-    <row r="345" ht="12.75"/>
-    <row r="346" ht="12.75"/>
-    <row r="347" ht="12.75"/>
-    <row r="348" ht="12.75"/>
-    <row r="349" ht="12.75"/>
-    <row r="350" ht="12.75"/>
-    <row r="351" ht="12.75"/>
-    <row r="352" ht="12.75"/>
-    <row r="353" ht="12.75"/>
-    <row r="354" ht="12.75"/>
-    <row r="355" ht="12.75"/>
-    <row r="356" ht="12.75"/>
-    <row r="357" ht="12.75"/>
-    <row r="358" ht="12.75"/>
-    <row r="359" ht="12.75"/>
-    <row r="360" ht="12.75"/>
-    <row r="361" ht="12.75"/>
-    <row r="362" ht="12.75"/>
-    <row r="363" ht="12.75"/>
-    <row r="364" ht="12.75"/>
-    <row r="365" ht="12.75"/>
-    <row r="366" ht="12.75"/>
-    <row r="367" ht="12.75"/>
-    <row r="368" ht="12.75"/>
-    <row r="369" ht="12.75"/>
-    <row r="370" ht="12.75"/>
-    <row r="371" ht="12.75"/>
-    <row r="372" ht="12.75"/>
-    <row r="373" ht="12.75"/>
-    <row r="374" ht="12.75"/>
-    <row r="375" ht="12.75"/>
-    <row r="376" ht="12.75"/>
-    <row r="377" ht="12.75"/>
-    <row r="378" ht="12.75"/>
-    <row r="379" ht="12.75"/>
-    <row r="380" ht="12.75"/>
-    <row r="381" ht="12.75"/>
-    <row r="382" ht="12.75"/>
-    <row r="383" ht="12.75"/>
-    <row r="384" ht="12.75"/>
-    <row r="385" ht="12.75"/>
-    <row r="386" ht="12.75"/>
-    <row r="387" ht="12.75"/>
-    <row r="388" ht="12.75"/>
-    <row r="389" ht="12.75"/>
-    <row r="390" ht="12.75"/>
-    <row r="391" ht="12.75"/>
-    <row r="392" ht="12.75"/>
-    <row r="393" ht="12.75"/>
-    <row r="394" ht="12.75"/>
-    <row r="395" ht="12.75"/>
-    <row r="396" ht="12.75"/>
-    <row r="397" ht="12.75"/>
-    <row r="398" ht="12.75"/>
-    <row r="399" ht="12.75"/>
-    <row r="400" ht="12.75"/>
-    <row r="401" ht="12.75"/>
-    <row r="402" ht="12.75"/>
-    <row r="403" ht="12.75"/>
-    <row r="404" ht="12.75"/>
-    <row r="405" ht="12.75"/>
-    <row r="406" ht="12.75"/>
-    <row r="407" ht="12.75"/>
-    <row r="408" ht="12.75"/>
-    <row r="409" ht="12.75"/>
-    <row r="410" ht="12.75"/>
-    <row r="411" ht="12.75"/>
-    <row r="412" ht="12.75"/>
-    <row r="413" ht="12.75"/>
-    <row r="414" ht="12.75"/>
-    <row r="415" ht="12.75"/>
-    <row r="416" ht="12.75"/>
-    <row r="417" ht="12.75"/>
-    <row r="418" ht="12.75"/>
-    <row r="419" ht="12.75"/>
-    <row r="420" ht="12.75"/>
-    <row r="421" ht="12.75"/>
-    <row r="422" ht="12.75"/>
-    <row r="423" ht="12.75"/>
-    <row r="424" ht="12.75"/>
-    <row r="425" ht="12.75"/>
-    <row r="426" ht="12.75"/>
-    <row r="427" ht="12.75"/>
-    <row r="428" ht="12.75"/>
-    <row r="429" ht="12.75"/>
-    <row r="430" ht="12.75"/>
-    <row r="431" ht="12.75"/>
-    <row r="432" ht="12.75"/>
-    <row r="433" ht="12.75"/>
-    <row r="434" ht="12.75"/>
-    <row r="435" ht="12.75"/>
-    <row r="436" ht="12.75"/>
-    <row r="437" ht="12.75"/>
-    <row r="438" ht="12.75"/>
-    <row r="439" ht="12.75"/>
-    <row r="440" ht="12.75"/>
-    <row r="441" ht="12.75"/>
-    <row r="442" ht="12.75"/>
-    <row r="443" ht="12.75"/>
-    <row r="444" ht="12.75"/>
-    <row r="445" ht="12.75"/>
-    <row r="446" ht="12.75"/>
-    <row r="447" ht="12.75"/>
-    <row r="448" ht="12.75"/>
-    <row r="449" ht="12.75"/>
-    <row r="450" ht="12.75"/>
-    <row r="451" ht="12.75"/>
-    <row r="452" ht="12.75"/>
-    <row r="453" ht="12.75"/>
-    <row r="454" ht="12.75"/>
-    <row r="455" ht="12.75"/>
-    <row r="456" ht="12.75"/>
-    <row r="457" ht="12.75"/>
-    <row r="458" ht="12.75"/>
-    <row r="459" ht="12.75"/>
-    <row r="460" ht="12.75"/>
-    <row r="461" ht="12.75"/>
-    <row r="462" ht="12.75"/>
-    <row r="463" ht="12.75"/>
-    <row r="464" ht="12.75"/>
-    <row r="465" ht="12.75"/>
-    <row r="466" ht="12.75"/>
-    <row r="467" ht="12.75"/>
-    <row r="468" ht="12.75"/>
-    <row r="469" ht="12.75"/>
-    <row r="470" ht="12.75"/>
-    <row r="471" ht="12.75"/>
-    <row r="472" ht="12.75"/>
-    <row r="473" ht="12.75"/>
-    <row r="474" ht="12.75"/>
-    <row r="475" ht="12.75"/>
-    <row r="476" ht="12.75"/>
-    <row r="477" ht="12.75"/>
-    <row r="478" ht="12.75"/>
-    <row r="479" ht="12.75"/>
-    <row r="480" ht="12.75"/>
-    <row r="481" ht="12.75"/>
-    <row r="482" ht="12.75"/>
-    <row r="483" ht="12.75"/>
-    <row r="484" ht="12.75"/>
-    <row r="485" ht="12.75"/>
-    <row r="486" ht="12.75"/>
-    <row r="487" ht="12.75"/>
-    <row r="488" ht="12.75"/>
-    <row r="489" ht="12.75"/>
-    <row r="490" ht="12.75"/>
-    <row r="491" ht="12.75"/>
-    <row r="492" ht="12.75"/>
-    <row r="493" ht="12.75"/>
-    <row r="494" ht="12.75"/>
-    <row r="495" ht="12.75"/>
-    <row r="496" ht="12.75"/>
-    <row r="497" ht="12.75"/>
-    <row r="498" ht="12.75"/>
-    <row r="499" ht="12.75"/>
-    <row r="500" ht="12.75"/>
-    <row r="501" ht="12.75"/>
-    <row r="502" ht="12.75"/>
-    <row r="503" ht="12.75"/>
-    <row r="504" ht="12.75"/>
-    <row r="505" ht="12.75"/>
-    <row r="506" ht="12.75"/>
-    <row r="507" ht="12.75"/>
-    <row r="508" ht="12.75"/>
-    <row r="509" ht="12.75"/>
-    <row r="510" ht="12.75"/>
-    <row r="511" ht="12.75"/>
-    <row r="512" ht="12.75"/>
-    <row r="513" ht="12.75"/>
-    <row r="514" ht="12.75"/>
-    <row r="515" ht="12.75"/>
-    <row r="516" ht="12.75"/>
-    <row r="517" ht="12.75"/>
-    <row r="518" ht="12.75"/>
-    <row r="519" ht="12.75"/>
-    <row r="520" ht="12.75"/>
-    <row r="521" ht="12.75"/>
-    <row r="522" ht="12.75"/>
-    <row r="523" ht="12.75"/>
-    <row r="524" ht="12.75"/>
-    <row r="525" ht="12.75"/>
-    <row r="526" ht="12.75"/>
-    <row r="527" ht="12.75"/>
-    <row r="528" ht="12.75"/>
-    <row r="529" ht="12.75"/>
-    <row r="530" ht="12.75"/>
-    <row r="531" ht="12.75"/>
-    <row r="532" ht="12.75"/>
-    <row r="533" ht="12.75"/>
-    <row r="534" ht="12.75"/>
-    <row r="535" ht="12.75"/>
-    <row r="536" ht="12.75"/>
-    <row r="537" ht="12.75"/>
-    <row r="538" ht="12.75"/>
-    <row r="539" ht="12.75"/>
-    <row r="540" ht="12.75"/>
-    <row r="541" ht="12.75"/>
-    <row r="542" ht="12.75"/>
-    <row r="543" ht="12.75"/>
-    <row r="544" ht="12.75"/>
-    <row r="545" ht="12.75"/>
-    <row r="546" ht="12.75"/>
-    <row r="547" ht="12.75"/>
-    <row r="548" ht="12.75"/>
-    <row r="549" ht="12.75"/>
-    <row r="550" ht="12.75"/>
-    <row r="551" ht="12.75"/>
-    <row r="552" ht="12.75"/>
-    <row r="553" ht="12.75"/>
-    <row r="554" ht="12.75"/>
-    <row r="555" ht="12.75"/>
-    <row r="556" ht="12.75"/>
-    <row r="557" ht="12.75"/>
-    <row r="558" ht="12.75"/>
-    <row r="559" ht="12.75"/>
-    <row r="560" ht="12.75"/>
-    <row r="561" ht="12.75"/>
-    <row r="562" ht="12.75"/>
-    <row r="563" ht="12.75"/>
-    <row r="564" ht="12.75"/>
-    <row r="565" ht="12.75"/>
-    <row r="566" ht="12.75"/>
-    <row r="567" ht="12.75"/>
-    <row r="568" ht="12.75"/>
-    <row r="569" ht="12.75"/>
-    <row r="570" ht="12.75"/>
-    <row r="571" ht="12.75"/>
-    <row r="572" ht="12.75"/>
-    <row r="573" ht="12.75"/>
-    <row r="574" ht="12.75"/>
-    <row r="575" ht="12.75"/>
-    <row r="576" ht="12.75"/>
-    <row r="577" ht="12.75"/>
-    <row r="578" ht="12.75"/>
-    <row r="579" ht="12.75"/>
-    <row r="580" ht="12.75"/>
-    <row r="581" ht="12.75"/>
-    <row r="582" ht="12.75"/>
-    <row r="583" ht="12.75"/>
-    <row r="584" ht="12.75"/>
-    <row r="585" ht="12.75"/>
-    <row r="586" ht="12.75"/>
-    <row r="587" ht="12.75"/>
-    <row r="588" ht="12.75"/>
-    <row r="589" ht="12.75"/>
-    <row r="590" ht="12.75"/>
-    <row r="591" ht="12.75"/>
-    <row r="592" ht="12.75"/>
-    <row r="593" ht="12.75"/>
-    <row r="594" ht="12.75"/>
-    <row r="595" ht="12.75"/>
-    <row r="596" ht="12.75"/>
-    <row r="597" ht="12.75"/>
-    <row r="598" ht="12.75"/>
-    <row r="599" ht="12.75"/>
-    <row r="600" ht="12.75"/>
-    <row r="601" ht="12.75"/>
-    <row r="602" ht="12.75"/>
-    <row r="603" ht="12.75"/>
-    <row r="604" ht="12.75"/>
-    <row r="605" ht="12.75"/>
-    <row r="606" ht="12.75"/>
-    <row r="607" ht="12.75"/>
-    <row r="608" ht="12.75"/>
-    <row r="609" ht="12.75"/>
-    <row r="610" ht="12.75"/>
-    <row r="611" ht="12.75"/>
-    <row r="612" ht="12.75"/>
-    <row r="613" ht="12.75"/>
-    <row r="614" ht="12.75"/>
-    <row r="615" ht="12.75"/>
-    <row r="616" ht="12.75"/>
-    <row r="617" ht="12.75"/>
-    <row r="618" ht="12.75"/>
-    <row r="619" ht="12.75"/>
-    <row r="620" ht="12.75"/>
-    <row r="621" ht="12.75"/>
-    <row r="622" ht="12.75"/>
-    <row r="623" ht="12.75"/>
-    <row r="624" ht="12.75"/>
-    <row r="625" ht="12.75"/>
-    <row r="626" ht="12.75"/>
-    <row r="627" ht="12.75"/>
-    <row r="628" ht="12.75"/>
-    <row r="629" ht="12.75"/>
-    <row r="630" ht="12.75"/>
-    <row r="631" ht="12.75"/>
-    <row r="632" ht="12.75"/>
-    <row r="633" ht="12.75"/>
-    <row r="634" ht="12.75"/>
-    <row r="635" ht="12.75"/>
-    <row r="636" ht="12.75"/>
-    <row r="637" ht="12.75"/>
-    <row r="638" ht="12.75"/>
-    <row r="639" ht="12.75"/>
-    <row r="640" ht="12.75"/>
-    <row r="641" ht="12.75"/>
-    <row r="642" ht="12.75"/>
-    <row r="643" ht="12.75"/>
-    <row r="644" ht="12.75"/>
-    <row r="645" ht="12.75"/>
-    <row r="646" ht="12.75"/>
-    <row r="647" ht="12.75"/>
-    <row r="648" ht="12.75"/>
-    <row r="649" ht="12.75"/>
-    <row r="650" ht="12.75"/>
-    <row r="651" ht="12.75"/>
-    <row r="652" ht="12.75"/>
-    <row r="653" ht="12.75"/>
-    <row r="654" ht="12.75"/>
-    <row r="655" ht="12.75"/>
-    <row r="656" ht="12.75"/>
-    <row r="657" ht="12.75"/>
-    <row r="658" ht="12.75"/>
-    <row r="659" ht="12.75"/>
-    <row r="660" ht="12.75"/>
-    <row r="661" ht="12.75"/>
-    <row r="662" ht="12.75"/>
-    <row r="663" ht="12.75"/>
-    <row r="664" ht="12.75"/>
-    <row r="665" ht="12.75"/>
-    <row r="666" ht="12.75"/>
-    <row r="667" ht="12.75"/>
-    <row r="668" ht="12.75"/>
-    <row r="669" ht="12.75"/>
-    <row r="670" ht="12.75"/>
-    <row r="671" ht="12.75"/>
-    <row r="672" ht="12.75"/>
-    <row r="673" ht="12.75"/>
-    <row r="674" ht="12.75"/>
-    <row r="675" ht="12.75"/>
-    <row r="676" ht="12.75"/>
-    <row r="677" ht="12.75"/>
-    <row r="678" ht="12.75"/>
-    <row r="679" ht="12.75"/>
-    <row r="680" ht="12.75"/>
-    <row r="681" ht="12.75"/>
-    <row r="682" ht="12.75"/>
-    <row r="683" ht="12.75"/>
-    <row r="684" ht="12.75"/>
-    <row r="685" ht="12.75"/>
-    <row r="686" ht="12.75"/>
-    <row r="687" ht="12.75"/>
-    <row r="688" ht="12.75"/>
-    <row r="689" ht="12.75"/>
-    <row r="690" ht="12.75"/>
-    <row r="691" ht="12.75"/>
-    <row r="692" ht="12.75"/>
-    <row r="693" ht="12.75"/>
-    <row r="694" ht="12.75"/>
-    <row r="695" ht="12.75"/>
-    <row r="696" ht="12.75"/>
-    <row r="697" ht="12.75"/>
-    <row r="698" ht="12.75"/>
-    <row r="699" ht="12.75"/>
-    <row r="700" ht="12.75"/>
-    <row r="701" ht="12.75"/>
-    <row r="702" ht="12.75"/>
-    <row r="703" ht="12.75"/>
-    <row r="704" ht="12.75"/>
-    <row r="705" ht="12.75"/>
-    <row r="706" ht="12.75"/>
-    <row r="707" ht="12.75"/>
-    <row r="708" ht="12.75"/>
-    <row r="709" ht="12.75"/>
-    <row r="710" ht="12.75"/>
-    <row r="711" ht="12.75"/>
-    <row r="712" ht="12.75"/>
-    <row r="713" ht="12.75"/>
-    <row r="714" ht="12.75"/>
-    <row r="715" ht="12.75"/>
-    <row r="716" ht="12.75"/>
-    <row r="717" ht="12.75"/>
-    <row r="718" ht="12.75"/>
-    <row r="719" ht="12.75"/>
-    <row r="720" ht="12.75"/>
-    <row r="721" ht="12.75"/>
-    <row r="722" ht="12.75"/>
-    <row r="723" ht="12.75"/>
-    <row r="724" ht="12.75"/>
-    <row r="725" ht="12.75"/>
-    <row r="726" ht="12.75"/>
-    <row r="727" ht="12.75"/>
-    <row r="728" ht="12.75"/>
-    <row r="729" ht="12.75"/>
-    <row r="730" ht="12.75"/>
-    <row r="731" ht="12.75"/>
-    <row r="732" ht="12.75"/>
-    <row r="733" ht="12.75"/>
-    <row r="734" ht="12.75"/>
-    <row r="735" ht="12.75"/>
-    <row r="736" ht="12.75"/>
-    <row r="737" ht="12.75"/>
-    <row r="738" ht="12.75"/>
-    <row r="739" ht="12.75"/>
-    <row r="740" ht="12.75"/>
-    <row r="741" ht="12.75"/>
-    <row r="742" ht="12.75"/>
-    <row r="743" ht="12.75"/>
-    <row r="744" ht="12.75"/>
-    <row r="745" ht="12.75"/>
-    <row r="746" ht="12.75"/>
-    <row r="747" ht="12.75"/>
-    <row r="748" ht="12.75"/>
-    <row r="749" ht="12.75"/>
-    <row r="750" ht="12.75"/>
-    <row r="751" ht="12.75"/>
-    <row r="752" ht="12.75"/>
-    <row r="753" ht="12.75"/>
-    <row r="754" ht="12.75"/>
-    <row r="755" ht="12.75"/>
-    <row r="756" ht="12.75"/>
-    <row r="757" ht="12.75"/>
-    <row r="758" ht="12.75"/>
-    <row r="759" ht="12.75"/>
-    <row r="760" ht="12.75"/>
-    <row r="761" ht="12.75"/>
-    <row r="762" ht="12.75"/>
-    <row r="763" ht="12.75"/>
-    <row r="764" ht="12.75"/>
-    <row r="765" ht="12.75"/>
-    <row r="766" ht="12.75"/>
-    <row r="767" ht="12.75"/>
-    <row r="768" ht="12.75"/>
-    <row r="769" ht="12.75"/>
-    <row r="770" ht="12.75"/>
-    <row r="771" ht="12.75"/>
-    <row r="772" ht="12.75"/>
-    <row r="773" ht="12.75"/>
-    <row r="774" ht="12.75"/>
-    <row r="775" ht="12.75"/>
-    <row r="776" ht="12.75"/>
-    <row r="777" ht="12.75"/>
-    <row r="778" ht="12.75"/>
-    <row r="779" ht="12.75"/>
-    <row r="780" ht="12.75"/>
-    <row r="781" ht="12.75"/>
-    <row r="782" ht="12.75"/>
-    <row r="783" ht="12.75"/>
-    <row r="784" ht="12.75"/>
-    <row r="785" ht="12.75"/>
-    <row r="786" ht="12.75"/>
-    <row r="787" ht="12.75"/>
-    <row r="788" ht="12.75"/>
-    <row r="789" ht="12.75"/>
-    <row r="790" ht="12.75"/>
-    <row r="791" ht="12.75"/>
-    <row r="792" ht="12.75"/>
-    <row r="793" ht="12.75"/>
-    <row r="794" ht="12.75"/>
-    <row r="795" ht="12.75"/>
-    <row r="796" ht="12.75"/>
-    <row r="797" ht="12.75"/>
-    <row r="798" ht="12.75"/>
-    <row r="799" ht="12.75"/>
-    <row r="800" ht="12.75"/>
-    <row r="801" ht="12.75"/>
-    <row r="802" ht="12.75"/>
-    <row r="803" ht="12.75"/>
-    <row r="804" ht="12.75"/>
-    <row r="805" ht="12.75"/>
-    <row r="806" ht="12.75"/>
-    <row r="807" ht="12.75"/>
-    <row r="808" ht="12.75"/>
-    <row r="809" ht="12.75"/>
-    <row r="810" ht="12.75"/>
-    <row r="811" ht="12.75"/>
-    <row r="812" ht="12.75"/>
-    <row r="813" ht="12.75"/>
-    <row r="814" ht="12.75"/>
-    <row r="815" ht="12.75"/>
-    <row r="816" ht="12.75"/>
-    <row r="817" ht="12.75"/>
-    <row r="818" ht="12.75"/>
-    <row r="819" ht="12.75"/>
-    <row r="820" ht="12.75"/>
-    <row r="821" ht="12.75"/>
-    <row r="822" ht="12.75"/>
-    <row r="823" ht="12.75"/>
-    <row r="824" ht="12.75"/>
-    <row r="825" ht="12.75"/>
-    <row r="826" ht="12.75"/>
-    <row r="827" ht="12.75"/>
-    <row r="828" ht="12.75"/>
-    <row r="829" ht="12.75"/>
-    <row r="830" ht="12.75"/>
-    <row r="831" ht="12.75"/>
-    <row r="832" ht="12.75"/>
-    <row r="833" ht="12.75"/>
-    <row r="834" ht="12.75"/>
-    <row r="835" ht="12.75"/>
-    <row r="836" ht="12.75"/>
-    <row r="837" ht="12.75"/>
-    <row r="838" ht="12.75"/>
-    <row r="839" ht="12.75"/>
-    <row r="840" ht="12.75"/>
-    <row r="841" ht="12.75"/>
-    <row r="842" ht="12.75"/>
-    <row r="843" ht="12.75"/>
-    <row r="844" ht="12.75"/>
-    <row r="845" ht="12.75"/>
-    <row r="846" ht="12.75"/>
-    <row r="847" ht="12.75"/>
-    <row r="848" ht="12.75"/>
-    <row r="849" ht="12.75"/>
-    <row r="850" ht="12.75"/>
-    <row r="851" ht="12.75"/>
-    <row r="852" ht="12.75"/>
-    <row r="853" ht="12.75"/>
-    <row r="854" ht="12.75"/>
-    <row r="855" ht="12.75"/>
-    <row r="856" ht="12.75"/>
-    <row r="857" ht="12.75"/>
-    <row r="858" ht="12.75"/>
-    <row r="859" ht="12.75"/>
-    <row r="860" ht="12.75"/>
-    <row r="861" ht="12.75"/>
-    <row r="862" ht="12.75"/>
-    <row r="863" ht="12.75"/>
-    <row r="864" ht="12.75"/>
-    <row r="865" ht="12.75"/>
-    <row r="866" ht="12.75"/>
-    <row r="867" ht="12.75"/>
-    <row r="868" ht="12.75"/>
-    <row r="869" ht="12.75"/>
-    <row r="870" ht="12.75"/>
-    <row r="871" ht="12.75"/>
-    <row r="872" ht="12.75"/>
-    <row r="873" ht="12.75"/>
-    <row r="874" ht="12.75"/>
-    <row r="875" ht="12.75"/>
-    <row r="876" ht="12.75"/>
-    <row r="877" ht="12.75"/>
-    <row r="878" ht="12.75"/>
-    <row r="879" ht="12.75"/>
-    <row r="880" ht="12.75"/>
-    <row r="881" ht="12.75"/>
-    <row r="882" ht="12.75"/>
-    <row r="883" ht="12.75"/>
-    <row r="884" ht="12.75"/>
-    <row r="885" ht="12.75"/>
-    <row r="886" ht="12.75"/>
-    <row r="887" ht="12.75"/>
-    <row r="888" ht="12.75"/>
-    <row r="889" ht="12.75"/>
-    <row r="890" ht="12.75"/>
-    <row r="891" ht="12.75"/>
-    <row r="892" ht="12.75"/>
-    <row r="893" ht="12.75"/>
-    <row r="894" ht="12.75"/>
-    <row r="895" ht="12.75"/>
-    <row r="896" ht="12.75"/>
-    <row r="897" ht="12.75"/>
-    <row r="898" ht="12.75"/>
-    <row r="899" ht="12.75"/>
-    <row r="900" ht="12.75"/>
-    <row r="901" ht="12.75"/>
-    <row r="902" ht="12.75"/>
-    <row r="903" ht="12.75"/>
-    <row r="904" ht="12.75"/>
-    <row r="905" ht="12.75"/>
-    <row r="906" ht="12.75"/>
-    <row r="907" ht="12.75"/>
-    <row r="908" ht="12.75"/>
-    <row r="909" ht="12.75"/>
-    <row r="910" ht="12.75"/>
-    <row r="911" ht="12.75"/>
-    <row r="912" ht="12.75"/>
-    <row r="913" ht="12.75"/>
-    <row r="914" ht="12.75"/>
-    <row r="915" ht="12.75"/>
-    <row r="916" ht="12.75"/>
-    <row r="917" ht="12.75"/>
-    <row r="918" ht="12.75"/>
-    <row r="919" ht="12.75"/>
-    <row r="920" ht="12.75"/>
-    <row r="921" ht="12.75"/>
-    <row r="922" ht="12.75"/>
-    <row r="923" ht="12.75"/>
-    <row r="924" ht="12.75"/>
-    <row r="925" ht="12.75"/>
-    <row r="926" ht="12.75"/>
-    <row r="927" ht="12.75"/>
-    <row r="928" ht="12.75"/>
-    <row r="929" ht="12.75"/>
-    <row r="930" ht="12.75"/>
-    <row r="931" ht="12.75"/>
-    <row r="932" ht="12.75"/>
-    <row r="933" ht="12.75"/>
-    <row r="934" ht="12.75"/>
-    <row r="935" ht="12.75"/>
-    <row r="936" ht="12.75"/>
-    <row r="937" ht="12.75"/>
-    <row r="938" ht="12.75"/>
-    <row r="939" ht="12.75"/>
-    <row r="940" ht="12.75"/>
-    <row r="941" ht="12.75"/>
-    <row r="942" ht="12.75"/>
-    <row r="943" ht="12.75"/>
-    <row r="944" ht="12.75"/>
-    <row r="945" ht="12.75"/>
-    <row r="946" ht="12.75"/>
-    <row r="947" ht="12.75"/>
-    <row r="948" ht="12.75"/>
-    <row r="949" ht="12.75"/>
-    <row r="950" ht="12.75"/>
-    <row r="951" ht="12.75"/>
-    <row r="952" ht="12.75"/>
-    <row r="953" ht="12.75"/>
-    <row r="954" ht="12.75"/>
-    <row r="955" ht="12.75"/>
-    <row r="956" ht="12.75"/>
-    <row r="957" ht="12.75"/>
-    <row r="958" ht="12.75"/>
-    <row r="959" ht="12.75"/>
-    <row r="960" ht="12.75"/>
-    <row r="961" ht="12.75"/>
-    <row r="962" ht="12.75"/>
-    <row r="963" ht="12.75"/>
-    <row r="964" ht="12.75"/>
-    <row r="965" ht="12.75"/>
-    <row r="966" ht="12.75"/>
-    <row r="967" ht="12.75"/>
-    <row r="968" ht="12.75"/>
-    <row r="969" ht="12.75"/>
-    <row r="970" ht="12.75"/>
-    <row r="971" ht="12.75"/>
-    <row r="972" ht="12.75"/>
-    <row r="973" ht="12.75"/>
-    <row r="974" ht="12.75"/>
-    <row r="975" ht="12.75"/>
-    <row r="976" ht="12.75"/>
-    <row r="977" ht="12.75"/>
-    <row r="978" ht="12.75"/>
-    <row r="979" ht="12.75"/>
-    <row r="980" ht="12.75"/>
-    <row r="981" ht="12.75"/>
-    <row r="982" ht="12.75"/>
-    <row r="983" ht="12.75"/>
-    <row r="984" ht="12.75"/>
+    <row r="49" ht="13.2"/>
+    <row r="50" ht="13.2"/>
+    <row r="51" ht="13.2"/>
+    <row r="52" ht="13.2"/>
+    <row r="53" ht="13.2"/>
+    <row r="54" ht="13.2"/>
+    <row r="55" ht="13.2"/>
+    <row r="56" ht="13.2"/>
+    <row r="57" ht="13.2"/>
+    <row r="58" ht="13.2"/>
+    <row r="59" ht="13.2"/>
+    <row r="60" ht="13.2"/>
+    <row r="61" ht="13.2"/>
+    <row r="62" ht="13.2"/>
+    <row r="63" ht="13.2"/>
+    <row r="64" ht="13.2"/>
+    <row r="65" ht="13.2"/>
+    <row r="66" ht="13.2"/>
+    <row r="67" ht="13.2"/>
+    <row r="68" ht="13.2"/>
+    <row r="69" ht="13.2"/>
+    <row r="70" ht="13.2"/>
+    <row r="71" ht="13.2"/>
+    <row r="72" ht="13.2"/>
+    <row r="73" ht="13.2"/>
+    <row r="74" ht="13.2"/>
+    <row r="75" ht="13.2"/>
+    <row r="76" ht="13.2"/>
+    <row r="77" ht="13.2"/>
+    <row r="78" ht="13.2"/>
+    <row r="79" ht="13.2"/>
+    <row r="80" ht="13.2"/>
+    <row r="81" ht="13.2"/>
+    <row r="82" ht="13.2"/>
+    <row r="83" ht="13.2"/>
+    <row r="84" ht="13.2"/>
+    <row r="85" ht="13.2"/>
+    <row r="86" ht="13.2"/>
+    <row r="87" ht="13.2"/>
+    <row r="88" ht="13.2"/>
+    <row r="89" ht="13.2"/>
+    <row r="90" ht="13.2"/>
+    <row r="91" ht="13.2"/>
+    <row r="92" ht="13.2"/>
+    <row r="93" ht="13.2"/>
+    <row r="94" ht="13.2"/>
+    <row r="95" ht="13.2"/>
+    <row r="96" ht="13.2"/>
+    <row r="97" ht="13.2"/>
+    <row r="98" ht="13.2"/>
+    <row r="99" ht="13.2"/>
+    <row r="100" ht="13.2"/>
+    <row r="101" ht="13.2"/>
+    <row r="102" ht="13.2"/>
+    <row r="103" ht="13.2"/>
+    <row r="104" ht="13.2"/>
+    <row r="105" ht="13.2"/>
+    <row r="106" ht="13.2"/>
+    <row r="107" ht="13.2"/>
+    <row r="108" ht="13.2"/>
+    <row r="109" ht="13.2"/>
+    <row r="110" ht="13.2"/>
+    <row r="111" ht="13.2"/>
+    <row r="112" ht="13.2"/>
+    <row r="113" ht="13.2"/>
+    <row r="114" ht="13.2"/>
+    <row r="115" ht="13.2"/>
+    <row r="116" ht="13.2"/>
+    <row r="117" ht="13.2"/>
+    <row r="118" ht="13.2"/>
+    <row r="119" ht="13.2"/>
+    <row r="120" ht="13.2"/>
+    <row r="121" ht="13.2"/>
+    <row r="122" ht="13.2"/>
+    <row r="123" ht="13.2"/>
+    <row r="124" ht="13.2"/>
+    <row r="125" ht="13.2"/>
+    <row r="126" ht="13.2"/>
+    <row r="127" ht="13.2"/>
+    <row r="128" ht="13.2"/>
+    <row r="129" ht="13.2"/>
+    <row r="130" ht="13.2"/>
+    <row r="131" ht="13.2"/>
+    <row r="132" ht="13.2"/>
+    <row r="133" ht="13.2"/>
+    <row r="134" ht="13.2"/>
+    <row r="135" ht="13.2"/>
+    <row r="136" ht="13.2"/>
+    <row r="137" ht="13.2"/>
+    <row r="138" ht="13.2"/>
+    <row r="139" ht="13.2"/>
+    <row r="140" ht="13.2"/>
+    <row r="141" ht="13.2"/>
+    <row r="142" ht="13.2"/>
+    <row r="143" ht="13.2"/>
+    <row r="144" ht="13.2"/>
+    <row r="145" ht="13.2"/>
+    <row r="146" ht="13.2"/>
+    <row r="147" ht="13.2"/>
+    <row r="148" ht="13.2"/>
+    <row r="149" ht="13.2"/>
+    <row r="150" ht="13.2"/>
+    <row r="151" ht="13.2"/>
+    <row r="152" ht="13.2"/>
+    <row r="153" ht="13.2"/>
+    <row r="154" ht="13.2"/>
+    <row r="155" ht="13.2"/>
+    <row r="156" ht="13.2"/>
+    <row r="157" ht="13.2"/>
+    <row r="158" ht="13.2"/>
+    <row r="159" ht="13.2"/>
+    <row r="160" ht="13.2"/>
+    <row r="161" ht="13.2"/>
+    <row r="162" ht="13.2"/>
+    <row r="163" ht="13.2"/>
+    <row r="164" ht="13.2"/>
+    <row r="165" ht="13.2"/>
+    <row r="166" ht="13.2"/>
+    <row r="167" ht="13.2"/>
+    <row r="168" ht="13.2"/>
+    <row r="169" ht="13.2"/>
+    <row r="170" ht="13.2"/>
+    <row r="171" ht="13.2"/>
+    <row r="172" ht="13.2"/>
+    <row r="173" ht="13.2"/>
+    <row r="174" ht="13.2"/>
+    <row r="175" ht="13.2"/>
+    <row r="176" ht="13.2"/>
+    <row r="177" ht="13.2"/>
+    <row r="178" ht="13.2"/>
+    <row r="179" ht="13.2"/>
+    <row r="180" ht="13.2"/>
+    <row r="181" ht="13.2"/>
+    <row r="182" ht="13.2"/>
+    <row r="183" ht="13.2"/>
+    <row r="184" ht="13.2"/>
+    <row r="185" ht="13.2"/>
+    <row r="186" ht="13.2"/>
+    <row r="187" ht="13.2"/>
+    <row r="188" ht="13.2"/>
+    <row r="189" ht="13.2"/>
+    <row r="190" ht="13.2"/>
+    <row r="191" ht="13.2"/>
+    <row r="192" ht="13.2"/>
+    <row r="193" ht="13.2"/>
+    <row r="194" ht="13.2"/>
+    <row r="195" ht="13.2"/>
+    <row r="196" ht="13.2"/>
+    <row r="197" ht="13.2"/>
+    <row r="198" ht="13.2"/>
+    <row r="199" ht="13.2"/>
+    <row r="200" ht="13.2"/>
+    <row r="201" ht="13.2"/>
+    <row r="202" ht="13.2"/>
+    <row r="203" ht="13.2"/>
+    <row r="204" ht="13.2"/>
+    <row r="205" ht="13.2"/>
+    <row r="206" ht="13.2"/>
+    <row r="207" ht="13.2"/>
+    <row r="208" ht="13.2"/>
+    <row r="209" ht="13.2"/>
+    <row r="210" ht="13.2"/>
+    <row r="211" ht="13.2"/>
+    <row r="212" ht="13.2"/>
+    <row r="213" ht="13.2"/>
+    <row r="214" ht="13.2"/>
+    <row r="215" ht="13.2"/>
+    <row r="216" ht="13.2"/>
+    <row r="217" ht="13.2"/>
+    <row r="218" ht="13.2"/>
+    <row r="219" ht="13.2"/>
+    <row r="220" ht="13.2"/>
+    <row r="221" ht="13.2"/>
+    <row r="222" ht="13.2"/>
+    <row r="223" ht="13.2"/>
+    <row r="224" ht="13.2"/>
+    <row r="225" ht="13.2"/>
+    <row r="226" ht="13.2"/>
+    <row r="227" ht="13.2"/>
+    <row r="228" ht="13.2"/>
+    <row r="229" ht="13.2"/>
+    <row r="230" ht="13.2"/>
+    <row r="231" ht="13.2"/>
+    <row r="232" ht="13.2"/>
+    <row r="233" ht="13.2"/>
+    <row r="234" ht="13.2"/>
+    <row r="235" ht="13.2"/>
+    <row r="236" ht="13.2"/>
+    <row r="237" ht="13.2"/>
+    <row r="238" ht="13.2"/>
+    <row r="239" ht="13.2"/>
+    <row r="240" ht="13.2"/>
+    <row r="241" ht="13.2"/>
+    <row r="242" ht="13.2"/>
+    <row r="243" ht="13.2"/>
+    <row r="244" ht="13.2"/>
+    <row r="245" ht="13.2"/>
+    <row r="246" ht="13.2"/>
+    <row r="247" ht="13.2"/>
+    <row r="248" ht="13.2"/>
+    <row r="249" ht="13.2"/>
+    <row r="250" ht="13.2"/>
+    <row r="251" ht="13.2"/>
+    <row r="252" ht="13.2"/>
+    <row r="253" ht="13.2"/>
+    <row r="254" ht="13.2"/>
+    <row r="255" ht="13.2"/>
+    <row r="256" ht="13.2"/>
+    <row r="257" ht="13.2"/>
+    <row r="258" ht="13.2"/>
+    <row r="259" ht="13.2"/>
+    <row r="260" ht="13.2"/>
+    <row r="261" ht="13.2"/>
+    <row r="262" ht="13.2"/>
+    <row r="263" ht="13.2"/>
+    <row r="264" ht="13.2"/>
+    <row r="265" ht="13.2"/>
+    <row r="266" ht="13.2"/>
+    <row r="267" ht="13.2"/>
+    <row r="268" ht="13.2"/>
+    <row r="269" ht="13.2"/>
+    <row r="270" ht="13.2"/>
+    <row r="271" ht="13.2"/>
+    <row r="272" ht="13.2"/>
+    <row r="273" ht="13.2"/>
+    <row r="274" ht="13.2"/>
+    <row r="275" ht="13.2"/>
+    <row r="276" ht="13.2"/>
+    <row r="277" ht="13.2"/>
+    <row r="278" ht="13.2"/>
+    <row r="279" ht="13.2"/>
+    <row r="280" ht="13.2"/>
+    <row r="281" ht="13.2"/>
+    <row r="282" ht="13.2"/>
+    <row r="283" ht="13.2"/>
+    <row r="284" ht="13.2"/>
+    <row r="285" ht="13.2"/>
+    <row r="286" ht="13.2"/>
+    <row r="287" ht="13.2"/>
+    <row r="288" ht="13.2"/>
+    <row r="289" ht="13.2"/>
+    <row r="290" ht="13.2"/>
+    <row r="291" ht="13.2"/>
+    <row r="292" ht="13.2"/>
+    <row r="293" ht="13.2"/>
+    <row r="294" ht="13.2"/>
+    <row r="295" ht="13.2"/>
+    <row r="296" ht="13.2"/>
+    <row r="297" ht="13.2"/>
+    <row r="298" ht="13.2"/>
+    <row r="299" ht="13.2"/>
+    <row r="300" ht="13.2"/>
+    <row r="301" ht="13.2"/>
+    <row r="302" ht="13.2"/>
+    <row r="303" ht="13.2"/>
+    <row r="304" ht="13.2"/>
+    <row r="305" ht="13.2"/>
+    <row r="306" ht="13.2"/>
+    <row r="307" ht="13.2"/>
+    <row r="308" ht="13.2"/>
+    <row r="309" ht="13.2"/>
+    <row r="310" ht="13.2"/>
+    <row r="311" ht="13.2"/>
+    <row r="312" ht="13.2"/>
+    <row r="313" ht="13.2"/>
+    <row r="314" ht="13.2"/>
+    <row r="315" ht="13.2"/>
+    <row r="316" ht="13.2"/>
+    <row r="317" ht="13.2"/>
+    <row r="318" ht="13.2"/>
+    <row r="319" ht="13.2"/>
+    <row r="320" ht="13.2"/>
+    <row r="321" ht="13.2"/>
+    <row r="322" ht="13.2"/>
+    <row r="323" ht="13.2"/>
+    <row r="324" ht="13.2"/>
+    <row r="325" ht="13.2"/>
+    <row r="326" ht="13.2"/>
+    <row r="327" ht="13.2"/>
+    <row r="328" ht="13.2"/>
+    <row r="329" ht="13.2"/>
+    <row r="330" ht="13.2"/>
+    <row r="331" ht="13.2"/>
+    <row r="332" ht="13.2"/>
+    <row r="333" ht="13.2"/>
+    <row r="334" ht="13.2"/>
+    <row r="335" ht="13.2"/>
+    <row r="336" ht="13.2"/>
+    <row r="337" ht="13.2"/>
+    <row r="338" ht="13.2"/>
+    <row r="339" ht="13.2"/>
+    <row r="340" ht="13.2"/>
+    <row r="341" ht="13.2"/>
+    <row r="342" ht="13.2"/>
+    <row r="343" ht="13.2"/>
+    <row r="344" ht="13.2"/>
+    <row r="345" ht="13.2"/>
+    <row r="346" ht="13.2"/>
+    <row r="347" ht="13.2"/>
+    <row r="348" ht="13.2"/>
+    <row r="349" ht="13.2"/>
+    <row r="350" ht="13.2"/>
+    <row r="351" ht="13.2"/>
+    <row r="352" ht="13.2"/>
+    <row r="353" ht="13.2"/>
+    <row r="354" ht="13.2"/>
+    <row r="355" ht="13.2"/>
+    <row r="356" ht="13.2"/>
+    <row r="357" ht="13.2"/>
+    <row r="358" ht="13.2"/>
+    <row r="359" ht="13.2"/>
+    <row r="360" ht="13.2"/>
+    <row r="361" ht="13.2"/>
+    <row r="362" ht="13.2"/>
+    <row r="363" ht="13.2"/>
+    <row r="364" ht="13.2"/>
+    <row r="365" ht="13.2"/>
+    <row r="366" ht="13.2"/>
+    <row r="367" ht="13.2"/>
+    <row r="368" ht="13.2"/>
+    <row r="369" ht="13.2"/>
+    <row r="370" ht="13.2"/>
+    <row r="371" ht="13.2"/>
+    <row r="372" ht="13.2"/>
+    <row r="373" ht="13.2"/>
+    <row r="374" ht="13.2"/>
+    <row r="375" ht="13.2"/>
+    <row r="376" ht="13.2"/>
+    <row r="377" ht="13.2"/>
+    <row r="378" ht="13.2"/>
+    <row r="379" ht="13.2"/>
+    <row r="380" ht="13.2"/>
+    <row r="381" ht="13.2"/>
+    <row r="382" ht="13.2"/>
+    <row r="383" ht="13.2"/>
+    <row r="384" ht="13.2"/>
+    <row r="385" ht="13.2"/>
+    <row r="386" ht="13.2"/>
+    <row r="387" ht="13.2"/>
+    <row r="388" ht="13.2"/>
+    <row r="389" ht="13.2"/>
+    <row r="390" ht="13.2"/>
+    <row r="391" ht="13.2"/>
+    <row r="392" ht="13.2"/>
+    <row r="393" ht="13.2"/>
+    <row r="394" ht="13.2"/>
+    <row r="395" ht="13.2"/>
+    <row r="396" ht="13.2"/>
+    <row r="397" ht="13.2"/>
+    <row r="398" ht="13.2"/>
+    <row r="399" ht="13.2"/>
+    <row r="400" ht="13.2"/>
+    <row r="401" ht="13.2"/>
+    <row r="402" ht="13.2"/>
+    <row r="403" ht="13.2"/>
+    <row r="404" ht="13.2"/>
+    <row r="405" ht="13.2"/>
+    <row r="406" ht="13.2"/>
+    <row r="407" ht="13.2"/>
+    <row r="408" ht="13.2"/>
+    <row r="409" ht="13.2"/>
+    <row r="410" ht="13.2"/>
+    <row r="411" ht="13.2"/>
+    <row r="412" ht="13.2"/>
+    <row r="413" ht="13.2"/>
+    <row r="414" ht="13.2"/>
+    <row r="415" ht="13.2"/>
+    <row r="416" ht="13.2"/>
+    <row r="417" ht="13.2"/>
+    <row r="418" ht="13.2"/>
+    <row r="419" ht="13.2"/>
+    <row r="420" ht="13.2"/>
+    <row r="421" ht="13.2"/>
+    <row r="422" ht="13.2"/>
+    <row r="423" ht="13.2"/>
+    <row r="424" ht="13.2"/>
+    <row r="425" ht="13.2"/>
+    <row r="426" ht="13.2"/>
+    <row r="427" ht="13.2"/>
+    <row r="428" ht="13.2"/>
+    <row r="429" ht="13.2"/>
+    <row r="430" ht="13.2"/>
+    <row r="431" ht="13.2"/>
+    <row r="432" ht="13.2"/>
+    <row r="433" ht="13.2"/>
+    <row r="434" ht="13.2"/>
+    <row r="435" ht="13.2"/>
+    <row r="436" ht="13.2"/>
+    <row r="437" ht="13.2"/>
+    <row r="438" ht="13.2"/>
+    <row r="439" ht="13.2"/>
+    <row r="440" ht="13.2"/>
+    <row r="441" ht="13.2"/>
+    <row r="442" ht="13.2"/>
+    <row r="443" ht="13.2"/>
+    <row r="444" ht="13.2"/>
+    <row r="445" ht="13.2"/>
+    <row r="446" ht="13.2"/>
+    <row r="447" ht="13.2"/>
+    <row r="448" ht="13.2"/>
+    <row r="449" ht="13.2"/>
+    <row r="450" ht="13.2"/>
+    <row r="451" ht="13.2"/>
+    <row r="452" ht="13.2"/>
+    <row r="453" ht="13.2"/>
+    <row r="454" ht="13.2"/>
+    <row r="455" ht="13.2"/>
+    <row r="456" ht="13.2"/>
+    <row r="457" ht="13.2"/>
+    <row r="458" ht="13.2"/>
+    <row r="459" ht="13.2"/>
+    <row r="460" ht="13.2"/>
+    <row r="461" ht="13.2"/>
+    <row r="462" ht="13.2"/>
+    <row r="463" ht="13.2"/>
+    <row r="464" ht="13.2"/>
+    <row r="465" ht="13.2"/>
+    <row r="466" ht="13.2"/>
+    <row r="467" ht="13.2"/>
+    <row r="468" ht="13.2"/>
+    <row r="469" ht="13.2"/>
+    <row r="470" ht="13.2"/>
+    <row r="471" ht="13.2"/>
+    <row r="472" ht="13.2"/>
+    <row r="473" ht="13.2"/>
+    <row r="474" ht="13.2"/>
+    <row r="475" ht="13.2"/>
+    <row r="476" ht="13.2"/>
+    <row r="477" ht="13.2"/>
+    <row r="478" ht="13.2"/>
+    <row r="479" ht="13.2"/>
+    <row r="480" ht="13.2"/>
+    <row r="481" ht="13.2"/>
+    <row r="482" ht="13.2"/>
+    <row r="483" ht="13.2"/>
+    <row r="484" ht="13.2"/>
+    <row r="485" ht="13.2"/>
+    <row r="486" ht="13.2"/>
+    <row r="487" ht="13.2"/>
+    <row r="488" ht="13.2"/>
+    <row r="489" ht="13.2"/>
+    <row r="490" ht="13.2"/>
+    <row r="491" ht="13.2"/>
+    <row r="492" ht="13.2"/>
+    <row r="493" ht="13.2"/>
+    <row r="494" ht="13.2"/>
+    <row r="495" ht="13.2"/>
+    <row r="496" ht="13.2"/>
+    <row r="497" ht="13.2"/>
+    <row r="498" ht="13.2"/>
+    <row r="499" ht="13.2"/>
+    <row r="500" ht="13.2"/>
+    <row r="501" ht="13.2"/>
+    <row r="502" ht="13.2"/>
+    <row r="503" ht="13.2"/>
+    <row r="504" ht="13.2"/>
+    <row r="505" ht="13.2"/>
+    <row r="506" ht="13.2"/>
+    <row r="507" ht="13.2"/>
+    <row r="508" ht="13.2"/>
+    <row r="509" ht="13.2"/>
+    <row r="510" ht="13.2"/>
+    <row r="511" ht="13.2"/>
+    <row r="512" ht="13.2"/>
+    <row r="513" ht="13.2"/>
+    <row r="514" ht="13.2"/>
+    <row r="515" ht="13.2"/>
+    <row r="516" ht="13.2"/>
+    <row r="517" ht="13.2"/>
+    <row r="518" ht="13.2"/>
+    <row r="519" ht="13.2"/>
+    <row r="520" ht="13.2"/>
+    <row r="521" ht="13.2"/>
+    <row r="522" ht="13.2"/>
+    <row r="523" ht="13.2"/>
+    <row r="524" ht="13.2"/>
+    <row r="525" ht="13.2"/>
+    <row r="526" ht="13.2"/>
+    <row r="527" ht="13.2"/>
+    <row r="528" ht="13.2"/>
+    <row r="529" ht="13.2"/>
+    <row r="530" ht="13.2"/>
+    <row r="531" ht="13.2"/>
+    <row r="532" ht="13.2"/>
+    <row r="533" ht="13.2"/>
+    <row r="534" ht="13.2"/>
+    <row r="535" ht="13.2"/>
+    <row r="536" ht="13.2"/>
+    <row r="537" ht="13.2"/>
+    <row r="538" ht="13.2"/>
+    <row r="539" ht="13.2"/>
+    <row r="540" ht="13.2"/>
+    <row r="541" ht="13.2"/>
+    <row r="542" ht="13.2"/>
+    <row r="543" ht="13.2"/>
+    <row r="544" ht="13.2"/>
+    <row r="545" ht="13.2"/>
+    <row r="546" ht="13.2"/>
+    <row r="547" ht="13.2"/>
+    <row r="548" ht="13.2"/>
+    <row r="549" ht="13.2"/>
+    <row r="550" ht="13.2"/>
+    <row r="551" ht="13.2"/>
+    <row r="552" ht="13.2"/>
+    <row r="553" ht="13.2"/>
+    <row r="554" ht="13.2"/>
+    <row r="555" ht="13.2"/>
+    <row r="556" ht="13.2"/>
+    <row r="557" ht="13.2"/>
+    <row r="558" ht="13.2"/>
+    <row r="559" ht="13.2"/>
+    <row r="560" ht="13.2"/>
+    <row r="561" ht="13.2"/>
+    <row r="562" ht="13.2"/>
+    <row r="563" ht="13.2"/>
+    <row r="564" ht="13.2"/>
+    <row r="565" ht="13.2"/>
+    <row r="566" ht="13.2"/>
+    <row r="567" ht="13.2"/>
+    <row r="568" ht="13.2"/>
+    <row r="569" ht="13.2"/>
+    <row r="570" ht="13.2"/>
+    <row r="571" ht="13.2"/>
+    <row r="572" ht="13.2"/>
+    <row r="573" ht="13.2"/>
+    <row r="574" ht="13.2"/>
+    <row r="575" ht="13.2"/>
+    <row r="576" ht="13.2"/>
+    <row r="577" ht="13.2"/>
+    <row r="578" ht="13.2"/>
+    <row r="579" ht="13.2"/>
+    <row r="580" ht="13.2"/>
+    <row r="581" ht="13.2"/>
+    <row r="582" ht="13.2"/>
+    <row r="583" ht="13.2"/>
+    <row r="584" ht="13.2"/>
+    <row r="585" ht="13.2"/>
+    <row r="586" ht="13.2"/>
+    <row r="587" ht="13.2"/>
+    <row r="588" ht="13.2"/>
+    <row r="589" ht="13.2"/>
+    <row r="590" ht="13.2"/>
+    <row r="591" ht="13.2"/>
+    <row r="592" ht="13.2"/>
+    <row r="593" ht="13.2"/>
+    <row r="594" ht="13.2"/>
+    <row r="595" ht="13.2"/>
+    <row r="596" ht="13.2"/>
+    <row r="597" ht="13.2"/>
+    <row r="598" ht="13.2"/>
+    <row r="599" ht="13.2"/>
+    <row r="600" ht="13.2"/>
+    <row r="601" ht="13.2"/>
+    <row r="602" ht="13.2"/>
+    <row r="603" ht="13.2"/>
+    <row r="604" ht="13.2"/>
+    <row r="605" ht="13.2"/>
+    <row r="606" ht="13.2"/>
+    <row r="607" ht="13.2"/>
+    <row r="608" ht="13.2"/>
+    <row r="609" ht="13.2"/>
+    <row r="610" ht="13.2"/>
+    <row r="611" ht="13.2"/>
+    <row r="612" ht="13.2"/>
+    <row r="613" ht="13.2"/>
+    <row r="614" ht="13.2"/>
+    <row r="615" ht="13.2"/>
+    <row r="616" ht="13.2"/>
+    <row r="617" ht="13.2"/>
+    <row r="618" ht="13.2"/>
+    <row r="619" ht="13.2"/>
+    <row r="620" ht="13.2"/>
+    <row r="621" ht="13.2"/>
+    <row r="622" ht="13.2"/>
+    <row r="623" ht="13.2"/>
+    <row r="624" ht="13.2"/>
+    <row r="625" ht="13.2"/>
+    <row r="626" ht="13.2"/>
+    <row r="627" ht="13.2"/>
+    <row r="628" ht="13.2"/>
+    <row r="629" ht="13.2"/>
+    <row r="630" ht="13.2"/>
+    <row r="631" ht="13.2"/>
+    <row r="632" ht="13.2"/>
+    <row r="633" ht="13.2"/>
+    <row r="634" ht="13.2"/>
+    <row r="635" ht="13.2"/>
+    <row r="636" ht="13.2"/>
+    <row r="637" ht="13.2"/>
+    <row r="638" ht="13.2"/>
+    <row r="639" ht="13.2"/>
+    <row r="640" ht="13.2"/>
+    <row r="641" ht="13.2"/>
+    <row r="642" ht="13.2"/>
+    <row r="643" ht="13.2"/>
+    <row r="644" ht="13.2"/>
+    <row r="645" ht="13.2"/>
+    <row r="646" ht="13.2"/>
+    <row r="647" ht="13.2"/>
+    <row r="648" ht="13.2"/>
+    <row r="649" ht="13.2"/>
+    <row r="650" ht="13.2"/>
+    <row r="651" ht="13.2"/>
+    <row r="652" ht="13.2"/>
+    <row r="653" ht="13.2"/>
+    <row r="654" ht="13.2"/>
+    <row r="655" ht="13.2"/>
+    <row r="656" ht="13.2"/>
+    <row r="657" ht="13.2"/>
+    <row r="658" ht="13.2"/>
+    <row r="659" ht="13.2"/>
+    <row r="660" ht="13.2"/>
+    <row r="661" ht="13.2"/>
+    <row r="662" ht="13.2"/>
+    <row r="663" ht="13.2"/>
+    <row r="664" ht="13.2"/>
+    <row r="665" ht="13.2"/>
+    <row r="666" ht="13.2"/>
+    <row r="667" ht="13.2"/>
+    <row r="668" ht="13.2"/>
+    <row r="669" ht="13.2"/>
+    <row r="670" ht="13.2"/>
+    <row r="671" ht="13.2"/>
+    <row r="672" ht="13.2"/>
+    <row r="673" ht="13.2"/>
+    <row r="674" ht="13.2"/>
+    <row r="675" ht="13.2"/>
+    <row r="676" ht="13.2"/>
+    <row r="677" ht="13.2"/>
+    <row r="678" ht="13.2"/>
+    <row r="679" ht="13.2"/>
+    <row r="680" ht="13.2"/>
+    <row r="681" ht="13.2"/>
+    <row r="682" ht="13.2"/>
+    <row r="683" ht="13.2"/>
+    <row r="684" ht="13.2"/>
+    <row r="685" ht="13.2"/>
+    <row r="686" ht="13.2"/>
+    <row r="687" ht="13.2"/>
+    <row r="688" ht="13.2"/>
+    <row r="689" ht="13.2"/>
+    <row r="690" ht="13.2"/>
+    <row r="691" ht="13.2"/>
+    <row r="692" ht="13.2"/>
+    <row r="693" ht="13.2"/>
+    <row r="694" ht="13.2"/>
+    <row r="695" ht="13.2"/>
+    <row r="696" ht="13.2"/>
+    <row r="697" ht="13.2"/>
+    <row r="698" ht="13.2"/>
+    <row r="699" ht="13.2"/>
+    <row r="700" ht="13.2"/>
+    <row r="701" ht="13.2"/>
+    <row r="702" ht="13.2"/>
+    <row r="703" ht="13.2"/>
+    <row r="704" ht="13.2"/>
+    <row r="705" ht="13.2"/>
+    <row r="706" ht="13.2"/>
+    <row r="707" ht="13.2"/>
+    <row r="708" ht="13.2"/>
+    <row r="709" ht="13.2"/>
+    <row r="710" ht="13.2"/>
+    <row r="711" ht="13.2"/>
+    <row r="712" ht="13.2"/>
+    <row r="713" ht="13.2"/>
+    <row r="714" ht="13.2"/>
+    <row r="715" ht="13.2"/>
+    <row r="716" ht="13.2"/>
+    <row r="717" ht="13.2"/>
+    <row r="718" ht="13.2"/>
+    <row r="719" ht="13.2"/>
+    <row r="720" ht="13.2"/>
+    <row r="721" ht="13.2"/>
+    <row r="722" ht="13.2"/>
+    <row r="723" ht="13.2"/>
+    <row r="724" ht="13.2"/>
+    <row r="725" ht="13.2"/>
+    <row r="726" ht="13.2"/>
+    <row r="727" ht="13.2"/>
+    <row r="728" ht="13.2"/>
+    <row r="729" ht="13.2"/>
+    <row r="730" ht="13.2"/>
+    <row r="731" ht="13.2"/>
+    <row r="732" ht="13.2"/>
+    <row r="733" ht="13.2"/>
+    <row r="734" ht="13.2"/>
+    <row r="735" ht="13.2"/>
+    <row r="736" ht="13.2"/>
+    <row r="737" ht="13.2"/>
+    <row r="738" ht="13.2"/>
+    <row r="739" ht="13.2"/>
+    <row r="740" ht="13.2"/>
+    <row r="741" ht="13.2"/>
+    <row r="742" ht="13.2"/>
+    <row r="743" ht="13.2"/>
+    <row r="744" ht="13.2"/>
+    <row r="745" ht="13.2"/>
+    <row r="746" ht="13.2"/>
+    <row r="747" ht="13.2"/>
+    <row r="748" ht="13.2"/>
+    <row r="749" ht="13.2"/>
+    <row r="750" ht="13.2"/>
+    <row r="751" ht="13.2"/>
+    <row r="752" ht="13.2"/>
+    <row r="753" ht="13.2"/>
+    <row r="754" ht="13.2"/>
+    <row r="755" ht="13.2"/>
+    <row r="756" ht="13.2"/>
+    <row r="757" ht="13.2"/>
+    <row r="758" ht="13.2"/>
+    <row r="759" ht="13.2"/>
+    <row r="760" ht="13.2"/>
+    <row r="761" ht="13.2"/>
+    <row r="762" ht="13.2"/>
+    <row r="763" ht="13.2"/>
+    <row r="764" ht="13.2"/>
+    <row r="765" ht="13.2"/>
+    <row r="766" ht="13.2"/>
+    <row r="767" ht="13.2"/>
+    <row r="768" ht="13.2"/>
+    <row r="769" ht="13.2"/>
+    <row r="770" ht="13.2"/>
+    <row r="771" ht="13.2"/>
+    <row r="772" ht="13.2"/>
+    <row r="773" ht="13.2"/>
+    <row r="774" ht="13.2"/>
+    <row r="775" ht="13.2"/>
+    <row r="776" ht="13.2"/>
+    <row r="777" ht="13.2"/>
+    <row r="778" ht="13.2"/>
+    <row r="779" ht="13.2"/>
+    <row r="780" ht="13.2"/>
+    <row r="781" ht="13.2"/>
+    <row r="782" ht="13.2"/>
+    <row r="783" ht="13.2"/>
+    <row r="784" ht="13.2"/>
+    <row r="785" ht="13.2"/>
+    <row r="786" ht="13.2"/>
+    <row r="787" ht="13.2"/>
+    <row r="788" ht="13.2"/>
+    <row r="789" ht="13.2"/>
+    <row r="790" ht="13.2"/>
+    <row r="791" ht="13.2"/>
+    <row r="792" ht="13.2"/>
+    <row r="793" ht="13.2"/>
+    <row r="794" ht="13.2"/>
+    <row r="795" ht="13.2"/>
+    <row r="796" ht="13.2"/>
+    <row r="797" ht="13.2"/>
+    <row r="798" ht="13.2"/>
+    <row r="799" ht="13.2"/>
+    <row r="800" ht="13.2"/>
+    <row r="801" ht="13.2"/>
+    <row r="802" ht="13.2"/>
+    <row r="803" ht="13.2"/>
+    <row r="804" ht="13.2"/>
+    <row r="805" ht="13.2"/>
+    <row r="806" ht="13.2"/>
+    <row r="807" ht="13.2"/>
+    <row r="808" ht="13.2"/>
+    <row r="809" ht="13.2"/>
+    <row r="810" ht="13.2"/>
+    <row r="811" ht="13.2"/>
+    <row r="812" ht="13.2"/>
+    <row r="813" ht="13.2"/>
+    <row r="814" ht="13.2"/>
+    <row r="815" ht="13.2"/>
+    <row r="816" ht="13.2"/>
+    <row r="817" ht="13.2"/>
+    <row r="818" ht="13.2"/>
+    <row r="819" ht="13.2"/>
+    <row r="820" ht="13.2"/>
+    <row r="821" ht="13.2"/>
+    <row r="822" ht="13.2"/>
+    <row r="823" ht="13.2"/>
+    <row r="824" ht="13.2"/>
+    <row r="825" ht="13.2"/>
+    <row r="826" ht="13.2"/>
+    <row r="827" ht="13.2"/>
+    <row r="828" ht="13.2"/>
+    <row r="829" ht="13.2"/>
+    <row r="830" ht="13.2"/>
+    <row r="831" ht="13.2"/>
+    <row r="832" ht="13.2"/>
+    <row r="833" ht="13.2"/>
+    <row r="834" ht="13.2"/>
+    <row r="835" ht="13.2"/>
+    <row r="836" ht="13.2"/>
+    <row r="837" ht="13.2"/>
+    <row r="838" ht="13.2"/>
+    <row r="839" ht="13.2"/>
+    <row r="840" ht="13.2"/>
+    <row r="841" ht="13.2"/>
+    <row r="842" ht="13.2"/>
+    <row r="843" ht="13.2"/>
+    <row r="844" ht="13.2"/>
+    <row r="845" ht="13.2"/>
+    <row r="846" ht="13.2"/>
+    <row r="847" ht="13.2"/>
+    <row r="848" ht="13.2"/>
+    <row r="849" ht="13.2"/>
+    <row r="850" ht="13.2"/>
+    <row r="851" ht="13.2"/>
+    <row r="852" ht="13.2"/>
+    <row r="853" ht="13.2"/>
+    <row r="854" ht="13.2"/>
+    <row r="855" ht="13.2"/>
+    <row r="856" ht="13.2"/>
+    <row r="857" ht="13.2"/>
+    <row r="858" ht="13.2"/>
+    <row r="859" ht="13.2"/>
+    <row r="860" ht="13.2"/>
+    <row r="861" ht="13.2"/>
+    <row r="862" ht="13.2"/>
+    <row r="863" ht="13.2"/>
+    <row r="864" ht="13.2"/>
+    <row r="865" ht="13.2"/>
+    <row r="866" ht="13.2"/>
+    <row r="867" ht="13.2"/>
+    <row r="868" ht="13.2"/>
+    <row r="869" ht="13.2"/>
+    <row r="870" ht="13.2"/>
+    <row r="871" ht="13.2"/>
+    <row r="872" ht="13.2"/>
+    <row r="873" ht="13.2"/>
+    <row r="874" ht="13.2"/>
+    <row r="875" ht="13.2"/>
+    <row r="876" ht="13.2"/>
+    <row r="877" ht="13.2"/>
+    <row r="878" ht="13.2"/>
+    <row r="879" ht="13.2"/>
+    <row r="880" ht="13.2"/>
+    <row r="881" ht="13.2"/>
+    <row r="882" ht="13.2"/>
+    <row r="883" ht="13.2"/>
+    <row r="884" ht="13.2"/>
+    <row r="885" ht="13.2"/>
+    <row r="886" ht="13.2"/>
+    <row r="887" ht="13.2"/>
+    <row r="888" ht="13.2"/>
+    <row r="889" ht="13.2"/>
+    <row r="890" ht="13.2"/>
+    <row r="891" ht="13.2"/>
+    <row r="892" ht="13.2"/>
+    <row r="893" ht="13.2"/>
+    <row r="894" ht="13.2"/>
+    <row r="895" ht="13.2"/>
+    <row r="896" ht="13.2"/>
+    <row r="897" ht="13.2"/>
+    <row r="898" ht="13.2"/>
+    <row r="899" ht="13.2"/>
+    <row r="900" ht="13.2"/>
+    <row r="901" ht="13.2"/>
+    <row r="902" ht="13.2"/>
+    <row r="903" ht="13.2"/>
+    <row r="904" ht="13.2"/>
+    <row r="905" ht="13.2"/>
+    <row r="906" ht="13.2"/>
+    <row r="907" ht="13.2"/>
+    <row r="908" ht="13.2"/>
+    <row r="909" ht="13.2"/>
+    <row r="910" ht="13.2"/>
+    <row r="911" ht="13.2"/>
+    <row r="912" ht="13.2"/>
+    <row r="913" ht="13.2"/>
+    <row r="914" ht="13.2"/>
+    <row r="915" ht="13.2"/>
+    <row r="916" ht="13.2"/>
+    <row r="917" ht="13.2"/>
+    <row r="918" ht="13.2"/>
+    <row r="919" ht="13.2"/>
+    <row r="920" ht="13.2"/>
+    <row r="921" ht="13.2"/>
+    <row r="922" ht="13.2"/>
+    <row r="923" ht="13.2"/>
+    <row r="924" ht="13.2"/>
+    <row r="925" ht="13.2"/>
+    <row r="926" ht="13.2"/>
+    <row r="927" ht="13.2"/>
+    <row r="928" ht="13.2"/>
+    <row r="929" ht="13.2"/>
+    <row r="930" ht="13.2"/>
+    <row r="931" ht="13.2"/>
+    <row r="932" ht="13.2"/>
+    <row r="933" ht="13.2"/>
+    <row r="934" ht="13.2"/>
+    <row r="935" ht="13.2"/>
+    <row r="936" ht="13.2"/>
+    <row r="937" ht="13.2"/>
+    <row r="938" ht="13.2"/>
+    <row r="939" ht="13.2"/>
+    <row r="940" ht="13.2"/>
+    <row r="941" ht="13.2"/>
+    <row r="942" ht="13.2"/>
+    <row r="943" ht="13.2"/>
+    <row r="944" ht="13.2"/>
+    <row r="945" ht="13.2"/>
+    <row r="946" ht="13.2"/>
+    <row r="947" ht="13.2"/>
+    <row r="948" ht="13.2"/>
+    <row r="949" ht="13.2"/>
+    <row r="950" ht="13.2"/>
+    <row r="951" ht="13.2"/>
+    <row r="952" ht="13.2"/>
+    <row r="953" ht="13.2"/>
+    <row r="954" ht="13.2"/>
+    <row r="955" ht="13.2"/>
+    <row r="956" ht="13.2"/>
+    <row r="957" ht="13.2"/>
+    <row r="958" ht="13.2"/>
+    <row r="959" ht="13.2"/>
+    <row r="960" ht="13.2"/>
+    <row r="961" ht="13.2"/>
+    <row r="962" ht="13.2"/>
+    <row r="963" ht="13.2"/>
+    <row r="964" ht="13.2"/>
+    <row r="965" ht="13.2"/>
+    <row r="966" ht="13.2"/>
+    <row r="967" ht="13.2"/>
+    <row r="968" ht="13.2"/>
+    <row r="969" ht="13.2"/>
+    <row r="970" ht="13.2"/>
+    <row r="971" ht="13.2"/>
+    <row r="972" ht="13.2"/>
+    <row r="973" ht="13.2"/>
+    <row r="974" ht="13.2"/>
+    <row r="975" ht="13.2"/>
+    <row r="976" ht="13.2"/>
+    <row r="977" ht="13.2"/>
+    <row r="978" ht="13.2"/>
+    <row r="979" ht="13.2"/>
+    <row r="980" ht="13.2"/>
+    <row r="981" ht="13.2"/>
+    <row r="982" ht="13.2"/>
+    <row r="983" ht="13.2"/>
+    <row r="984" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6675,16 +6902,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787604D-A7F1-41E4-82F7-4CC79E1BE613}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6693,7 +6920,7 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="47" t="s">
         <v>194</v>
       </c>
@@ -6704,7 +6931,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>102</v>
@@ -6712,7 +6939,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>98</v>
@@ -6721,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>4</v>
@@ -6738,46 +6965,46 @@
         <v>99</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="45">
         <f>INDEX('!참조_ENUM'!$R$4:$R$6,MATCH(B5,'!참조_ENUM'!$S$4:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="D5" s="54">
         <v>9999999999</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="45">
         <f>INDEX('!참조_ENUM'!$R$4:$R$6,MATCH(B6,'!참조_ENUM'!$S$4:$S$6,0))</f>
         <v>2</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="D6" s="54">
         <v>999999</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6800,32 +7027,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="41" customFormat="1" ht="13.5">
+    <row r="2" spans="1:13" s="41" customFormat="1" ht="15.6">
       <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
@@ -6850,19 +7079,25 @@
       <c r="H2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="41" customFormat="1">
+    <row r="3" spans="1:13" s="41" customFormat="1">
       <c r="A3" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>4</v>
@@ -6886,16 +7121,22 @@
         <v>3</v>
       </c>
       <c r="I3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="L3" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="M3" s="42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="41" customFormat="1">
+    <row r="4" spans="1:13" s="41" customFormat="1">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
@@ -6921,21 +7162,27 @@
         <v>16</v>
       </c>
       <c r="I4" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="L4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5">
+    <row r="5" spans="1:13" ht="15.6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>167</v>
@@ -6957,22 +7204,28 @@
         <f>G5*10</f>
         <v>100</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>163</v>
@@ -6994,22 +7247,28 @@
         <f t="shared" ref="H6:H14" si="0">G6*10</f>
         <v>200</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>164</v>
@@ -7031,22 +7290,28 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>165</v>
@@ -7068,22 +7333,28 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>166</v>
@@ -7105,22 +7376,28 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>168</v>
@@ -7142,22 +7419,28 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>169</v>
@@ -7179,22 +7462,28 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>170</v>
@@ -7216,22 +7505,28 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>171</v>
@@ -7253,22 +7548,28 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>172</v>
@@ -7290,22 +7591,28 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
@@ -7326,22 +7633,28 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -7362,22 +7675,28 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
@@ -7398,22 +7717,28 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
@@ -7434,22 +7759,28 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
@@ -7470,22 +7801,28 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.8">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>181</v>
@@ -7507,22 +7844,28 @@
         <f t="shared" ref="H20:H24" si="1">G20*10</f>
         <v>100</v>
       </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.8">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>182</v>
@@ -7544,22 +7887,28 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.8">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>183</v>
@@ -7581,22 +7930,28 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13.8">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>184</v>
@@ -7618,22 +7973,28 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.8">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>185</v>
@@ -7655,22 +8016,28 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
@@ -7691,22 +8058,28 @@
       <c r="H25" s="1">
         <v>100</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
@@ -7727,22 +8100,28 @@
       <c r="H26" s="1">
         <v>200</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I26" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J26" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
@@ -7763,22 +8142,28 @@
       <c r="H27" s="1">
         <v>300</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="13.5">
+      <c r="I27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>101</v>
@@ -7799,17 +8184,23 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="I28" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J28" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -7835,17 +8226,23 @@
       <c r="H29" s="1">
         <v>1000</v>
       </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="I29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J29" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -7871,17 +8268,23 @@
       <c r="H30" s="1">
         <v>2500</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="I30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J30" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -7907,14 +8310,20 @@
       <c r="H31" s="1">
         <v>5000</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>245</v>
+      <c r="I31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7944,17 +8353,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7962,7 +8371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5">
+    <row r="2" spans="1:9" ht="27.6">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -7993,7 +8402,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -8022,7 +8431,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -8075,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8104,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8133,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8151,22 +8560,22 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.6640625" customWidth="1"/>
     <col min="15" max="17" width="8" customWidth="1"/>
     <col min="18" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="73.5703125" customWidth="1"/>
+    <col min="20" max="20" width="73.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -8174,7 +8583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="26.25">
+    <row r="2" spans="1:20" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8238,7 +8647,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -8360,7 +8769,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="13.5">
+    <row r="5" spans="1:20" ht="15.6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -8420,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8483,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -8546,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -8609,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="13.8">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -8672,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -8735,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8798,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8861,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="13.5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -8924,10 +9333,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="13.8">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -8987,10 +9396,10 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="13.8">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -9050,10 +9459,10 @@
         <v>0</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="13.8">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -9113,10 +9522,10 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="13.8">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -9176,10 +9585,10 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="13.8">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -9239,10 +9648,10 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="13.8">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -9302,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="13.8">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -9365,10 +9774,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="13.8">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -9428,10 +9837,10 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="13.8">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -9491,10 +9900,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="13.8">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -9554,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="13.8">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -9617,10 +10026,10 @@
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="13.8">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -9680,10 +10089,10 @@
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="13.8">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -9743,10 +10152,10 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="13.8">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -9806,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="13.8">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -9869,13 +10278,14 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3252FA06-7B50-4AFA-83DE-607585C86BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291C6C8-93FB-423A-8142-A948EC094B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25788" yWindow="612" windowWidth="24828" windowHeight="16368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30480" yWindow="756" windowWidth="28452" windowHeight="16368" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>Rown</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{B33431FC-C6D3-4E35-8E69-42CCDB4D8E9B}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{B33431FC-C6D3-4E35-8E69-42CCDB4D8E9B}">
       <text>
         <r>
           <rPr>
@@ -478,7 +478,7 @@
     <author>Rown</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{D359808C-3CCD-4C49-B96A-E0AF34A91D76}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{D359808C-3CCD-4C49-B96A-E0AF34A91D76}">
       <text>
         <r>
           <rPr>
@@ -577,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{B9BC3B02-0D2F-494D-8F9A-A3FA2225E711}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{B9BC3B02-0D2F-494D-8F9A-A3FA2225E711}">
       <text>
         <r>
           <rPr>
@@ -739,7 +739,7 @@
     <author>Rown</author>
   </authors>
   <commentList>
-    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{EF15DA99-053B-4AB4-8123-1761AE8EA59A}">
+    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{EF15DA99-053B-4AB4-8123-1761AE8EA59A}">
       <text>
         <r>
           <rPr>
@@ -986,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{42D266D3-8A3F-4DF9-85C1-6E7CDCBE919D}">
+    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{42D266D3-8A3F-4DF9-85C1-6E7CDCBE919D}">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="416">
   <si>
     <t>type</t>
   </si>
@@ -3844,6 +3844,238 @@
   </si>
   <si>
     <t>상급 정련석이다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">설명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>string ID</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#desc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0001</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0002</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0003</t>
+  </si>
+  <si>
+    <t>중급 정령석의 조각이다. 조각을 모아 중급 정령석을 만들 수 있다.</t>
+  </si>
+  <si>
+    <t>상급 정령석의 조각이다. 조각을 모아 상급 정령석을 만들 수 있다.</t>
+  </si>
+  <si>
+    <t>하급 정령석의 조각이다. 조각을 모아 하급 정령석을 만들 수 있다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">설명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>string ID</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 설명</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_desc_equipment_0001</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0002</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0003</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0004</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0005</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0006</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0007</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0008</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0009</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0010</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0011</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0012</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0013</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0014</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0015</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0016</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0017</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0018</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0019</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0020</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0021</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0022</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0023</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0024</t>
+  </si>
+  <si>
+    <t>나무로 만든 한손검이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 양손검이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 장창이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 글로브다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 완드다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 책이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리로 만든 반지이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉성한 반지이다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 반지이다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉성한 목걸이이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 목걸이이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 도끼다</t>
+  </si>
+  <si>
+    <t>나무로 만든 활이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 지팡이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 단검이다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 가죽 갑옷이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 사슬 갑옷이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 판금 갑옷이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 천 신발이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 가죽 신발이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 사슬 신발이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 판금 신발이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리로 만든 목걸이이다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 조각 설명</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4236,7 +4468,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4365,6 +4597,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6902,7 +7137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787604D-A7F1-41E4-82F7-4CC79E1BE613}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -7030,20 +7265,20 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="72.5546875" customWidth="1"/>
@@ -7064,26 +7299,26 @@
       <c r="C2" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="G2" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="J2" s="37" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>299</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>108</v>
@@ -7106,25 +7341,25 @@
         <v>98</v>
       </c>
       <c r="D3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="G3" s="42" t="s">
         <v>190</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>3</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>3</v>
@@ -7147,25 +7382,25 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="I4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>301</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>17</v>
@@ -7188,27 +7423,27 @@
         <v>167</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D5,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G5" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F5,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>9999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
-        <f>G5*10</f>
+      <c r="J5" s="1">
+        <f>I5*10</f>
         <v>100</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>331</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -7231,27 +7466,27 @@
         <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D6,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G6" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F6,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>9999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>20</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6:H14" si="0">G6*10</f>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J14" si="0">I6*10</f>
         <v>200</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>332</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -7274,27 +7509,27 @@
         <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D7,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G7" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F7,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>9999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>333</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -7317,27 +7552,27 @@
         <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D8,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G8" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F8,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>9999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>150</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>1500</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>334</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -7360,27 +7595,27 @@
         <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D9,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G9" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F9,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>9999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>300</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>3000</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>335</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -7403,27 +7638,27 @@
         <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D10,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G10" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F10,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>9999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>336</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -7446,27 +7681,27 @@
         <v>169</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D11,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G11" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F11,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>9999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>337</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -7489,27 +7724,27 @@
         <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D12,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G12" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F12,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>9999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>50</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>338</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -7532,27 +7767,27 @@
         <v>171</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D13,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G13" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F13,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>9999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>150</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>1500</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>339</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -7575,27 +7810,27 @@
         <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D14,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G14" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F14,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>9999</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>300</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>3000</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J14" s="57" t="s">
-        <v>340</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -7618,26 +7853,26 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D15,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G15" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F15,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>9999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>341</v>
+      <c r="J15" s="1">
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -7660,26 +7895,26 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D16,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G16" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F16,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>9999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>50</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>342</v>
+      <c r="J16" s="1">
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -7702,26 +7937,26 @@
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D17,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G17" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F17,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>9999</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>100</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>343</v>
+      <c r="J17" s="1">
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -7744,26 +7979,26 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D18,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G18" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F18,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
-      <c r="F18" s="1">
+      <c r="H18" s="1">
         <v>9999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>200</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>344</v>
+      <c r="J18" s="1">
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -7786,26 +8021,26 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D19,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G19" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F19,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="H19" s="1">
         <v>9999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>400</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>345</v>
+      <c r="J19" s="1">
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -7828,27 +8063,27 @@
         <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D20,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G20" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F20,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
-      <c r="F20" s="1">
+      <c r="H20" s="1">
         <v>9999</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:H24" si="1">G20*10</f>
+      <c r="J20" s="1">
+        <f t="shared" ref="J20:J24" si="1">I20*10</f>
         <v>100</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J20" s="57" t="s">
-        <v>346</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -7871,27 +8106,27 @@
         <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E21" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D21,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G21" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F21,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="H21" s="1">
         <v>9999</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>347</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -7914,27 +8149,27 @@
         <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D22,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G22" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F22,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
         <v>9999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>50</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="1"/>
         <v>500</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>348</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -7957,27 +8192,27 @@
         <v>184</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D23,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G23" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F23,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
-      <c r="F23" s="1">
+      <c r="H23" s="1">
         <v>9999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>150</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
         <f t="shared" si="1"/>
         <v>1500</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>349</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -8000,27 +8235,27 @@
         <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D24,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G24" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F24,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>5</v>
       </c>
-      <c r="F24" s="1">
+      <c r="H24" s="1">
         <v>9999</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>300</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>3000</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J24" s="57" t="s">
-        <v>350</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -8043,26 +8278,26 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D25,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G25" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F25,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>4</v>
       </c>
-      <c r="F25" s="1">
+      <c r="H25" s="1">
         <v>9999</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>10</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
         <v>100</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>351</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -8085,26 +8320,26 @@
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D26,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G26" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F26,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>4</v>
       </c>
-      <c r="F26" s="1">
+      <c r="H26" s="1">
         <v>9999</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
         <v>200</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J26" s="57" t="s">
-        <v>352</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -8127,26 +8362,26 @@
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D27,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G27" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F27,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="H27" s="1">
         <v>9999</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>30</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
         <v>300</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J27" s="57" t="s">
-        <v>353</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -8169,26 +8404,26 @@
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D28,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G28" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F28,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>6</v>
       </c>
-      <c r="F28" s="1">
+      <c r="H28" s="1">
         <v>9999</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J28" s="57" t="s">
-        <v>354</v>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -8211,26 +8446,26 @@
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D29,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G29" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F29,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>8</v>
       </c>
-      <c r="F29" s="1">
+      <c r="H29" s="1">
         <v>9999</v>
       </c>
-      <c r="G29" s="1">
+      <c r="I29" s="1">
         <v>10</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
         <v>1000</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J29" s="57" t="s">
-        <v>355</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -8253,26 +8488,26 @@
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D30,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G30" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F30,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>8</v>
       </c>
-      <c r="F30" s="1">
+      <c r="H30" s="1">
         <v>9999</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I30" s="1">
         <v>50</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
         <v>2500</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J30" s="57" t="s">
-        <v>356</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -8295,26 +8530,26 @@
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="1">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(D31,'!참조_ENUM'!$C$4:$C$20,0))</f>
+      <c r="G31" s="1">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F31,'!참조_ENUM'!$C$4:$C$20,0))</f>
         <v>8</v>
       </c>
-      <c r="F31" s="1">
+      <c r="H31" s="1">
         <v>9999</v>
       </c>
-      <c r="G31" s="1">
+      <c r="I31" s="1">
         <v>100</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
         <v>5000</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J31" s="57" t="s">
-        <v>357</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -8337,7 +8572,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$20</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D31</xm:sqref>
+          <xm:sqref>F5:F31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8347,10 +8582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E993661-8E4D-4B88-A543-F5F1CEA214EE}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8358,20 +8593,21 @@
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="63.6640625" customWidth="1"/>
+    <col min="4" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6">
+    <row r="2" spans="1:11" ht="27.6">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8381,26 +8617,32 @@
       <c r="C2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="42" t="s">
         <v>247</v>
       </c>
@@ -8411,10 +8653,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -8426,10 +8668,16 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
         <v>201</v>
       </c>
@@ -8439,26 +8687,32 @@
       <c r="C4" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -8468,26 +8722,32 @@
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>9999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -8497,26 +8757,32 @@
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="1">
         <v>26</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>9999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -8526,22 +8792,28 @@
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="1">
         <v>27</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>9999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8554,36 +8826,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.6640625" customWidth="1"/>
-    <col min="15" max="17" width="8" customWidth="1"/>
-    <col min="18" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="73.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="19" width="8" customWidth="1"/>
+    <col min="20" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="73.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="28.8">
+    <row r="2" spans="1:22" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8593,59 +8866,65 @@
       <c r="C2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="S2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="U2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:22">
       <c r="A3" s="42" t="s">
         <v>247</v>
       </c>
@@ -8656,16 +8935,16 @@
         <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>3</v>
@@ -8701,13 +8980,19 @@
         <v>3</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -8717,59 +9002,65 @@
       <c r="C4" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.6">
+    <row r="5" spans="1:22" ht="15.6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -8779,22 +9070,22 @@
       <c r="C5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D5,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G5" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F5,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>9999</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
@@ -8811,28 +9102,34 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>2</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>3</v>
       </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -8842,22 +9139,22 @@
       <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D6,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G6" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F6,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>9999</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
@@ -8874,28 +9171,34 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -8905,22 +9208,22 @@
       <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D7,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G7" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F7,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>9999</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
@@ -8937,14 +9240,14 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>5</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
@@ -8954,11 +9257,17 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -8968,22 +9277,22 @@
       <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D8,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G8" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F8,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>9999</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
@@ -9000,28 +9309,34 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>3</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
         <v>2</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.8">
+    <row r="9" spans="1:22" ht="13.8">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -9031,22 +9346,22 @@
       <c r="C9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D9,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G9" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F9,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>9999</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
@@ -9063,28 +9378,34 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>2</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <v>3</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -9094,22 +9415,22 @@
       <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D10,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G10" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F10,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>9999</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
@@ -9126,14 +9447,14 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>5</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
       <c r="Q10" s="1">
         <v>0</v>
       </c>
@@ -9143,11 +9464,17 @@
       <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -9157,22 +9484,22 @@
       <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D11,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G11" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F11,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>9999</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
@@ -9183,13 +9510,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -9201,16 +9528,22 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -9220,22 +9553,22 @@
       <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D12,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G12" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F12,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>9999</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
@@ -9249,14 +9582,14 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>5</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
       <c r="P12" s="1">
         <v>0</v>
       </c>
@@ -9269,11 +9602,17 @@
       <c r="S12" s="1">
         <v>0</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.6">
+    <row r="13" spans="1:22" ht="15.6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -9283,22 +9622,22 @@
       <c r="C13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D13,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G13" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F13,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>9999</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
@@ -9318,25 +9657,31 @@
         <v>0</v>
       </c>
       <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>3</v>
       </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="13.8">
+    <row r="14" spans="1:22" ht="13.8">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -9346,22 +9691,22 @@
       <c r="C14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D14,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G14" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F14,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>9999</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
@@ -9375,31 +9720,37 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>3</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
       <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
         <v>2</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="13.8">
+    <row r="15" spans="1:22" ht="13.8">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -9409,25 +9760,25 @@
       <c r="C15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D15,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G15" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F15,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>9999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
@@ -9438,31 +9789,37 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
       <c r="P15" s="1">
         <v>0</v>
       </c>
       <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
         <v>2</v>
       </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="13.8">
+    <row r="16" spans="1:22" ht="13.8">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -9472,21 +9829,21 @@
       <c r="C16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D16,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G16" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F16,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>9999</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -9495,17 +9852,17 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>1</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
       <c r="O16" s="1">
         <v>0</v>
       </c>
@@ -9521,11 +9878,17 @@
       <c r="S16" s="1">
         <v>0</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="13.8">
+    <row r="17" spans="1:22" ht="13.8">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -9535,31 +9898,31 @@
       <c r="C17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D17,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G17" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F17,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>9999</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
       <c r="L17" s="1">
         <v>0</v>
       </c>
@@ -9584,11 +9947,17 @@
       <c r="S17" s="1">
         <v>0</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="13.8">
+    <row r="18" spans="1:22" ht="13.8">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -9598,28 +9967,28 @@
       <c r="C18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D18,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G18" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F18,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="H18" s="1">
         <v>9999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
@@ -9647,11 +10016,17 @@
       <c r="S18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="13.8">
+    <row r="19" spans="1:22" ht="13.8">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -9661,25 +10036,25 @@
       <c r="C19" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D19,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G19" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F19,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="H19" s="1">
         <v>9999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
       <c r="J19" s="1">
         <v>0</v>
       </c>
@@ -9710,11 +10085,17 @@
       <c r="S19" s="1">
         <v>0</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="13.8">
+    <row r="20" spans="1:22" ht="13.8">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -9724,25 +10105,25 @@
       <c r="C20" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D20,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G20" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F20,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="H20" s="1">
         <v>9999</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
       <c r="J20" s="1">
         <v>0</v>
       </c>
@@ -9773,11 +10154,17 @@
       <c r="S20" s="1">
         <v>0</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="13.8">
+    <row r="21" spans="1:22" ht="13.8">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -9787,25 +10174,25 @@
       <c r="C21" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D21,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G21" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F21,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>3</v>
       </c>
-      <c r="F21" s="1">
+      <c r="H21" s="1">
         <v>9999</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
       <c r="J21" s="1">
         <v>0</v>
       </c>
@@ -9836,11 +10223,17 @@
       <c r="S21" s="1">
         <v>0</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="13.8">
+    <row r="22" spans="1:22" ht="13.8">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -9850,25 +10243,25 @@
       <c r="C22" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D22,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G22" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F22,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>3</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
         <v>9999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>4</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
@@ -9899,11 +10292,17 @@
       <c r="S22" s="1">
         <v>0</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="13.8">
+    <row r="23" spans="1:22" ht="13.8">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -9913,25 +10312,25 @@
       <c r="C23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D23,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G23" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F23,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>4</v>
       </c>
-      <c r="F23" s="1">
+      <c r="H23" s="1">
         <v>9999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
       <c r="J23" s="1">
         <v>0</v>
       </c>
@@ -9945,14 +10344,14 @@
         <v>0</v>
       </c>
       <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
         <v>1</v>
       </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
       <c r="Q23" s="1">
         <v>0</v>
       </c>
@@ -9962,11 +10361,17 @@
       <c r="S23" s="1">
         <v>0</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="13.8">
+    <row r="24" spans="1:22" ht="13.8">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -9976,28 +10381,28 @@
       <c r="C24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D24,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G24" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F24,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>4</v>
       </c>
-      <c r="F24" s="1">
+      <c r="H24" s="1">
         <v>9999</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
@@ -10005,14 +10410,14 @@
         <v>0</v>
       </c>
       <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
         <v>1</v>
       </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
       <c r="P24" s="1">
         <v>0</v>
       </c>
@@ -10025,11 +10430,17 @@
       <c r="S24" s="1">
         <v>0</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="13.8">
+    <row r="25" spans="1:22" ht="13.8">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -10039,40 +10450,40 @@
       <c r="C25" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D25,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G25" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F25,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>4</v>
       </c>
-      <c r="F25" s="1">
+      <c r="H25" s="1">
         <v>9999</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
       <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
       <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>1</v>
       </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
       <c r="O25" s="1">
         <v>0</v>
       </c>
@@ -10088,11 +10499,17 @@
       <c r="S25" s="1">
         <v>0</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="13.8">
+    <row r="26" spans="1:22" ht="13.8">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -10102,25 +10519,25 @@
       <c r="C26" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D26,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G26" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F26,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>5</v>
       </c>
-      <c r="F26" s="1">
+      <c r="H26" s="1">
         <v>9999</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
       <c r="J26" s="1">
         <v>0</v>
       </c>
@@ -10134,14 +10551,14 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
         <v>1</v>
       </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
@@ -10151,11 +10568,17 @@
       <c r="S26" s="1">
         <v>0</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="13.8">
+    <row r="27" spans="1:22" ht="13.8">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -10165,28 +10588,28 @@
       <c r="C27" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D27,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G27" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F27,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="H27" s="1">
         <v>9999</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
@@ -10194,14 +10617,14 @@
         <v>0</v>
       </c>
       <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
       <c r="P27" s="1">
         <v>0</v>
       </c>
@@ -10214,11 +10637,17 @@
       <c r="S27" s="1">
         <v>0</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="13.8">
+    <row r="28" spans="1:22" ht="13.8">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -10228,40 +10657,40 @@
       <c r="C28" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="1">
-        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(D28,'!참조_ENUM'!$O$13:$O$23,0))</f>
+      <c r="G28" s="1">
+        <f>INDEX('!참조_ENUM'!$N$13:$N$85,MATCH(F28,'!참조_ENUM'!$O$13:$O$23,0))</f>
         <v>5</v>
       </c>
-      <c r="F28" s="1">
+      <c r="H28" s="1">
         <v>9999</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
       <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
       <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
       <c r="O28" s="1">
         <v>0</v>
       </c>
@@ -10277,7 +10706,13 @@
       <c r="S28" s="1">
         <v>0</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -10293,7 +10728,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$O$13:$O$19</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D28</xm:sqref>
+          <xm:sqref>F5:F28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291C6C8-93FB-423A-8142-A948EC094B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAF0F2-B4D0-4429-B952-68BD46A8C1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30480" yWindow="756" windowWidth="28452" windowHeight="16368" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27504" yWindow="588" windowWidth="25524" windowHeight="16368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="422">
   <si>
     <t>type</t>
   </si>
@@ -3277,25 +3277,543 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+    <t>재화 타입(기획)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_bound</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 골드 (게임내 재화)</t>
+  </si>
+  <si>
+    <t>2 다이아 (게임내 유료 재화)</t>
+  </si>
+  <si>
+    <t>item_piece_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0005</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0006</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0007</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0008</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0009</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0010</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0011</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0012</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0013</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0014</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0015</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0016</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0017</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0018</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0019</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0020</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0021</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0022</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0023</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0024</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/UI_UpperIcon_Piece</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0005</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0006</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0007</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0008</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0009</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0010</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0011</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0012</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0013</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0014</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0015</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0016</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0017</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gold</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gem_free</t>
+  </si>
+  <si>
+    <t>key_1:ENUM:GOODS_TYPE:NONE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_love_item_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_03</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_04</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_05</t>
+  </si>
+  <si>
+    <t>1 금화(게임내 사용되는 재화)</t>
+  </si>
+  <si>
+    <t>2 보석(게임내 사용되는 유료 재화)</t>
+  </si>
+  <si>
+    <t>3 스태미나</t>
+  </si>
+  <si>
+    <t>4 호감도</t>
+  </si>
+  <si>
+    <t>5 플레이어 경험치</t>
+  </si>
+  <si>
+    <t>6 캐릭터 경험치</t>
+  </si>
+  <si>
+    <t>7 캐릭터</t>
+  </si>
+  <si>
+    <t>8 장비</t>
+  </si>
+  <si>
+    <t>SEND_ESSENCE</t>
+  </si>
+  <si>
+    <t>9 근원 전달 횟수(플레이어 보유)</t>
+  </si>
+  <si>
+    <t>GET_ESSENCE</t>
+  </si>
+  <si>
+    <t>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
+  </si>
+  <si>
+    <t>BOSS_DUNGEON_TICKET</t>
+  </si>
+  <si>
+    <t>106 보스전 입장 횟수</t>
+  </si>
+  <si>
+    <t>111 장비 조각</t>
+  </si>
+  <si>
+    <t>112 캐릭터 조각</t>
+  </si>
+  <si>
+    <t>PIECE_ITEM</t>
+  </si>
+  <si>
+    <t>113 아이템 조각</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>1000 아이템</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>재화</t>
+      <t>설명</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> string ID</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#desc_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_goods_gold</t>
+  </si>
+  <si>
+    <t>system_goods_gem</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0001</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0002</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0003</t>
+  </si>
+  <si>
+    <t>item_desc_stage_skip_ticket_0001</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0001</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0002</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0003</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(소)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(중)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(특대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(극대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(소)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(중)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(특대)이다.</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(극대)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(소)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(중)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(대)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(특대)이다.</t>
+  </si>
+  <si>
+    <t>스테미너 물약(극대)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(소)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(중)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(대)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(특대)이다.</t>
+  </si>
+  <si>
+    <t>전투 보고서(극대)이다.</t>
+  </si>
+  <si>
+    <t>츄러스이다.</t>
+  </si>
+  <si>
+    <t>와플이다.</t>
+  </si>
+  <si>
+    <t>베리 케이크이다.</t>
+  </si>
+  <si>
+    <t>시나리오 스킵 티켓이다.</t>
+  </si>
+  <si>
+    <t>하급 정령석이다.</t>
+  </si>
+  <si>
+    <t>중급 정련석이다.</t>
+  </si>
+  <si>
+    <t>상급 정련석이다.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3304,344 +3822,31 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>타입</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 타입(기획)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대값</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_bound</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 골드 (게임내 재화)</t>
-  </si>
-  <si>
-    <t>2 다이아 (게임내 유료 재화)</t>
-  </si>
-  <si>
-    <t>item_piece_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0001</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0004</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0005</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0006</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0007</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0008</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0009</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0010</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0011</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0012</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0013</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0014</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0015</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0016</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0017</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0018</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0019</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0020</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0021</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0022</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0023</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0024</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/UI_UpperIcon_Piece</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0001</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0004</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0005</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0006</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0007</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0008</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0009</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0010</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0011</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0012</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0013</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0014</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0015</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0016</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0017</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gold</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gem_free</t>
-  </si>
-  <si>
-    <t>key_1:ENUM:GOODS_TYPE:NONE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0003</t>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0004</t>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0005</t>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_name_love_item_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_love_item_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_love_item_0003</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_love_item_0004</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_02</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_03</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_04</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_05</t>
-  </si>
-  <si>
-    <t>1 금화(게임내 사용되는 재화)</t>
-  </si>
-  <si>
-    <t>2 보석(게임내 사용되는 유료 재화)</t>
-  </si>
-  <si>
-    <t>3 스태미나</t>
-  </si>
-  <si>
-    <t>4 호감도</t>
-  </si>
-  <si>
-    <t>5 플레이어 경험치</t>
-  </si>
-  <si>
-    <t>6 캐릭터 경험치</t>
-  </si>
-  <si>
-    <t>7 캐릭터</t>
-  </si>
-  <si>
-    <t>8 장비</t>
-  </si>
-  <si>
-    <t>SEND_ESSENCE</t>
-  </si>
-  <si>
-    <t>9 근원 전달 횟수(플레이어 보유)</t>
-  </si>
-  <si>
-    <t>GET_ESSENCE</t>
-  </si>
-  <si>
-    <t>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
-  </si>
-  <si>
-    <t>BOSS_DUNGEON_TICKET</t>
-  </si>
-  <si>
-    <t>106 보스전 입장 횟수</t>
-  </si>
-  <si>
-    <t>111 장비 조각</t>
-  </si>
-  <si>
-    <t>112 캐릭터 조각</t>
-  </si>
-  <si>
-    <t>PIECE_ITEM</t>
-  </si>
-  <si>
-    <t>113 아이템 조각</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>1000 아이템</t>
+      <t xml:space="preserve">설명 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>string ID</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#desc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 정령석의 조각이다. 조각을 모아 중급 정령석을 만들 수 있다.</t>
+  </si>
+  <si>
+    <t>상급 정령석의 조각이다. 조각을 모아 상급 정령석을 만들 수 있다.</t>
+  </si>
+  <si>
+    <t>하급 정령석의 조각이다. 조각을 모아 하급 정령석을 만들 수 있다.</t>
   </si>
   <si>
     <r>
@@ -3652,7 +3857,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>설명</t>
+      <t xml:space="preserve">설명 </t>
     </r>
     <r>
       <rPr>
@@ -3661,257 +3866,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> string ID</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 설명</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>#desc_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_goods_gold</t>
-  </si>
-  <si>
-    <t>system_goods_gem</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0001</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0002</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0001</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0002</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0001</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0002</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0003</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0004</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0005</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0001</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0002</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_desc_love_item_0001</t>
-  </si>
-  <si>
-    <t>item_desc_love_item_0002</t>
-  </si>
-  <si>
-    <t>item_desc_love_item_0003</t>
-  </si>
-  <si>
-    <t>item_desc_stage_skip_ticket_0001</t>
-  </si>
-  <si>
-    <t>item_desc_eq_growup_0001</t>
-  </si>
-  <si>
-    <t>item_desc_eq_growup_0002</t>
-  </si>
-  <si>
-    <t>item_desc_eq_growup_0003</t>
-  </si>
-  <si>
-    <t>경험치 물약_P(소)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_P(중)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_P(대)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_P(특대)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_P(극대)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_C(소)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_C(중)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_C(대)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_C(특대)이다.</t>
-  </si>
-  <si>
-    <t>경험치 물약_C(극대)이다.</t>
-  </si>
-  <si>
-    <t>스테미너 물약(소)이다.</t>
-  </si>
-  <si>
-    <t>스테미너 물약(중)이다.</t>
-  </si>
-  <si>
-    <t>스테미너 물약(대)이다.</t>
-  </si>
-  <si>
-    <t>스테미너 물약(특대)이다.</t>
-  </si>
-  <si>
-    <t>스테미너 물약(극대)이다.</t>
-  </si>
-  <si>
-    <t>전투 보고서(소)이다.</t>
-  </si>
-  <si>
-    <t>전투 보고서(중)이다.</t>
-  </si>
-  <si>
-    <t>전투 보고서(대)이다.</t>
-  </si>
-  <si>
-    <t>전투 보고서(특대)이다.</t>
-  </si>
-  <si>
-    <t>전투 보고서(극대)이다.</t>
-  </si>
-  <si>
-    <t>츄러스이다.</t>
-  </si>
-  <si>
-    <t>와플이다.</t>
-  </si>
-  <si>
-    <t>베리 케이크이다.</t>
-  </si>
-  <si>
-    <t>시나리오 스킵 티켓이다.</t>
-  </si>
-  <si>
-    <t>하급 정령석이다.</t>
-  </si>
-  <si>
-    <t>중급 정련석이다.</t>
-  </si>
-  <si>
-    <t>상급 정련석이다.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">설명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
       <t>string ID</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>#desc</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_eq_growup_piece_0001</t>
-  </si>
-  <si>
-    <t>item_name_eq_growup_piece_0002</t>
-  </si>
-  <si>
-    <t>item_name_eq_growup_piece_0003</t>
-  </si>
-  <si>
-    <t>중급 정령석의 조각이다. 조각을 모아 중급 정령석을 만들 수 있다.</t>
-  </si>
-  <si>
-    <t>상급 정령석의 조각이다. 조각을 모아 상급 정령석을 만들 수 있다.</t>
-  </si>
-  <si>
-    <t>하급 정령석의 조각이다. 조각을 모아 하급 정령석을 만들 수 있다.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">설명 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>string ID</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>장비 설명</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -4076,6 +4035,39 @@
   <si>
     <t>아이템 조각 설명</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_piece_0001</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_piece_0002</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_piece_0003</t>
+  </si>
+  <si>
+    <t>설명 string (기획)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 타입</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 string ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_goods_desc_gold</t>
+  </si>
+  <si>
+    <t>system_goods_desc_gem</t>
+  </si>
+  <si>
+    <t>금색으로 빛나는 돌. 다양한 상품을 거래할 수 있다.</t>
+  </si>
+  <si>
+    <t>어른의 카드. 다양한 상품을 거래할 수 있다.</t>
   </si>
 </sst>
 </file>
@@ -4468,7 +4460,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4568,21 +4560,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4600,6 +4577,14 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5994,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6">
@@ -6005,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6">
@@ -6016,7 +6001,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6">
@@ -6027,7 +6012,7 @@
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6">
@@ -6038,7 +6023,7 @@
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6">
@@ -6049,7 +6034,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6">
@@ -6060,7 +6045,7 @@
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="15.6">
@@ -6071,40 +6056,40 @@
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="15.6">
       <c r="M34" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="15.6">
       <c r="M35" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="15.6">
       <c r="M36" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N36" s="31">
         <v>106</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="15.6">
@@ -6115,7 +6100,7 @@
         <v>111</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="15.6">
@@ -6126,29 +6111,29 @@
         <v>112</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="15.6">
       <c r="M39" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N39" s="31">
         <v>113</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="15.6">
       <c r="M40" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N40" s="31">
         <v>1000</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="15.6">
@@ -7135,10 +7120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787604D-A7F1-41E4-82F7-4CC79E1BE613}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7146,100 +7131,132 @@
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="50.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="G2" s="54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="52" t="s">
+      <c r="G3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="52" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="G4" s="48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="45">
         <f>INDEX('!참조_ENUM'!$R$4:$R$6,MATCH(B5,'!참조_ENUM'!$S$4:$S$6,0))</f>
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="54">
+      <c r="B5" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" s="49">
         <v>9999999999</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.8">
+      <c r="G5" s="45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="45">
         <f>INDEX('!참조_ENUM'!$R$4:$R$6,MATCH(B6,'!참조_ENUM'!$S$4:$S$6,0))</f>
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="54">
+      <c r="B6" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="49">
         <v>999999</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>245</v>
+      <c r="G6" s="45" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -7265,7 +7282,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="D2:E2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7273,7 +7290,7 @@
     <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.109375" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
@@ -7299,11 +7316,11 @@
       <c r="C2" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>298</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>299</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>188</v>
@@ -7332,7 +7349,7 @@
     </row>
     <row r="3" spans="1:13" s="41" customFormat="1">
       <c r="A3" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>4</v>
@@ -7382,10 +7399,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>300</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>301</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>191</v>
@@ -7417,16 +7434,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>167</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>331</v>
+        <v>303</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>330</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>149</v>
@@ -7452,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7460,16 +7477,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>332</v>
+        <v>304</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>331</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>149</v>
@@ -7495,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7503,16 +7520,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>333</v>
+        <v>305</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>332</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>149</v>
@@ -7538,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7546,16 +7563,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>334</v>
+        <v>306</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>333</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>149</v>
@@ -7581,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7589,16 +7606,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>335</v>
+        <v>307</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>149</v>
@@ -7624,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7632,16 +7649,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>336</v>
+        <v>308</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>173</v>
@@ -7667,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7675,16 +7692,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>169</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>337</v>
+        <v>309</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>336</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>173</v>
@@ -7710,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7718,16 +7735,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>338</v>
+        <v>310</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>337</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>173</v>
@@ -7753,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7761,16 +7778,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>339</v>
+        <v>311</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>338</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>173</v>
@@ -7796,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7804,16 +7821,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>340</v>
+        <v>312</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>339</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>173</v>
@@ -7839,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7847,16 +7864,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>341</v>
+        <v>313</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>340</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>174</v>
@@ -7881,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -7889,16 +7906,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>342</v>
+        <v>314</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>341</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>174</v>
@@ -7923,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7931,16 +7948,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>343</v>
+        <v>315</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>342</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>174</v>
@@ -7965,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7973,16 +7990,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>344</v>
+        <v>316</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>343</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>174</v>
@@ -8007,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -8015,16 +8032,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>345</v>
+        <v>317</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>344</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>174</v>
@@ -8049,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="13.8">
@@ -8057,16 +8074,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>346</v>
+        <v>318</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>345</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>186</v>
@@ -8092,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="13.8">
@@ -8100,16 +8117,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>347</v>
+        <v>319</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>346</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>186</v>
@@ -8135,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="13.8">
@@ -8143,16 +8160,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>348</v>
+        <v>320</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>347</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>186</v>
@@ -8178,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="13.8">
@@ -8186,16 +8203,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>349</v>
+        <v>321</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>348</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>186</v>
@@ -8221,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="13.8">
@@ -8229,16 +8246,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>350</v>
+        <v>322</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>349</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>186</v>
@@ -8264,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -8272,16 +8289,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>351</v>
+        <v>323</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>350</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>175</v>
@@ -8306,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8314,16 +8331,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>352</v>
+        <v>324</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>351</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>175</v>
@@ -8348,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -8356,16 +8373,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>353</v>
+        <v>325</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>352</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>175</v>
@@ -8390,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.6">
@@ -8398,16 +8415,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>354</v>
+        <v>326</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>353</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>176</v>
@@ -8432,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -8446,10 +8463,10 @@
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>355</v>
+        <v>327</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>354</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>177</v>
@@ -8474,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8488,10 +8505,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>356</v>
+        <v>328</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>355</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>177</v>
@@ -8516,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -8530,10 +8547,10 @@
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>357</v>
+        <v>329</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>356</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>177</v>
@@ -8558,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -8585,7 +8602,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8618,10 +8635,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>415</v>
+        <v>357</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>411</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>34</v>
@@ -8644,7 +8661,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -8679,7 +8696,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -8688,10 +8705,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>36</v>
@@ -8723,10 +8740,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F5" s="1">
         <v>25</v>
@@ -8744,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8758,10 +8775,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F6" s="1">
         <v>26</v>
@@ -8779,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8793,10 +8810,10 @@
         <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F7" s="1">
         <v>27</v>
@@ -8814,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -8828,7 +8845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -8867,10 +8884,10 @@
         <v>104</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -8926,7 +8943,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -9003,10 +9020,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>111</v>
@@ -9071,10 +9088,10 @@
         <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>112</v>
@@ -9126,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -9140,10 +9157,10 @@
         <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>112</v>
@@ -9195,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -9209,10 +9226,10 @@
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>112</v>
@@ -9264,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -9278,10 +9295,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>112</v>
@@ -9333,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.8">
@@ -9347,10 +9364,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>112</v>
@@ -9402,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -9416,10 +9433,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>112</v>
@@ -9471,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -9485,10 +9502,10 @@
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>112</v>
@@ -9540,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -9554,10 +9571,10 @@
         <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>112</v>
@@ -9609,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.6">
@@ -9623,10 +9640,10 @@
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>112</v>
@@ -9678,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="13.8">
@@ -9692,10 +9709,10 @@
         <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>112</v>
@@ -9747,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.8">
@@ -9761,7 +9778,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>77</v>
@@ -9816,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.8">
@@ -9830,10 +9847,10 @@
         <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>113</v>
@@ -9885,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.8">
@@ -9899,10 +9916,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>113</v>
@@ -9954,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.8">
@@ -9968,10 +9985,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>113</v>
@@ -10023,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="13.8">
@@ -10037,10 +10054,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>114</v>
@@ -10092,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="13.8">
@@ -10106,10 +10123,10 @@
         <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>114</v>
@@ -10161,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="13.8">
@@ -10175,10 +10192,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>114</v>
@@ -10230,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="13.8">
@@ -10244,10 +10261,10 @@
         <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>114</v>
@@ -10299,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="13.8">
@@ -10313,10 +10330,10 @@
         <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>115</v>
@@ -10368,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="13.8">
@@ -10382,10 +10399,10 @@
         <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>115</v>
@@ -10437,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="13.8">
@@ -10451,10 +10468,10 @@
         <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>115</v>
@@ -10506,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="13.8">
@@ -10520,10 +10537,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>116</v>
@@ -10575,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="13.8">
@@ -10589,10 +10606,10 @@
         <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>116</v>
@@ -10644,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="13.8">
@@ -10658,10 +10675,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>116</v>
@@ -10713,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAF0F2-B4D0-4429-B952-68BD46A8C1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843E8BE-AF1B-4F0E-A92A-7F008D142A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27504" yWindow="588" windowWidth="25524" windowHeight="16368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19560" yWindow="2952" windowWidth="18276" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -7123,7 +7123,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7226,7 +7226,7 @@
         <v>418</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F5" s="49">
         <v>9999999999</v>
@@ -7250,7 +7250,7 @@
         <v>419</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F6" s="49">
         <v>999999</v>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843E8BE-AF1B-4F0E-A92A-7F008D142A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD80D08-31EE-452B-8A91-7A2204CA9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19560" yWindow="2952" windowWidth="18276" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22932" yWindow="2820" windowWidth="19860" windowHeight="11172" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -3646,12 +3646,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>system_goods_gold</t>
-  </si>
-  <si>
-    <t>system_goods_gem</t>
-  </si>
-  <si>
     <t>item_desc_p_exp_potion_0001</t>
   </si>
   <si>
@@ -4068,6 +4062,14 @@
   </si>
   <si>
     <t>어른의 카드. 다양한 상품을 거래할 수 있다.</t>
+  </si>
+  <si>
+    <t>system_goods_name_gold</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_goods_name_gem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7123,7 +7125,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7144,7 +7146,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>194</v>
@@ -7153,10 +7155,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F2" s="54" t="s">
         <v>195</v>
@@ -7220,13 +7222,13 @@
         <v>198</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F5" s="49">
         <v>9999999999</v>
@@ -7244,13 +7246,13 @@
         <v>199</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>302</v>
+        <v>421</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F6" s="49">
         <v>999999</v>
@@ -7440,10 +7442,10 @@
         <v>167</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>149</v>
@@ -7483,10 +7485,10 @@
         <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>149</v>
@@ -7526,10 +7528,10 @@
         <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>149</v>
@@ -7569,10 +7571,10 @@
         <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>149</v>
@@ -7612,10 +7614,10 @@
         <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>149</v>
@@ -7655,10 +7657,10 @@
         <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>173</v>
@@ -7698,10 +7700,10 @@
         <v>169</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>173</v>
@@ -7741,10 +7743,10 @@
         <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>173</v>
@@ -7784,10 +7786,10 @@
         <v>171</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>173</v>
@@ -7827,10 +7829,10 @@
         <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>173</v>
@@ -7870,10 +7872,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>174</v>
@@ -7912,10 +7914,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>174</v>
@@ -7954,10 +7956,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>174</v>
@@ -7996,10 +7998,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>174</v>
@@ -8038,10 +8040,10 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>174</v>
@@ -8080,10 +8082,10 @@
         <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>186</v>
@@ -8123,10 +8125,10 @@
         <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>186</v>
@@ -8166,10 +8168,10 @@
         <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>186</v>
@@ -8209,10 +8211,10 @@
         <v>184</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>186</v>
@@ -8252,10 +8254,10 @@
         <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>186</v>
@@ -8295,10 +8297,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>175</v>
@@ -8337,10 +8339,10 @@
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>175</v>
@@ -8379,10 +8381,10 @@
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>175</v>
@@ -8421,10 +8423,10 @@
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>176</v>
@@ -8463,10 +8465,10 @@
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>177</v>
@@ -8505,10 +8507,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>177</v>
@@ -8547,10 +8549,10 @@
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>177</v>
@@ -8635,10 +8637,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>34</v>
@@ -8708,7 +8710,7 @@
         <v>299</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>36</v>
@@ -8740,10 +8742,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F5" s="1">
         <v>25</v>
@@ -8775,10 +8777,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F6" s="1">
         <v>26</v>
@@ -8810,10 +8812,10 @@
         <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F7" s="1">
         <v>27</v>
@@ -8884,10 +8886,10 @@
         <v>104</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -9023,7 +9025,7 @@
         <v>299</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>111</v>
@@ -9088,10 +9090,10 @@
         <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>112</v>
@@ -9157,10 +9159,10 @@
         <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>112</v>
@@ -9226,10 +9228,10 @@
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>112</v>
@@ -9295,10 +9297,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>112</v>
@@ -9364,10 +9366,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>112</v>
@@ -9433,10 +9435,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>112</v>
@@ -9502,10 +9504,10 @@
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>112</v>
@@ -9571,10 +9573,10 @@
         <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>112</v>
@@ -9640,10 +9642,10 @@
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>112</v>
@@ -9709,10 +9711,10 @@
         <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>112</v>
@@ -9778,7 +9780,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>77</v>
@@ -9847,10 +9849,10 @@
         <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>113</v>
@@ -9916,10 +9918,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>113</v>
@@ -9985,10 +9987,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>113</v>
@@ -10054,10 +10056,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>114</v>
@@ -10123,10 +10125,10 @@
         <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>114</v>
@@ -10192,10 +10194,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>114</v>
@@ -10261,10 +10263,10 @@
         <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>114</v>
@@ -10330,10 +10332,10 @@
         <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>115</v>
@@ -10399,10 +10401,10 @@
         <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>115</v>
@@ -10468,10 +10470,10 @@
         <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>115</v>
@@ -10537,10 +10539,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>116</v>
@@ -10606,10 +10608,10 @@
         <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>116</v>
@@ -10675,10 +10677,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>116</v>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD80D08-31EE-452B-8A91-7A2204CA9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF5831A-8DDC-4A87-81B9-B6D13A461AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22932" yWindow="2820" windowWidth="19860" windowHeight="11172" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1404" yWindow="864" windowWidth="30888" windowHeight="16008" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -2975,15 +2975,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>item_name_itemPiece_0001</t>
-  </si>
-  <si>
-    <t>item_name_itemPiece_0002</t>
-  </si>
-  <si>
-    <t>item_name_itemPiece_0003</t>
-  </si>
-  <si>
     <t>item_name_equipment_0001</t>
   </si>
   <si>
@@ -3214,18 +3205,6 @@
     <t>8 정련석(장비 성장)</t>
   </si>
   <si>
-    <t>item_name_etcitem_0020</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_etcitem_0021</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_etcitem_0022</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 보고서(소)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3311,9 +3290,6 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0004</t>
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0005</t>
@@ -4070,6 +4046,29 @@
   <si>
     <t>system_goods_name_gem</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Equip/UI_Icon_equipment_0004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_eq_growup_0001</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_eq_growup_0002</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_0003</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0001</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0002</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0003</t>
   </si>
 </sst>
 </file>
@@ -4462,7 +4461,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4587,6 +4586,9 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5939,14 +5941,14 @@
     </row>
     <row r="22" spans="1:15" ht="13.8">
       <c r="M22" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="13.2">
       <c r="M23" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -5964,178 +5966,178 @@
     </row>
     <row r="25" spans="1:15" ht="15.6">
       <c r="M25" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N25" s="31">
         <v>0</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6">
       <c r="M26" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N26" s="31">
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6">
       <c r="M27" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N27" s="31">
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6">
       <c r="M28" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N28" s="31">
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6">
       <c r="M29" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N29" s="31">
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6">
       <c r="M30" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N30" s="31">
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6">
       <c r="M31" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N31" s="31">
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6">
       <c r="M32" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N32" s="33">
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="15.6">
       <c r="M33" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N33" s="33">
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="15.6">
       <c r="M34" s="30" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="15.6">
       <c r="M35" s="30" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="15.6">
       <c r="M36" s="30" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N36" s="31">
         <v>106</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="15.6">
       <c r="M37" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N37" s="31">
         <v>111</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="15.6">
       <c r="M38" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N38" s="31">
         <v>112</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="15.6">
       <c r="M39" s="30" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N39" s="31">
         <v>113</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="15.6">
       <c r="M40" s="30" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N40" s="31">
         <v>1000</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="15.6">
@@ -7124,8 +7126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787604D-A7F1-41E4-82F7-4CC79E1BE613}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7140,28 +7142,28 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="54" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>102</v>
@@ -7169,7 +7171,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="47" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>98</v>
@@ -7184,7 +7186,7 @@
         <v>98</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>4</v>
@@ -7201,13 +7203,13 @@
         <v>99</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G4" s="48" t="s">
         <v>103</v>
@@ -7219,22 +7221,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F5" s="49">
         <v>9999999999</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8">
@@ -7243,22 +7245,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F6" s="49">
         <v>999999</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -7284,7 +7286,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D26" activeCellId="1" sqref="B30 D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7319,16 +7321,16 @@
         <v>97</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>12</v>
@@ -7351,7 +7353,7 @@
     </row>
     <row r="3" spans="1:13" s="41" customFormat="1">
       <c r="A3" s="42" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>4</v>
@@ -7366,10 +7368,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>3</v>
@@ -7401,16 +7403,16 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>10</v>
@@ -7436,19 +7438,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F5,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7471,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7479,19 +7481,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G6" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F6,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7514,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7522,19 +7524,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F7,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7557,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7565,19 +7567,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G8" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F8,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7600,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7608,19 +7610,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G9" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F9,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7643,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7651,19 +7653,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G10" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F10,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7686,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7694,19 +7696,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G11" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F11,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7729,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7737,19 +7739,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G12" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F12,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7772,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7780,19 +7782,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G13" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F13,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7815,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7823,19 +7825,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G14" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F14,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7858,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7866,19 +7868,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G15" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F15,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7900,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -7908,19 +7910,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G16" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F16,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7942,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7950,19 +7952,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G17" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F17,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -7984,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7992,19 +7994,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G18" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F18,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8026,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -8034,19 +8036,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G19" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F19,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8068,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="13.8">
@@ -8076,19 +8078,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G20" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F20,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8111,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="13.8">
@@ -8119,19 +8121,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G21" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F21,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8154,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="13.8">
@@ -8162,19 +8164,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G22" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F22,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8197,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="13.8">
@@ -8205,19 +8207,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G23" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F23,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8240,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="13.8">
@@ -8248,19 +8250,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F24,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8283,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -8291,19 +8293,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G25" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F25,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8325,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8333,19 +8335,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G26" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F26,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8367,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -8375,19 +8377,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G27" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F27,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8409,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.6">
@@ -8417,19 +8419,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G28" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F28,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8451,27 +8453,27 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>178</v>
+      <c r="B29" s="58" t="s">
+        <v>416</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G29" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F29,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8493,27 +8495,27 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>179</v>
+      <c r="B30" s="58" t="s">
+        <v>417</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G30" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F30,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8535,27 +8537,27 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>180</v>
+      <c r="B31" s="58" t="s">
+        <v>418</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G31" s="1">
         <f>INDEX('!참조_ENUM'!$B$4:$B$20,MATCH(F31,'!참조_ENUM'!$C$4:$C$20,0))</f>
@@ -8577,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -8603,8 +8605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E993661-8E4D-4B88-A543-F5F1CEA214EE}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8637,10 +8639,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>34</v>
@@ -8663,7 +8665,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="42" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -8698,7 +8700,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -8707,10 +8709,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>36</v>
@@ -8736,16 +8738,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>122</v>
+        <v>419</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F5" s="1">
         <v>25</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8771,16 +8773,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>123</v>
+        <v>420</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F6" s="1">
         <v>26</v>
@@ -8798,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8806,16 +8808,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>124</v>
+        <v>421</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F7" s="1">
         <v>27</v>
@@ -8833,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8847,8 +8849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1149AC6-5B7F-46D5-BB31-EF8277CA90A9}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8886,10 +8888,10 @@
         <v>104</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -8945,7 +8947,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="42" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -9022,10 +9024,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>111</v>
@@ -9084,16 +9086,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>112</v>
@@ -9145,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -9153,16 +9155,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>112</v>
@@ -9214,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -9222,16 +9224,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>112</v>
@@ -9283,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -9291,16 +9293,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>112</v>
@@ -9352,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>204</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.8">
@@ -9360,16 +9362,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>112</v>
@@ -9421,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -9429,16 +9431,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>112</v>
@@ -9490,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -9498,16 +9500,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>112</v>
@@ -9559,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -9567,16 +9569,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>112</v>
@@ -9628,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.6">
@@ -9636,16 +9638,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>112</v>
@@ -9697,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="13.8">
@@ -9705,16 +9707,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>112</v>
@@ -9766,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.8">
@@ -9774,13 +9776,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>77</v>
@@ -9835,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.8">
@@ -9843,16 +9845,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>113</v>
@@ -9904,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.8">
@@ -9912,16 +9914,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>113</v>
@@ -9973,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.8">
@@ -9981,16 +9983,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>113</v>
@@ -10042,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="13.8">
@@ -10050,16 +10052,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>114</v>
@@ -10111,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="13.8">
@@ -10119,16 +10121,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>114</v>
@@ -10180,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="13.8">
@@ -10188,16 +10190,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>114</v>
@@ -10249,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="13.8">
@@ -10257,16 +10259,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>114</v>
@@ -10318,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="13.8">
@@ -10326,16 +10328,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>115</v>
@@ -10387,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="13.8">
@@ -10395,16 +10397,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>115</v>
@@ -10456,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="13.8">
@@ -10464,16 +10466,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>115</v>
@@ -10525,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="13.8">
@@ -10533,16 +10535,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>116</v>
@@ -10594,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="13.8">
@@ -10602,16 +10604,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>116</v>
@@ -10663,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="13.8">
@@ -10671,16 +10673,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>116</v>
@@ -10732,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/ItemTable_ver2.xlsx
+++ b/Android/ExcelData/ItemTable_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF5831A-8DDC-4A87-81B9-B6D13A461AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8E4BA1-7A02-412E-B370-9E48D50D211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="864" windowWidth="30888" windowHeight="16008" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="1584" windowWidth="29364" windowHeight="13728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="426">
   <si>
     <t>type</t>
   </si>
@@ -3355,177 +3355,152 @@
     <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/UI_UpperIcon_Piece</t>
   </si>
   <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0006</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0007</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0008</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0009</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0010</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0011</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0012</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0013</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0014</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0015</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0016</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0017</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gold</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gem_free</t>
+  </si>
+  <si>
+    <t>key_1:ENUM:GOODS_TYPE:NONE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_love_item_0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_love_item_0004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0001</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0004</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0005</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0006</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0007</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0008</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0009</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0010</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0011</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0012</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0013</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0014</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0015</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0016</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0017</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gold</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Goods/Icon_gem_free</t>
-  </si>
-  <si>
-    <t>key_1:ENUM:GOODS_TYPE:NONE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_1:int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_name_p_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_name_c_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0003</t>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0004</t>
-  </si>
-  <si>
-    <t>item_name_sta_potion_0005</t>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_name_skill_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_name_love_item_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_love_item_0002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_love_item_0003</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_love_item_0004</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_02</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_03</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_04</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/UI/Items/consumable_exp_potion_05</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1 금화(게임내 사용되는 재화)</t>
@@ -4069,6 +4044,41 @@
   </si>
   <si>
     <t>item_name_eq_growup_piece_0003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Item/Etc/UI_Icon_EtcItem_0005</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Character01</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Character02</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Character03</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Character04</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Character05</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Skill01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Skill02</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Skill03</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Skill04</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Exp_Skill05</t>
   </si>
 </sst>
 </file>
@@ -5983,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6">
@@ -5994,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6">
@@ -6005,7 +6015,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6">
@@ -6016,7 +6026,7 @@
         <v>4</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6">
@@ -6027,7 +6037,7 @@
         <v>5</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6">
@@ -6038,7 +6048,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6">
@@ -6049,7 +6059,7 @@
         <v>7</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="15.6">
@@ -6060,40 +6070,40 @@
         <v>8</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="15.6">
       <c r="M34" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N34" s="35">
         <v>9</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="15.6">
       <c r="M35" s="30" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N35" s="35">
         <v>10</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="15.6">
       <c r="M36" s="30" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N36" s="31">
         <v>106</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="15.6">
@@ -6104,7 +6114,7 @@
         <v>111</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="15.6">
@@ -6115,29 +6125,29 @@
         <v>112</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="15.6">
       <c r="M39" s="30" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N39" s="31">
         <v>113</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="15.6">
       <c r="M40" s="30" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="N40" s="31">
         <v>1000</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="15.6">
@@ -7148,7 +7158,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="54" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>188</v>
@@ -7157,10 +7167,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F2" s="54" t="s">
         <v>189</v>
@@ -7171,7 +7181,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>98</v>
@@ -7203,10 +7213,10 @@
         <v>99</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>191</v>
@@ -7224,19 +7234,19 @@
         <v>192</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F5" s="49">
         <v>9999999999</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8">
@@ -7248,19 +7258,19 @@
         <v>193</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F6" s="49">
         <v>999999</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7285,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A1808-8BE1-4A1E-B94B-29FDA16779BF}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" activeCellId="1" sqref="B30 D26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7321,10 +7331,10 @@
         <v>97</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>182</v>
@@ -7353,7 +7363,7 @@
     </row>
     <row r="3" spans="1:13" s="41" customFormat="1">
       <c r="A3" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>4</v>
@@ -7403,10 +7413,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>185</v>
@@ -7438,16 +7448,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>146</v>
@@ -7473,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7481,16 +7491,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>146</v>
@@ -7516,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7524,16 +7534,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>146</v>
@@ -7559,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7567,16 +7577,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>146</v>
@@ -7602,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7610,16 +7620,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>146</v>
@@ -7645,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>223</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7653,16 +7663,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>170</v>
@@ -7688,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>219</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7696,16 +7706,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>170</v>
@@ -7731,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>220</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7739,16 +7749,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>170</v>
@@ -7774,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>221</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7782,16 +7792,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>170</v>
@@ -7817,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>222</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7825,16 +7835,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>169</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>170</v>
@@ -7860,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>223</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7868,16 +7878,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>171</v>
@@ -7902,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -7910,16 +7920,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>171</v>
@@ -7944,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7952,16 +7962,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>171</v>
@@ -7986,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7994,16 +8004,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>171</v>
@@ -8028,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -8036,16 +8046,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>171</v>
@@ -8070,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="13.8">
@@ -8078,16 +8088,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>180</v>
@@ -8113,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="13.8">
@@ -8121,16 +8131,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>180</v>
@@ -8156,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>266</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="13.8">
@@ -8164,16 +8174,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>180</v>
@@ -8199,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>267</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="13.8">
@@ -8207,16 +8217,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>180</v>
@@ -8242,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>268</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="13.8">
@@ -8250,16 +8260,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>179</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>180</v>
@@ -8285,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>269</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -8293,16 +8303,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>172</v>
@@ -8327,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8335,16 +8345,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>172</v>
@@ -8369,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -8377,16 +8387,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>172</v>
@@ -8411,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.6">
@@ -8419,16 +8429,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>173</v>
@@ -8453,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -8461,16 +8471,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>174</v>
@@ -8495,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8503,16 +8513,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>174</v>
@@ -8537,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -8545,16 +8555,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>174</v>
@@ -8579,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -8605,7 +8615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E993661-8E4D-4B88-A543-F5F1CEA214EE}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
@@ -8639,10 +8649,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>34</v>
@@ -8665,7 +8675,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -8709,10 +8719,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>36</v>
@@ -8738,16 +8748,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F5" s="1">
         <v>25</v>
@@ -8773,16 +8783,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F6" s="1">
         <v>26</v>
@@ -8808,16 +8818,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F7" s="1">
         <v>27</v>
@@ -8888,10 +8898,10 @@
         <v>104</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -8947,7 +8957,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -9024,10 +9034,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>111</v>
@@ -9092,10 +9102,10 @@
         <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>112</v>
@@ -9161,10 +9171,10 @@
         <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>112</v>
@@ -9230,10 +9240,10 @@
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>112</v>
@@ -9299,10 +9309,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>112</v>
@@ -9354,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.8">
@@ -9368,10 +9378,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>112</v>
@@ -9437,10 +9447,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>112</v>
@@ -9506,10 +9516,10 @@
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>112</v>
@@ -9575,10 +9585,10 @@
         <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>112</v>
@@ -9644,10 +9654,10 @@
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>112</v>
@@ -9713,10 +9723,10 @@
         <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>112</v>
@@ -9782,7 +9792,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>77</v>
@@ -9851,10 +9861,10 @@
         <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>113</v>
@@ -9920,10 +9930,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>113</v>
@@ -9989,10 +9999,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>113</v>
@@ -10058,10 +10068,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>114</v>
@@ -10127,10 +10137,10 @@
         <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>114</v>
@@ -10196,10 +10206,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>114</v>
@@ -10265,10 +10275,10 @@
         <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>114</v>
@@ -10334,10 +10344,10 @@
         <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>115</v>
@@ -10403,10 +10413,10 @@
         <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>115</v>
@@ -10472,10 +10482,10 @@
         <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>115</v>
@@ -10541,10 +10551,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>116</v>
@@ -10610,10 +10620,10 @@
         <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>116</v>
@@ -10679,10 +10689,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>116</v>
